--- a/Doc/XmlDataDocument_170316.xlsx
+++ b/Doc/XmlDataDocument_170316.xlsx
@@ -28,35 +28,38 @@
   <connection id="3" name="element" type="4" refreshedVersion="0" background="1">
     <webPr xml="1" sourceData="1" url="D:\GitHub\SexyBack\Doc\XmlDataSet\element.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
-  <connection id="4" name="research" type="4" refreshedVersion="0" background="1">
+  <connection id="4" name="element1" type="4" refreshedVersion="0" background="1">
+    <webPr xml="1" sourceData="1" url="D:\GitHub\SexyBack\Doc\XmlDataSet\element.xml" htmlTables="1" htmlFormat="all"/>
+  </connection>
+  <connection id="5" name="research" type="4" refreshedVersion="0" background="1">
     <webPr xml="1" sourceData="1" url="D:\GitHub\SexyBack\Doc\XmlDataSet\research.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
-  <connection id="5" name="research1" type="4" refreshedVersion="0" background="1">
+  <connection id="6" name="research1" type="4" refreshedVersion="0" background="1">
     <webPr xml="1" sourceData="1" url="D:\GitHub\SexyBack\Doc\XmlDataSet\research.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
-  <connection id="6" name="research2" type="4" refreshedVersion="0" background="1">
+  <connection id="7" name="research2" type="4" refreshedVersion="0" background="1">
     <webPr xml="1" sourceData="1" url="D:\GitHub\SexyBack\Doc\XmlDataSet\research.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
-  <connection id="7" name="research3" type="4" refreshedVersion="0" background="1">
+  <connection id="8" name="research3" type="4" refreshedVersion="0" background="1">
     <webPr xml="1" sourceData="1" url="D:\GitHub\SexyBack\Doc\XmlDataSet\research.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
-  <connection id="8" name="research4" type="4" refreshedVersion="0" background="1">
+  <connection id="9" name="research4" type="4" refreshedVersion="0" background="1">
     <webPr xml="1" sourceData="1" url="D:\GitHub\SexyBack\Doc\XmlDataSet\research.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
-  <connection id="9" name="research5" type="4" refreshedVersion="0" background="1">
+  <connection id="10" name="research5" type="4" refreshedVersion="0" background="1">
     <webPr xml="1" sourceData="1" url="D:\GitHub\SexyBack\Doc\XmlDataSet\research.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
-  <connection id="10" name="talent" type="4" refreshedVersion="0" background="1">
+  <connection id="11" name="talent" type="4" refreshedVersion="0" background="1">
     <webPr xml="1" sourceData="1" url="D:\GitHub\SexyBack\Doc\XmlDataSet\talent.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
-  <connection id="11" name="talent1" type="4" refreshedVersion="0" background="1">
+  <connection id="12" name="talent1" type="4" refreshedVersion="0" background="1">
     <webPr xml="1" sourceData="1" url="D:\GitHub\SexyBack\Doc\XmlDataSet\talent.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="242">
   <si>
     <t>hero</t>
   </si>
@@ -157,17 +160,10 @@
   </si>
   <si>
     <t>snowball</t>
-  </si>
-  <si>
-    <t>snowball</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>attackIntervalK</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -798,10 +794,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>눈덩이</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>흙덩이</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -951,6 +943,32 @@
     <t>DpcIncreaseXH</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>skillprefab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>prefab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>snowball</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>눈덩이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>baseskillrate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>basecastintervalxk</t>
+  </si>
+  <si>
+    <t>baseskilldamagexh</t>
+  </si>
 </sst>
 </file>
 
@@ -961,7 +979,7 @@
     <numFmt numFmtId="177" formatCode="0.00_ "/>
     <numFmt numFmtId="178" formatCode="0.000_ "/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1008,8 +1026,17 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1028,8 +1055,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor theme="4" tint="0.59999389629810485"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -1066,13 +1111,105 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1193,35 +1330,46 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="40">
+  <dxfs count="41">
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="맑은 고딕"/>
-        <scheme val="major"/>
-      </font>
       <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.39997558519241921"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1450,6 +1598,31 @@
       <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
     <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <scheme val="major"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
     <dxf>
@@ -1547,25 +1720,6 @@
       </xsd:element>
     </xsd:schema>
   </Schema>
-  <Schema ID="Schema7">
-    <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns="">
-      <xsd:element nillable="true" name="Elementals">
-        <xsd:complexType>
-          <xsd:sequence minOccurs="0">
-            <xsd:element minOccurs="0" maxOccurs="unbounded" nillable="true" name="Elemental" form="unqualified">
-              <xsd:complexType>
-                <xsd:attribute name="id" form="unqualified" type="xsd:string"/>
-                <xsd:attribute name="name" form="unqualified" type="xsd:string"/>
-                <xsd:attribute name="attackIntervalK" form="unqualified" type="xsd:integer"/>
-                <xsd:attribute name="basedps" form="unqualified" type="xsd:double"/>
-                <xsd:attribute name="baseexp" form="unqualified" type="xsd:integer"/>
-              </xsd:complexType>
-            </xsd:element>
-          </xsd:sequence>
-        </xsd:complexType>
-      </xsd:element>
-    </xsd:schema>
-  </Schema>
   <Schema ID="Schema6">
     <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns="">
       <xsd:element nillable="true" name="Researches">
@@ -1652,23 +1806,46 @@
       </xsd:element>
     </xsd:schema>
   </Schema>
+  <Schema ID="Schema5">
+    <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns="">
+      <xsd:element nillable="true" name="Elementals">
+        <xsd:complexType>
+          <xsd:sequence minOccurs="0">
+            <xsd:element minOccurs="0" maxOccurs="unbounded" nillable="true" name="Elemental" form="unqualified">
+              <xsd:complexType>
+                <xsd:attribute name="id" form="unqualified" type="xsd:string"/>
+                <xsd:attribute name="name" form="unqualified" type="xsd:string"/>
+                <xsd:attribute name="basecastintervalxk" form="unqualified" type="xsd:integer"/>
+                <xsd:attribute name="basedps" form="unqualified" type="xsd:integer"/>
+                <xsd:attribute name="baseexp" form="unqualified" type="xsd:integer"/>
+                <xsd:attribute name="prefab" form="unqualified" type="xsd:string"/>
+                <xsd:attribute name="skillprefab" form="unqualified" type="xsd:string"/>
+                <xsd:attribute name="baseskillrate" form="unqualified" type="xsd:integer"/>
+                <xsd:attribute name="baseskilldamagexh" form="unqualified" type="xsd:integer"/>
+              </xsd:complexType>
+            </xsd:element>
+          </xsd:sequence>
+        </xsd:complexType>
+      </xsd:element>
+    </xsd:schema>
+  </Schema>
   <Map ID="4" Name="BonusList_맵" RootElement="BonusList" SchemaID="Schema4" ShowImportExportValidationErrors="false" AutoFit="true" Append="false" PreserveSortAFLayout="true" PreserveFormat="true">
     <DataBinding FileBinding="true" ConnectionID="2" DataBindingLoadMode="1"/>
   </Map>
-  <Map ID="7" Name="Elementals_맵" RootElement="Elementals" SchemaID="Schema7" ShowImportExportValidationErrors="false" AutoFit="true" Append="false" PreserveSortAFLayout="true" PreserveFormat="true">
-    <DataBinding FileBinding="true" ConnectionID="3" DataBindingLoadMode="1"/>
+  <Map ID="13" Name="Elementals_맵" RootElement="Elementals" SchemaID="Schema5" ShowImportExportValidationErrors="false" AutoFit="true" Append="false" PreserveSortAFLayout="true" PreserveFormat="true">
+    <DataBinding FileBinding="true" ConnectionID="4" DataBindingLoadMode="1"/>
   </Map>
   <Map ID="10" Name="Researches_맵" RootElement="Researches" SchemaID="Schema6" ShowImportExportValidationErrors="false" AutoFit="true" Append="false" PreserveSortAFLayout="true" PreserveFormat="true">
-    <DataBinding FileBinding="true" ConnectionID="9" DataBindingLoadMode="1"/>
+    <DataBinding FileBinding="true" ConnectionID="10" DataBindingLoadMode="1"/>
   </Map>
   <Map ID="12" Name="Talents_맵" RootElement="Talents" SchemaID="Schema8" ShowImportExportValidationErrors="false" AutoFit="true" Append="false" PreserveSortAFLayout="true" PreserveFormat="true">
-    <DataBinding FileBinding="true" ConnectionID="11" DataBindingLoadMode="1"/>
+    <DataBinding FileBinding="true" ConnectionID="12" DataBindingLoadMode="1"/>
   </Map>
 </MapInfo>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="표28_2" displayName="표28_2" ref="A1:M28" tableType="xml" totalsRowShown="0" headerRowDxfId="39" dataDxfId="38" connectionId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="표28_2" displayName="표28_2" ref="A1:M28" tableType="xml" totalsRowShown="0" headerRowDxfId="40" dataDxfId="39" connectionId="10">
   <autoFilter ref="A1:M28">
     <filterColumn colId="4"/>
     <filterColumn colId="9"/>
@@ -1676,45 +1853,45 @@
     <filterColumn colId="12"/>
   </autoFilter>
   <tableColumns count="13">
-    <tableColumn id="1" uniqueName="id" name="id" dataDxfId="37">
+    <tableColumn id="1" uniqueName="id" name="id" dataDxfId="38">
       <xmlColumnPr mapId="10" xpath="/Researches/Research/@id" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="2" uniqueName="requireid" name="requireid" dataDxfId="36">
+    <tableColumn id="2" uniqueName="requireid" name="requireid" dataDxfId="37">
       <xmlColumnPr mapId="10" xpath="/Researches/Research/@requireid" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="3" uniqueName="requirelevel" name="requirelevel" dataDxfId="35">
+    <tableColumn id="3" uniqueName="requirelevel" name="requirelevel" dataDxfId="36">
       <xmlColumnPr mapId="10" xpath="/Researches/Research/@requirelevel" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="4" uniqueName="icon" name="icon" dataDxfId="34">
+    <tableColumn id="4" uniqueName="icon" name="icon" dataDxfId="35">
       <xmlColumnPr mapId="10" xpath="/Researches/Research/Info/@icon" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="13" uniqueName="subicon" name="subicon" dataDxfId="33">
+    <tableColumn id="13" uniqueName="subicon" name="subicon" dataDxfId="34">
       <xmlColumnPr mapId="10" xpath="/Researches/Research/Info/@subicon" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="5" uniqueName="name" name="name" dataDxfId="32">
+    <tableColumn id="5" uniqueName="name" name="name" dataDxfId="33">
       <calculatedColumnFormula>CONCATENATE("@S",표28_2[[#This Row],[id]],"N@")</calculatedColumnFormula>
       <xmlColumnPr mapId="10" xpath="/Researches/Research/Info/@name" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="6" uniqueName="description" name="descrption" dataDxfId="31">
+    <tableColumn id="6" uniqueName="description" name="descrption" dataDxfId="32">
       <calculatedColumnFormula>CONCATENATE("@S",표28_2[[#This Row],[id]],"D@")</calculatedColumnFormula>
       <xmlColumnPr mapId="10" xpath="/Researches/Research/Info/@description" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="7" uniqueName="level" name="level" dataDxfId="30">
+    <tableColumn id="7" uniqueName="level" name="level" dataDxfId="31">
       <xmlColumnPr mapId="10" xpath="/Researches/Research/Price/@level" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="8" uniqueName="baselevel" name="baselevel" dataDxfId="29">
+    <tableColumn id="8" uniqueName="baselevel" name="baselevel" dataDxfId="30">
       <xmlColumnPr mapId="10" xpath="/Researches/Research/Price/@baselevel" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="12" uniqueName="baseprice" name="baseprice" dataDxfId="28">
+    <tableColumn id="12" uniqueName="baseprice" name="baseprice" dataDxfId="29">
       <xmlColumnPr mapId="10" xpath="/Researches/Research/Price/@baseprice" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="9" uniqueName="rate" name="POTPercent" dataDxfId="27">
+    <tableColumn id="9" uniqueName="rate" name="POTPercent" dataDxfId="28">
       <xmlColumnPr mapId="10" xpath="/Researches/Research/PriceOverTime/@rate" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="10" uniqueName="basetime" name="baseTime" dataDxfId="26">
+    <tableColumn id="10" uniqueName="basetime" name="baseTime" dataDxfId="27">
       <xmlColumnPr mapId="10" xpath="/Researches/Research/PriceOverTime/@basetime" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="11" uniqueName="groupid" name="groupid" dataDxfId="25">
+    <tableColumn id="11" uniqueName="groupid" name="groupid" dataDxfId="26">
       <calculatedColumnFormula>CONCATENATE("B",표28_2[[#This Row],[id]])</calculatedColumnFormula>
       <xmlColumnPr mapId="10" xpath="/Researches/Research/BonusList/@groupid" xmlDataType="string"/>
     </tableColumn>
@@ -1724,23 +1901,23 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="표29_3" displayName="표29_3" ref="O1:S28" tableType="xml" totalsRowShown="0" headerRowDxfId="24" dataDxfId="23" connectionId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="표29_3" displayName="표29_3" ref="O1:S28" tableType="xml" totalsRowShown="0" headerRowDxfId="25" dataDxfId="24" connectionId="2">
   <autoFilter ref="O1:S28"/>
   <tableColumns count="5">
-    <tableColumn id="1" uniqueName="group" name="group" dataDxfId="22">
+    <tableColumn id="1" uniqueName="group" name="group" dataDxfId="23">
       <calculatedColumnFormula>표28_2[[#This Row],[groupid]]</calculatedColumnFormula>
       <xmlColumnPr mapId="4" xpath="/BonusList/Bonus/@group" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="2" uniqueName="target" name="target" dataDxfId="21">
+    <tableColumn id="2" uniqueName="target" name="target" dataDxfId="22">
       <xmlColumnPr mapId="4" xpath="/BonusList/Bonus/@target" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="3" uniqueName="attribute" name="attribute" dataDxfId="20">
+    <tableColumn id="3" uniqueName="attribute" name="attribute" dataDxfId="21">
       <xmlColumnPr mapId="4" xpath="/BonusList/Bonus/@attribute" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="4" uniqueName="value" name="value" dataDxfId="19">
+    <tableColumn id="4" uniqueName="value" name="value" dataDxfId="20">
       <xmlColumnPr mapId="4" xpath="/BonusList/Bonus/@value" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="5" uniqueName="stringvalue" name="stringvalue" dataDxfId="18">
+    <tableColumn id="5" uniqueName="stringvalue" name="stringvalue" dataDxfId="19">
       <xmlColumnPr mapId="4" xpath="/BonusList/Bonus/@stringvalue" xmlDataType="string"/>
     </tableColumn>
   </tableColumns>
@@ -1749,24 +1926,42 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="30" name="표30" displayName="표30" ref="A1:E10" tableType="xml" totalsRowShown="0" connectionId="3">
-  <autoFilter ref="A1:E10"/>
-  <tableColumns count="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="30" name="표30" displayName="표30" ref="A1:I10" tableType="xml" totalsRowShown="0" connectionId="4">
+  <autoFilter ref="A1:I10">
+    <filterColumn colId="5"/>
+    <filterColumn colId="6"/>
+    <filterColumn colId="7"/>
+    <filterColumn colId="8"/>
+  </autoFilter>
+  <tableColumns count="9">
     <tableColumn id="1" uniqueName="id" name="id">
-      <xmlColumnPr mapId="7" xpath="/Elementals/Elemental/@id" xmlDataType="string"/>
+      <xmlColumnPr mapId="13" xpath="/Elementals/Elemental/@id" xmlDataType="string"/>
     </tableColumn>
     <tableColumn id="2" uniqueName="name" name="name">
       <calculatedColumnFormula>CONCATENATE("$",표30[[#This Row],[id]],"$")</calculatedColumnFormula>
-      <xmlColumnPr mapId="7" xpath="/Elementals/Elemental/@name" xmlDataType="string"/>
+      <xmlColumnPr mapId="13" xpath="/Elementals/Elemental/@name" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="3" uniqueName="attackIntervalK" name="attackIntervalK">
-      <xmlColumnPr mapId="7" xpath="/Elementals/Elemental/@attackIntervalK" xmlDataType="integer"/>
+    <tableColumn id="3" uniqueName="basecastintervalxk" name="basecastintervalxk">
+      <xmlColumnPr mapId="13" xpath="/Elementals/Elemental/@basecastintervalxk" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="4" uniqueName="basedps" name="basedps" dataDxfId="17">
-      <xmlColumnPr mapId="7" xpath="/Elementals/Elemental/@basedps" xmlDataType="double"/>
+    <tableColumn id="4" uniqueName="basedps" name="basedps" dataDxfId="18">
+      <xmlColumnPr mapId="13" xpath="/Elementals/Elemental/@basedps" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="5" uniqueName="baseexp" name="baseexp" dataDxfId="0">
-      <xmlColumnPr mapId="7" xpath="/Elementals/Elemental/@baseexp" xmlDataType="integer"/>
+    <tableColumn id="5" uniqueName="baseexp" name="baseexp" dataDxfId="17">
+      <xmlColumnPr mapId="13" xpath="/Elementals/Elemental/@baseexp" xmlDataType="integer"/>
+    </tableColumn>
+    <tableColumn id="6" uniqueName="prefab" name="prefab">
+      <xmlColumnPr mapId="13" xpath="/Elementals/Elemental/@prefab" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="7" uniqueName="skillprefab" name="skillprefab">
+      <calculatedColumnFormula>CONCATENATE("prefabs/Projectile/",표30[[#This Row],[id]],"_skill")</calculatedColumnFormula>
+      <xmlColumnPr mapId="13" xpath="/Elementals/Elemental/@skillprefab" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="8" uniqueName="baseskillrate" name="baseskillrate">
+      <xmlColumnPr mapId="13" xpath="/Elementals/Elemental/@baseskillrate" xmlDataType="integer"/>
+    </tableColumn>
+    <tableColumn id="9" uniqueName="baseskilldamagexh" name="baseskilldamagexh" dataDxfId="0">
+      <xmlColumnPr mapId="13" xpath="/Elementals/Elemental/@baseskilldamagexh" xmlDataType="integer"/>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1774,7 +1969,7 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="표28_24" displayName="표28_24" ref="A1:M18" tableType="xml" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15" connectionId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="표28_24" displayName="표28_24" ref="A1:M18" tableType="xml" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15" connectionId="12">
   <autoFilter ref="A1:M18">
     <filterColumn colId="12"/>
   </autoFilter>
@@ -2154,7 +2349,7 @@
         <v>4</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>10</v>
@@ -2163,19 +2358,19 @@
         <v>11</v>
       </c>
       <c r="H1" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="L1" s="2" t="s">
         <v>36</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>38</v>
       </c>
       <c r="M1" s="2" t="s">
         <v>5</v>
@@ -2198,22 +2393,22 @@
     </row>
     <row r="2" spans="1:19">
       <c r="A2" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C2" s="2">
-        <v>0</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>81</v>
-      </c>
       <c r="F2" s="1" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="H2" s="5">
         <v>0</v>
@@ -2245,7 +2440,7 @@
         <v>18</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -2253,19 +2448,19 @@
         <v>6</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C3" s="2">
         <v>0</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="H3" s="5">
         <v>0</v>
@@ -2305,19 +2500,19 @@
         <v>7</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C4" s="2">
         <v>0</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="H4" s="5">
         <v>0</v>
@@ -2357,19 +2552,19 @@
         <v>8</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C5" s="2">
         <v>0</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="H5" s="5">
         <v>0</v>
@@ -2415,13 +2610,13 @@
         <v>0</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="H6" s="5">
         <v>0</v>
@@ -2453,28 +2648,28 @@
         <v>18</v>
       </c>
       <c r="S6" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:19">
       <c r="A7" s="24" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B7" s="24" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C7" s="7">
         <v>10</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E7" s="2" t="str">
         <f>CONCATENATE("x",표29_3[[#This Row],[value]])</f>
         <v>x2</v>
       </c>
       <c r="F7" s="24" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="G7" s="7" t="str">
         <f>CONCATENATE("기본공격의 공격력이 ",표29_3[[#This Row],[value]],"배 증가합니다.")</f>
@@ -2504,10 +2699,10 @@
         <v>BR00_001</v>
       </c>
       <c r="P7" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="R7" s="37">
         <v>2</v>
@@ -2516,23 +2711,23 @@
     </row>
     <row r="8" spans="1:19">
       <c r="A8" s="24" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B8" s="24" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C8" s="2">
         <v>25</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E8" s="2" t="str">
         <f>CONCATENATE("x",표29_3[[#This Row],[value]])</f>
         <v>x2</v>
       </c>
       <c r="F8" s="24" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="G8" s="7" t="str">
         <f>CONCATENATE("기본공격의 공격력이 ",표29_3[[#This Row],[value]],"배 증가합니다.")</f>
@@ -2562,10 +2757,10 @@
         <v>BR00_002</v>
       </c>
       <c r="P8" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="R8" s="37">
         <v>2</v>
@@ -2574,23 +2769,23 @@
     </row>
     <row r="9" spans="1:19">
       <c r="A9" s="24" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B9" s="24" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C9" s="7">
         <v>45</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E9" s="2" t="str">
         <f>CONCATENATE("x",표29_3[[#This Row],[value]])</f>
         <v>x2</v>
       </c>
       <c r="F9" s="24" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="G9" s="7" t="str">
         <f>CONCATENATE("기본공격의 공격력이 ",표29_3[[#This Row],[value]],"배 증가합니다.")</f>
@@ -2620,10 +2815,10 @@
         <v>BR00_003</v>
       </c>
       <c r="P9" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="R9" s="37">
         <v>2</v>
@@ -2632,23 +2827,23 @@
     </row>
     <row r="10" spans="1:19">
       <c r="A10" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="B10" s="24" t="s">
         <v>51</v>
-      </c>
-      <c r="B10" s="24" t="s">
-        <v>53</v>
       </c>
       <c r="C10" s="2">
         <v>65</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E10" s="2" t="str">
         <f>CONCATENATE("x",표29_3[[#This Row],[value]])</f>
         <v>x10</v>
       </c>
       <c r="F10" s="24" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="G10" s="7" t="str">
         <f>CONCATENATE("기본공격의 공격력이 ",표29_3[[#This Row],[value]],"배 증가합니다.")</f>
@@ -2678,10 +2873,10 @@
         <v>BR00_004</v>
       </c>
       <c r="P10" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="R10" s="37">
         <v>10</v>
@@ -2690,23 +2885,23 @@
     </row>
     <row r="11" spans="1:19">
       <c r="A11" s="24" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B11" s="24" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C11" s="7">
         <v>90</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E11" s="2" t="str">
         <f>CONCATENATE("x",표29_3[[#This Row],[value]])</f>
         <v>x25</v>
       </c>
       <c r="F11" s="24" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="G11" s="7" t="str">
         <f>CONCATENATE("기본공격의 공격력이 ",표29_3[[#This Row],[value]],"배 증가합니다.")</f>
@@ -2736,10 +2931,10 @@
         <v>BR00_005</v>
       </c>
       <c r="P11" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="R11" s="37">
         <v>25</v>
@@ -2748,7 +2943,7 @@
     </row>
     <row r="12" spans="1:19">
       <c r="A12" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>20</v>
@@ -2757,14 +2952,14 @@
         <v>5</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E12" s="2" t="str">
         <f>CONCATENATE("x",표29_3[[#This Row],[value]])</f>
         <v>x2</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G12" s="7" t="str">
         <f>CONCATENATE("화염구의 공격력이 ",표29_3[[#This Row],[value]],"배 증가합니다.")</f>
@@ -2798,7 +2993,7 @@
         <v>19</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="R12" s="35">
         <v>2</v>
@@ -2806,7 +3001,7 @@
     </row>
     <row r="13" spans="1:19">
       <c r="A13" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>20</v>
@@ -2815,14 +3010,14 @@
         <v>15</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E13" s="2" t="str">
         <f>CONCATENATE("x",표29_3[[#This Row],[value]])</f>
         <v>x2</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G13" s="7" t="str">
         <f>CONCATENATE("화염구의 공격력이 ",표29_3[[#This Row],[value]],"배 증가합니다.")</f>
@@ -2856,7 +3051,7 @@
         <v>19</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="R13" s="35">
         <v>2</v>
@@ -2864,7 +3059,7 @@
     </row>
     <row r="14" spans="1:19">
       <c r="A14" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>20</v>
@@ -2873,14 +3068,14 @@
         <v>30</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E14" s="2" t="str">
         <f>CONCATENATE("x",표29_3[[#This Row],[value]])</f>
         <v>x2</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G14" s="7" t="str">
         <f>CONCATENATE("화염구의 공격력이 ",표29_3[[#This Row],[value]],"배 증가합니다.")</f>
@@ -2914,7 +3109,7 @@
         <v>19</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="R14" s="35">
         <v>2</v>
@@ -2922,7 +3117,7 @@
     </row>
     <row r="15" spans="1:19">
       <c r="A15" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>20</v>
@@ -2931,14 +3126,14 @@
         <v>50</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E15" s="2" t="str">
         <f>CONCATENATE("x",표29_3[[#This Row],[value]])</f>
         <v>x8</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G15" s="7" t="str">
         <f>CONCATENATE("화염구의 공격력이 ",표29_3[[#This Row],[value]],"배 증가합니다.")</f>
@@ -2972,7 +3167,7 @@
         <v>19</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="R15" s="35">
         <v>8</v>
@@ -2980,7 +3175,7 @@
     </row>
     <row r="16" spans="1:19">
       <c r="A16" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>20</v>
@@ -2989,14 +3184,14 @@
         <v>75</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E16" s="2" t="str">
         <f>CONCATENATE("x",표29_3[[#This Row],[value]])</f>
         <v>x20</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G16" s="7" t="str">
         <f>CONCATENATE("화염구의 공격력이 ",표29_3[[#This Row],[value]],"배 증가합니다.")</f>
@@ -3030,7 +3225,7 @@
         <v>19</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="R16" s="35">
         <v>20</v>
@@ -3038,7 +3233,7 @@
     </row>
     <row r="17" spans="1:19">
       <c r="A17" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>22</v>
@@ -3047,14 +3242,14 @@
         <v>5</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E17" s="2" t="str">
         <f>CONCATENATE("x",표29_3[[#This Row],[value]])</f>
         <v>x2</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G17" s="7" t="str">
         <f>CONCATENATE("물폭탄의 공격력이 ",표29_3[[#This Row],[value]],"배 증가합니다.")</f>
@@ -3088,7 +3283,7 @@
         <v>21</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="R17" s="35">
         <v>2</v>
@@ -3097,7 +3292,7 @@
     </row>
     <row r="18" spans="1:19">
       <c r="A18" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>22</v>
@@ -3106,14 +3301,14 @@
         <v>20</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E18" s="2" t="str">
         <f>CONCATENATE("x",표29_3[[#This Row],[value]])</f>
         <v>x2</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G18" s="7" t="str">
         <f>CONCATENATE("물폭탄의 공격력이 ",표29_3[[#This Row],[value]],"배 증가합니다.")</f>
@@ -3147,7 +3342,7 @@
         <v>21</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="R18" s="35">
         <v>2</v>
@@ -3156,7 +3351,7 @@
     </row>
     <row r="19" spans="1:19">
       <c r="A19" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>22</v>
@@ -3165,14 +3360,14 @@
         <v>40</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E19" s="2" t="str">
         <f>CONCATENATE("x",표29_3[[#This Row],[value]])</f>
         <v>x6</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G19" s="7" t="str">
         <f>CONCATENATE("물폭탄의 공격력이 ",표29_3[[#This Row],[value]],"배 증가합니다.")</f>
@@ -3206,7 +3401,7 @@
         <v>21</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="R19" s="35">
         <v>6</v>
@@ -3215,7 +3410,7 @@
     </row>
     <row r="20" spans="1:19">
       <c r="A20" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>22</v>
@@ -3224,14 +3419,14 @@
         <v>65</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E20" s="2" t="str">
         <f>CONCATENATE("x",표29_3[[#This Row],[value]])</f>
         <v>x15</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G20" s="7" t="str">
         <f>CONCATENATE("물폭탄의 공격력이 ",표29_3[[#This Row],[value]],"배 증가합니다.")</f>
@@ -3265,7 +3460,7 @@
         <v>21</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="R20" s="35">
         <v>15</v>
@@ -3274,7 +3469,7 @@
     </row>
     <row r="21" spans="1:19">
       <c r="A21" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>24</v>
@@ -3283,14 +3478,14 @@
         <v>5</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E21" s="2" t="str">
         <f>CONCATENATE("x",표29_3[[#This Row],[value]])</f>
         <v>x2</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G21" s="7" t="str">
         <f>CONCATENATE("짱돌의 공격력이 ",표29_3[[#This Row],[value]],"배 증가합니다.")</f>
@@ -3324,7 +3519,7 @@
         <v>23</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="R21" s="35">
         <v>2</v>
@@ -3333,7 +3528,7 @@
     </row>
     <row r="22" spans="1:19">
       <c r="A22" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>24</v>
@@ -3342,14 +3537,14 @@
         <v>25</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E22" s="2" t="str">
         <f>CONCATENATE("x",표29_3[[#This Row],[value]])</f>
         <v>x3</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G22" s="7" t="str">
         <f>CONCATENATE("짱돌의 공격력이 ",표29_3[[#This Row],[value]],"배 증가합니다.")</f>
@@ -3383,7 +3578,7 @@
         <v>23</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="R22" s="35">
         <v>3</v>
@@ -3392,7 +3587,7 @@
     </row>
     <row r="23" spans="1:19">
       <c r="A23" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>24</v>
@@ -3401,14 +3596,14 @@
         <v>50</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E23" s="2" t="str">
         <f>CONCATENATE("x",표29_3[[#This Row],[value]])</f>
         <v>x12</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="G23" s="7" t="str">
         <f>CONCATENATE("짱돌의 공격력이 ",표29_3[[#This Row],[value]],"배 증가합니다.")</f>
@@ -3442,7 +3637,7 @@
         <v>23</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="R23" s="35">
         <v>12</v>
@@ -3451,7 +3646,7 @@
     </row>
     <row r="24" spans="1:19">
       <c r="A24" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>26</v>
@@ -3460,14 +3655,14 @@
         <v>10</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E24" s="2" t="str">
         <f>CONCATENATE("x",표29_3[[#This Row],[value]])</f>
         <v>x2</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G24" s="7" t="str">
         <f>CONCATENATE("지지직의 공격력이 ",표29_3[[#This Row],[value]],"배 증가합니다.")</f>
@@ -3501,7 +3696,7 @@
         <v>25</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="R24" s="35">
         <v>2</v>
@@ -3510,7 +3705,7 @@
     </row>
     <row r="25" spans="1:19">
       <c r="A25" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>26</v>
@@ -3519,14 +3714,14 @@
         <v>35</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E25" s="2" t="str">
         <f>CONCATENATE("x",표29_3[[#This Row],[value]])</f>
         <v>x6</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G25" s="7" t="str">
         <f>CONCATENATE("지지직의 공격력이 ",표29_3[[#This Row],[value]],"배 증가합니다.")</f>
@@ -3560,7 +3755,7 @@
         <v>25</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="R25" s="35">
         <v>6</v>
@@ -3569,7 +3764,7 @@
     </row>
     <row r="26" spans="1:19">
       <c r="A26" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>0</v>
@@ -3578,17 +3773,17 @@
         <v>0</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E26" s="2" t="str">
         <f>CONCATENATE("-x",표29_3[[#This Row],[value]])</f>
         <v>-x2</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="H26" s="2">
         <v>60</v>
@@ -3615,10 +3810,10 @@
         <v>BR99</v>
       </c>
       <c r="P26" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="R26" s="35">
         <v>2</v>
@@ -3627,7 +3822,7 @@
     </row>
     <row r="27" spans="1:19">
       <c r="A27" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>0</v>
@@ -3636,17 +3831,17 @@
         <v>0</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E27" s="2" t="str">
         <f>CONCATENATE("-x",표29_3[[#This Row],[value]])</f>
         <v>-x2</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="H27" s="2">
         <v>80</v>
@@ -3673,10 +3868,10 @@
         <v>BR98</v>
       </c>
       <c r="P27" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="R27" s="35">
         <v>2</v>
@@ -3685,7 +3880,7 @@
     </row>
     <row r="28" spans="1:19">
       <c r="A28" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>0</v>
@@ -3694,17 +3889,17 @@
         <v>0</v>
       </c>
       <c r="D28" s="24" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E28" s="2" t="str">
         <f>CONCATENATE("-x",표29_3[[#This Row],[value]])</f>
         <v>-x2</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="H28" s="2">
         <v>100</v>
@@ -3731,10 +3926,10 @@
         <v>BR97</v>
       </c>
       <c r="P28" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="R28" s="36">
         <v>2</v>
@@ -4826,149 +5021,248 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="9.125" customWidth="1"/>
     <col min="2" max="2" width="12.25" customWidth="1"/>
-    <col min="3" max="3" width="17.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.75" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="26" customWidth="1"/>
-    <col min="5" max="5" width="28.875" customWidth="1"/>
+    <col min="5" max="6" width="28.875" customWidth="1"/>
+    <col min="7" max="7" width="30.75" customWidth="1"/>
+    <col min="8" max="8" width="22.5" customWidth="1"/>
+    <col min="9" max="9" width="32.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:9" ht="17.25" thickBot="1">
       <c r="A1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
+        <v>240</v>
+      </c>
+      <c r="D1" t="s">
         <v>29</v>
       </c>
-      <c r="B1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>30</v>
       </c>
-      <c r="D1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="40" t="s">
+        <v>236</v>
+      </c>
+      <c r="G1" s="39" t="s">
+        <v>235</v>
+      </c>
+      <c r="H1" s="39" t="s">
+        <v>239</v>
+      </c>
+      <c r="I1" s="39" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="17.25" thickTop="1">
       <c r="A2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="C2">
+        <v>5000</v>
+      </c>
+      <c r="D2" s="38">
+        <v>10</v>
+      </c>
+      <c r="E2" s="38">
+        <v>10</v>
+      </c>
+      <c r="F2" s="1" t="str">
+        <f>CONCATENATE("prefabs/Projectile/",표30[[#This Row],[id]])</f>
+        <v>prefabs/Projectile/fireball</v>
+      </c>
+      <c r="G2" s="1" t="str">
+        <f>CONCATENATE("prefabs/Projectile/",표30[[#This Row],[id]],"_skill")</f>
+        <v>prefabs/Projectile/fireball_skill</v>
+      </c>
+      <c r="H2">
+        <v>50</v>
+      </c>
+      <c r="I2" s="2">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="C3" s="39">
+        <v>5000</v>
+      </c>
+      <c r="D3" s="41">
+        <v>10</v>
+      </c>
+      <c r="E3" s="41">
+        <v>10</v>
+      </c>
+      <c r="F3" s="1" t="str">
+        <f>CONCATENATE("prefabs/Projectile/",표30[[#This Row],[id]])</f>
+        <v>prefabs/Projectile/iceblock</v>
+      </c>
+      <c r="G3" s="1" t="str">
+        <f>CONCATENATE("prefabs/Projectile/",표30[[#This Row],[id]],"_skill")</f>
+        <v>prefabs/Projectile/iceblock_skill</v>
+      </c>
+      <c r="H3" s="39">
+        <v>50</v>
+      </c>
+      <c r="I3" s="2">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="C2">
-        <v>1000</v>
-      </c>
-      <c r="D2" s="38">
-        <v>10</v>
-      </c>
-      <c r="E2" s="38">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="1" t="s">
+      <c r="C4" s="39">
+        <v>5000</v>
+      </c>
+      <c r="D4" s="38">
+        <v>10</v>
+      </c>
+      <c r="E4" s="38">
+        <v>10</v>
+      </c>
+      <c r="F4" s="1" t="str">
+        <f>CONCATENATE("prefabs/Projectile/",표30[[#This Row],[id]])</f>
+        <v>prefabs/Projectile/rock</v>
+      </c>
+      <c r="G4" s="1" t="str">
+        <f>CONCATENATE("prefabs/Projectile/",표30[[#This Row],[id]],"_skill")</f>
+        <v>prefabs/Projectile/rock_skill</v>
+      </c>
+      <c r="H4" s="39">
+        <v>50</v>
+      </c>
+      <c r="I4" s="2">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="C5" s="39">
+        <v>5000</v>
+      </c>
+      <c r="D5" s="38">
+        <v>10</v>
+      </c>
+      <c r="E5" s="38">
+        <v>10</v>
+      </c>
+      <c r="F5" s="1" t="str">
+        <f>CONCATENATE("prefabs/Projectile/",표30[[#This Row],[id]])</f>
+        <v>prefabs/Projectile/electricball</v>
+      </c>
+      <c r="G5" s="1" t="str">
+        <f>CONCATENATE("prefabs/Projectile/",표30[[#This Row],[id]],"_skill")</f>
+        <v>prefabs/Projectile/electricball_skill</v>
+      </c>
+      <c r="H5" s="39">
+        <v>50</v>
+      </c>
+      <c r="I5" s="2">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B6" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="C6" s="39">
+        <v>5000</v>
+      </c>
+      <c r="D6" s="38">
+        <v>10</v>
+      </c>
+      <c r="E6" s="38">
+        <v>10</v>
+      </c>
+      <c r="F6" s="1" t="str">
+        <f>CONCATENATE("prefabs/Projectile/",표30[[#This Row],[id]])</f>
+        <v>prefabs/Projectile/waterball</v>
+      </c>
+      <c r="G6" s="1" t="str">
+        <f>CONCATENATE("prefabs/Projectile/",표30[[#This Row],[id]],"_skill")</f>
+        <v>prefabs/Projectile/waterball_skill</v>
+      </c>
+      <c r="H6" s="39">
+        <v>50</v>
+      </c>
+      <c r="I6" s="2">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="C3" s="39">
-        <v>1000</v>
-      </c>
-      <c r="D3" s="38">
-        <v>10</v>
-      </c>
-      <c r="E3" s="38">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4" s="2" t="s">
+      <c r="C7" s="39">
+        <v>5000</v>
+      </c>
+      <c r="D7" s="38">
+        <v>10</v>
+      </c>
+      <c r="E7" s="38">
+        <v>10</v>
+      </c>
+      <c r="F7" s="1" t="str">
+        <f>CONCATENATE("prefabs/Projectile/",표30[[#This Row],[id]])</f>
+        <v>prefabs/Projectile/earthball</v>
+      </c>
+      <c r="G7" s="1" t="str">
+        <f>CONCATENATE("prefabs/Projectile/",표30[[#This Row],[id]],"_skill")</f>
+        <v>prefabs/Projectile/earthball_skill</v>
+      </c>
+      <c r="H7" s="39">
+        <v>50</v>
+      </c>
+      <c r="I7" s="2">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="C4" s="39">
-        <v>1000</v>
-      </c>
-      <c r="D4" s="38">
-        <v>10</v>
-      </c>
-      <c r="E4" s="38">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="C5" s="39">
-        <v>1000</v>
-      </c>
-      <c r="D5" s="38">
-        <v>10</v>
-      </c>
-      <c r="E5" s="38">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="C6" s="39">
-        <v>1000</v>
-      </c>
-      <c r="D6" s="38">
-        <v>10</v>
-      </c>
-      <c r="E6" s="38">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" t="s">
-        <v>67</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="C7" s="39">
-        <v>1000</v>
-      </c>
-      <c r="D7" s="38">
-        <v>10</v>
-      </c>
-      <c r="E7" s="38">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" t="s">
-        <v>68</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>201</v>
-      </c>
       <c r="C8" s="39">
-        <v>1000</v>
+        <v>5000</v>
       </c>
       <c r="D8" s="38">
         <v>10</v>
@@ -4976,16 +5270,30 @@
       <c r="E8" s="38">
         <v>10</v>
       </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" t="s">
-        <v>69</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>202</v>
+      <c r="F8" s="1" t="str">
+        <f>CONCATENATE("prefabs/Projectile/",표30[[#This Row],[id]])</f>
+        <v>prefabs/Projectile/airball</v>
+      </c>
+      <c r="G8" s="1" t="str">
+        <f>CONCATENATE("prefabs/Projectile/",표30[[#This Row],[id]],"_skill")</f>
+        <v>prefabs/Projectile/airball_skill</v>
+      </c>
+      <c r="H8" s="39">
+        <v>50</v>
+      </c>
+      <c r="I8" s="2">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>238</v>
       </c>
       <c r="C9" s="39">
-        <v>1000</v>
+        <v>5000</v>
       </c>
       <c r="D9" s="38">
         <v>10</v>
@@ -4993,16 +5301,30 @@
       <c r="E9" s="38">
         <v>10</v>
       </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" t="s">
-        <v>66</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>215</v>
+      <c r="F9" s="1" t="str">
+        <f>CONCATENATE("prefabs/Projectile/",표30[[#This Row],[id]])</f>
+        <v>prefabs/Projectile/snowball</v>
+      </c>
+      <c r="G9" s="1" t="str">
+        <f>CONCATENATE("prefabs/Projectile/",표30[[#This Row],[id]],"_skill")</f>
+        <v>prefabs/Projectile/snowball_skill</v>
+      </c>
+      <c r="H9" s="39">
+        <v>50</v>
+      </c>
+      <c r="I9" s="2">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>212</v>
       </c>
       <c r="C10" s="39">
-        <v>1000</v>
+        <v>5000</v>
       </c>
       <c r="D10" s="38">
         <v>10</v>
@@ -5010,16 +5332,83 @@
       <c r="E10" s="38">
         <v>10</v>
       </c>
-    </row>
-    <row r="11" spans="1:5">
+      <c r="F10" s="1" t="str">
+        <f>CONCATENATE("prefabs/Projectile/",표30[[#This Row],[id]])</f>
+        <v>prefabs/Projectile/magmaball</v>
+      </c>
+      <c r="G10" s="1" t="str">
+        <f>CONCATENATE("prefabs/Projectile/",표30[[#This Row],[id]],"_skill")</f>
+        <v>prefabs/Projectile/magmaball_skill</v>
+      </c>
+      <c r="H10" s="39">
+        <v>50</v>
+      </c>
+      <c r="I10" s="2">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="24"/>
       <c r="E11" s="24"/>
     </row>
-    <row r="14" spans="1:5">
+    <row r="12" spans="1:9">
+      <c r="F12" s="39"/>
+      <c r="G12" s="39"/>
+      <c r="H12" s="39"/>
+      <c r="I12" s="39"/>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="F13" s="42"/>
+      <c r="G13" s="42"/>
+    </row>
+    <row r="14" spans="1:9">
       <c r="D14" s="4"/>
+    </row>
+    <row r="17" spans="5:7">
+      <c r="E17" s="39"/>
+    </row>
+    <row r="24" spans="5:7" ht="17.25" thickBot="1">
+      <c r="F24" s="43"/>
+      <c r="G24" s="44"/>
+    </row>
+    <row r="25" spans="5:7" ht="17.25" thickTop="1">
+      <c r="F25" s="45"/>
+      <c r="G25" s="46"/>
+    </row>
+    <row r="26" spans="5:7">
+      <c r="F26" s="47"/>
+      <c r="G26" s="48"/>
+    </row>
+    <row r="27" spans="5:7">
+      <c r="F27" s="45"/>
+      <c r="G27" s="46"/>
+    </row>
+    <row r="28" spans="5:7">
+      <c r="F28" s="47"/>
+      <c r="G28" s="48"/>
+    </row>
+    <row r="29" spans="5:7">
+      <c r="F29" s="45"/>
+      <c r="G29" s="46"/>
+    </row>
+    <row r="30" spans="5:7">
+      <c r="F30" s="47"/>
+      <c r="G30" s="48"/>
+    </row>
+    <row r="31" spans="5:7">
+      <c r="F31" s="45"/>
+      <c r="G31" s="46"/>
+    </row>
+    <row r="32" spans="5:7">
+      <c r="F32" s="47"/>
+      <c r="G32" s="48"/>
+    </row>
+    <row r="33" spans="6:7">
+      <c r="F33" s="49"/>
+      <c r="G33" s="50"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -5059,273 +5448,273 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="27" t="s">
+        <v>130</v>
+      </c>
+      <c r="B1" s="27" t="s">
+        <v>131</v>
+      </c>
+      <c r="C1" s="28" t="s">
         <v>132</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="D1" s="27" t="s">
+        <v>127</v>
+      </c>
+      <c r="E1" s="27" t="s">
         <v>133</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="F1" s="27" t="s">
         <v>134</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="G1" s="27" t="s">
+        <v>135</v>
+      </c>
+      <c r="H1" s="27" t="s">
+        <v>136</v>
+      </c>
+      <c r="I1" s="27" t="s">
+        <v>128</v>
+      </c>
+      <c r="J1" s="29" t="s">
         <v>129</v>
       </c>
-      <c r="E1" s="27" t="s">
-        <v>135</v>
-      </c>
-      <c r="F1" s="27" t="s">
-        <v>136</v>
-      </c>
-      <c r="G1" s="27" t="s">
+      <c r="K1" s="27" t="s">
         <v>137</v>
       </c>
-      <c r="H1" s="27" t="s">
+      <c r="L1" s="27" t="s">
         <v>138</v>
       </c>
-      <c r="I1" s="27" t="s">
-        <v>130</v>
-      </c>
-      <c r="J1" s="29" t="s">
-        <v>131</v>
-      </c>
-      <c r="K1" s="27" t="s">
+      <c r="M1" s="27" t="s">
         <v>139</v>
       </c>
-      <c r="L1" s="27" t="s">
+      <c r="N1" s="27" t="s">
         <v>140</v>
-      </c>
-      <c r="M1" s="27" t="s">
-        <v>141</v>
-      </c>
-      <c r="N1" s="27" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="1" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B2" s="27" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C2" s="29" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D2" s="32">
         <v>5</v>
       </c>
       <c r="E2" s="27" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>233</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>236</v>
       </c>
       <c r="I2" s="33">
         <v>100</v>
       </c>
       <c r="J2" s="33"/>
       <c r="K2" s="27" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="L2" s="30" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="M2" s="32">
         <v>6</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="O2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="P2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="27" t="s">
+        <v>141</v>
+      </c>
+      <c r="B3" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="C3" s="29" t="s">
         <v>143</v>
-      </c>
-      <c r="B3" s="27" t="s">
-        <v>79</v>
-      </c>
-      <c r="C3" s="29" t="s">
-        <v>145</v>
       </c>
       <c r="D3" s="32">
         <v>5</v>
       </c>
       <c r="E3" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="F3" s="27" t="s">
+        <v>145</v>
+      </c>
+      <c r="G3" s="27" t="s">
         <v>146</v>
       </c>
-      <c r="F3" s="27" t="s">
-        <v>147</v>
-      </c>
-      <c r="G3" s="27" t="s">
-        <v>148</v>
-      </c>
       <c r="H3" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I3" s="33">
         <v>100</v>
       </c>
       <c r="J3" s="33"/>
       <c r="K3" s="27" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="L3" s="27" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="M3" s="32">
         <v>6</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="O3" s="39" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="P3" s="39" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="Q3" s="39"/>
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="27" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B4" s="27" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C4" s="29" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D4" s="32">
         <v>5</v>
       </c>
       <c r="E4" s="27" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F4" s="27" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="G4" s="27" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="I4" s="33">
         <v>100</v>
       </c>
       <c r="J4" s="33"/>
       <c r="K4" s="27" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="L4" s="27" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="M4" s="32">
         <v>3</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="O4" s="39" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="P4" s="39" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="Q4" s="39"/>
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="27" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B5" s="27" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C5" s="29" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D5" s="32">
         <v>5</v>
       </c>
       <c r="E5" s="27" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F5" s="27" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="G5" s="27" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="I5" s="33">
         <v>100</v>
       </c>
       <c r="J5" s="33"/>
       <c r="K5" s="27" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="L5" s="27" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="M5" s="32">
         <v>30</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="O5" s="39" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="P5" s="39" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="Q5" s="39"/>
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="27" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B6" s="27" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C6" s="29" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D6" s="32"/>
       <c r="E6" s="27" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F6" s="27"/>
       <c r="G6" s="27" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="H6" s="27" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="I6" s="33"/>
       <c r="J6" s="33">
         <v>10</v>
       </c>
       <c r="K6" s="27" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="L6" s="27" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="M6" s="32"/>
       <c r="N6" s="27"/>
@@ -5335,75 +5724,75 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="27" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C7" s="29" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D7" s="32">
         <v>5</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="F7" s="27" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="I7" s="33">
         <v>100</v>
       </c>
       <c r="J7" s="33"/>
       <c r="K7" s="1" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="L7" s="30" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="M7" s="32">
         <v>6</v>
       </c>
       <c r="N7" s="27"/>
       <c r="O7" s="39" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="P7" s="39" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="Q7" s="39"/>
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="1" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="B8" s="27" t="s">
         <v>20</v>
       </c>
       <c r="C8" s="29" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D8" s="32">
         <v>5</v>
       </c>
       <c r="E8" s="27" t="s">
+        <v>156</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="G8" s="27" t="s">
         <v>158</v>
       </c>
-      <c r="F8" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="G8" s="27" t="s">
-        <v>160</v>
-      </c>
       <c r="H8" s="1" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="I8" s="33">
         <v>100</v>
@@ -5413,44 +5802,44 @@
         <v>19</v>
       </c>
       <c r="L8" s="30" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="M8" s="32">
         <v>20</v>
       </c>
       <c r="N8" s="27"/>
       <c r="O8" s="39" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="P8" s="39" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="Q8" s="39"/>
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="27" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B9" s="30" t="s">
         <v>22</v>
       </c>
       <c r="C9" s="29" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D9" s="32">
         <v>5</v>
       </c>
       <c r="E9" s="27" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="G9" s="27" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="I9" s="34">
         <v>100</v>
@@ -5460,44 +5849,44 @@
         <v>21</v>
       </c>
       <c r="L9" s="30" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="M9" s="32">
         <v>20</v>
       </c>
       <c r="N9" s="30"/>
       <c r="O9" s="39" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="P9" s="39" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="Q9" s="39"/>
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B10" s="30" t="s">
         <v>24</v>
       </c>
       <c r="C10" s="29" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D10" s="32">
         <v>5</v>
       </c>
       <c r="E10" s="27" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="G10" s="27" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="I10" s="34">
         <v>100</v>
@@ -5507,44 +5896,44 @@
         <v>23</v>
       </c>
       <c r="L10" s="30" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="M10" s="32">
         <v>20</v>
       </c>
       <c r="N10" s="30"/>
       <c r="O10" s="39" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="P10" s="39" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="Q10" s="39"/>
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="27" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B11" s="30" t="s">
         <v>26</v>
       </c>
       <c r="C11" s="29" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D11" s="32">
         <v>5</v>
       </c>
       <c r="E11" s="27" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="G11" s="27" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="I11" s="34">
         <v>100</v>
@@ -5554,97 +5943,97 @@
         <v>25</v>
       </c>
       <c r="L11" s="30" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="M11" s="32">
         <v>20</v>
       </c>
       <c r="N11" s="30"/>
       <c r="O11" s="39" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="P11" s="39" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="Q11" s="39"/>
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B12" s="30" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C12" s="29" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D12" s="32">
         <v>5</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="G12" s="27" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="I12" s="34">
         <v>100</v>
       </c>
       <c r="J12" s="33"/>
       <c r="K12" s="27" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L12" s="30" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="M12" s="32">
         <v>20</v>
       </c>
       <c r="N12" s="30"/>
       <c r="O12" s="39" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="P12" s="39" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="Q12" s="39"/>
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="27" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B13" s="27" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C13" s="29" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D13" s="32"/>
       <c r="E13" s="27" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F13" s="27"/>
       <c r="G13" s="27" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="H13" s="27" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="I13" s="33"/>
       <c r="J13" s="33">
         <v>10</v>
       </c>
       <c r="K13" s="27" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="L13" s="27" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="M13" s="36"/>
       <c r="N13" s="30"/>
@@ -5654,214 +6043,214 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B14" s="30" t="s">
         <v>115</v>
       </c>
-      <c r="B14" s="30" t="s">
-        <v>117</v>
-      </c>
       <c r="C14" s="31" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D14" s="32">
         <v>5</v>
       </c>
       <c r="E14" s="27" t="s">
+        <v>167</v>
+      </c>
+      <c r="F14" s="27" t="s">
+        <v>168</v>
+      </c>
+      <c r="G14" s="30" t="s">
         <v>169</v>
       </c>
-      <c r="F14" s="27" t="s">
-        <v>170</v>
-      </c>
-      <c r="G14" s="30" t="s">
-        <v>171</v>
-      </c>
       <c r="H14" s="30" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="I14" s="34">
         <v>100</v>
       </c>
       <c r="J14" s="33"/>
       <c r="K14" s="27" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="L14" s="30" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="M14" s="32">
         <v>2</v>
       </c>
       <c r="N14" s="27"/>
       <c r="O14" s="39" t="s">
+        <v>120</v>
+      </c>
+      <c r="P14" s="39" t="s">
         <v>122</v>
-      </c>
-      <c r="P14" s="39" t="s">
-        <v>124</v>
       </c>
       <c r="Q14" s="39"/>
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="27" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B15" s="30" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C15" s="31" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D15" s="32">
         <v>5</v>
       </c>
       <c r="E15" s="27" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F15" s="27" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="G15" s="27" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="I15" s="34">
         <v>100</v>
       </c>
       <c r="J15" s="33"/>
       <c r="K15" s="27" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="L15" s="30" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="M15" s="32">
         <v>2</v>
       </c>
       <c r="N15" s="27"/>
       <c r="O15" s="39" t="s">
+        <v>120</v>
+      </c>
+      <c r="P15" s="39" t="s">
         <v>122</v>
-      </c>
-      <c r="P15" s="39" t="s">
-        <v>124</v>
       </c>
       <c r="Q15" s="39"/>
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B16" s="27" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C16" s="31" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D16" s="32"/>
       <c r="E16" s="27" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F16" s="27"/>
       <c r="G16" s="27" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="H16" s="27" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="I16" s="34">
         <v>100</v>
       </c>
       <c r="J16" s="33"/>
       <c r="K16" s="27" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="L16" s="30" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="M16" s="32">
         <v>1</v>
       </c>
       <c r="N16" s="30"/>
       <c r="O16" s="39" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="P16" s="39" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="Q16" s="39"/>
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="27" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B17" s="27" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C17" s="31" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D17" s="32"/>
       <c r="E17" s="27" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F17" s="27"/>
       <c r="G17" s="27" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="I17" s="34">
         <v>100</v>
       </c>
       <c r="J17" s="33"/>
       <c r="K17" s="27" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="L17" s="30" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="M17" s="32">
         <v>1000</v>
       </c>
       <c r="N17" s="27"/>
       <c r="O17" s="39" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="P17" s="39" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="Q17" s="39"/>
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="1" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B18" s="27" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C18" s="29" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D18" s="32"/>
       <c r="E18" s="27" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F18" s="27"/>
       <c r="G18" s="27" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="I18" s="33"/>
       <c r="J18" s="33">
         <v>10</v>
       </c>
       <c r="K18" s="27" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="L18" s="30" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="M18" s="32">
         <v>1</v>
@@ -6079,99 +6468,99 @@
   <sheetData>
     <row r="1" spans="1:20">
       <c r="A1" s="10" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D1" s="19">
         <f>POWER(2,0.2)</f>
         <v>1.1486983549970351</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F1" s="9"/>
       <c r="G1" s="9" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H1" s="9"/>
       <c r="I1" s="9" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J1" s="9"/>
       <c r="K1" s="9" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="L1" s="9"/>
       <c r="M1" s="9" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="N1" s="9"/>
       <c r="O1" s="9" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="P1" s="9"/>
       <c r="Q1" s="9" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="R1" s="9"/>
       <c r="S1" s="9" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="T1" s="9"/>
     </row>
     <row r="2" spans="1:20">
       <c r="D2" s="19" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="L2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="M2" s="9" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="N2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="O2" s="9" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="P2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="Q2" s="9" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="R2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="S2" s="9" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="T2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -6199,7 +6588,7 @@
       </c>
       <c r="B5" s="15"/>
       <c r="C5" s="21" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E5">
         <v>1</v>

--- a/Doc/XmlDataDocument_170316.xlsx
+++ b/Doc/XmlDataDocument_170316.xlsx
@@ -31,35 +31,38 @@
   <connection id="4" name="element1" type="4" refreshedVersion="0" background="1">
     <webPr xml="1" sourceData="1" url="D:\GitHub\SexyBack\Doc\XmlDataSet\element.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
-  <connection id="5" name="research" type="4" refreshedVersion="0" background="1">
+  <connection id="5" name="element2" type="4" refreshedVersion="0" background="1">
+    <webPr xml="1" sourceData="1" url="D:\GitHub\SexyBack\Doc\XmlDataSet\element.xml" htmlTables="1" htmlFormat="all"/>
+  </connection>
+  <connection id="6" name="research" type="4" refreshedVersion="0" background="1">
     <webPr xml="1" sourceData="1" url="D:\GitHub\SexyBack\Doc\XmlDataSet\research.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
-  <connection id="6" name="research1" type="4" refreshedVersion="0" background="1">
+  <connection id="7" name="research1" type="4" refreshedVersion="0" background="1">
     <webPr xml="1" sourceData="1" url="D:\GitHub\SexyBack\Doc\XmlDataSet\research.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
-  <connection id="7" name="research2" type="4" refreshedVersion="0" background="1">
+  <connection id="8" name="research2" type="4" refreshedVersion="0" background="1">
     <webPr xml="1" sourceData="1" url="D:\GitHub\SexyBack\Doc\XmlDataSet\research.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
-  <connection id="8" name="research3" type="4" refreshedVersion="0" background="1">
+  <connection id="9" name="research3" type="4" refreshedVersion="0" background="1">
     <webPr xml="1" sourceData="1" url="D:\GitHub\SexyBack\Doc\XmlDataSet\research.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
-  <connection id="9" name="research4" type="4" refreshedVersion="0" background="1">
+  <connection id="10" name="research4" type="4" refreshedVersion="0" background="1">
     <webPr xml="1" sourceData="1" url="D:\GitHub\SexyBack\Doc\XmlDataSet\research.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
-  <connection id="10" name="research5" type="4" refreshedVersion="0" background="1">
+  <connection id="11" name="research5" type="4" refreshedVersion="0" background="1">
     <webPr xml="1" sourceData="1" url="D:\GitHub\SexyBack\Doc\XmlDataSet\research.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
-  <connection id="11" name="talent" type="4" refreshedVersion="0" background="1">
+  <connection id="12" name="talent" type="4" refreshedVersion="0" background="1">
     <webPr xml="1" sourceData="1" url="D:\GitHub\SexyBack\Doc\XmlDataSet\talent.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
-  <connection id="12" name="talent1" type="4" refreshedVersion="0" background="1">
+  <connection id="13" name="talent1" type="4" refreshedVersion="0" background="1">
     <webPr xml="1" sourceData="1" url="D:\GitHub\SexyBack\Doc\XmlDataSet\talent.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="283">
   <si>
     <t>hero</t>
   </si>
@@ -960,26 +963,181 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>baseskillrate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>basecastintervalxk</t>
   </si>
   <si>
     <t>baseskilldamagexh</t>
+  </si>
+  <si>
+    <t>5배</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>확률</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격횟수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>증뎀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일반</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>극대</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>데미지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일반총합</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>총합</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>합계</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>확률배수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>증뎀배수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>증가된확률</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>증가된증뎀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>화염구</t>
+  </si>
+  <si>
+    <t>각얼음</t>
+  </si>
+  <si>
+    <t>짱돌</t>
+  </si>
+  <si>
+    <t>지지직</t>
+  </si>
+  <si>
+    <t>물폭탄</t>
+  </si>
+  <si>
+    <t>흙덩이</t>
+  </si>
+  <si>
+    <t>바람바람</t>
+  </si>
+  <si>
+    <t>눈덩이</t>
+  </si>
+  <si>
+    <t>마그마</t>
+  </si>
+  <si>
+    <t>기본공격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>플러스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>46%의차</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기본확률1%당2%의차</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기본확률1%당4%의차</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3배</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10배</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기본확률1%당9%의차</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마스터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레벨당1레벨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1레벨당10%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공속</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>둘다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30레벨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4배</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2배씩됬을때 공속4배와같아야한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기본공속</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,2배기준</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>baseskillratexk</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
     <numFmt numFmtId="177" formatCode="0.00_ "/>
     <numFmt numFmtId="178" formatCode="0.000_ "/>
+    <numFmt numFmtId="185" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1035,8 +1193,16 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1073,8 +1239,26 @@
         <bgColor theme="4" tint="0.79998168889431442"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE9AE2B"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="12">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -1203,13 +1387,39 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1363,14 +1573,38 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="185" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="41">
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
     <dxf>
       <font>
         <condense val="0"/>
@@ -1598,6 +1832,9 @@
       <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -1806,7 +2043,7 @@
       </xsd:element>
     </xsd:schema>
   </Schema>
-  <Schema ID="Schema5">
+  <Schema ID="Schema7">
     <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns="">
       <xsd:element nillable="true" name="Elementals">
         <xsd:complexType>
@@ -1820,7 +2057,7 @@
                 <xsd:attribute name="baseexp" form="unqualified" type="xsd:integer"/>
                 <xsd:attribute name="prefab" form="unqualified" type="xsd:string"/>
                 <xsd:attribute name="skillprefab" form="unqualified" type="xsd:string"/>
-                <xsd:attribute name="baseskillrate" form="unqualified" type="xsd:integer"/>
+                <xsd:attribute name="baseskillratexk" form="unqualified" type="xsd:integer"/>
                 <xsd:attribute name="baseskilldamagexh" form="unqualified" type="xsd:integer"/>
               </xsd:complexType>
             </xsd:element>
@@ -1832,20 +2069,20 @@
   <Map ID="4" Name="BonusList_맵" RootElement="BonusList" SchemaID="Schema4" ShowImportExportValidationErrors="false" AutoFit="true" Append="false" PreserveSortAFLayout="true" PreserveFormat="true">
     <DataBinding FileBinding="true" ConnectionID="2" DataBindingLoadMode="1"/>
   </Map>
-  <Map ID="13" Name="Elementals_맵" RootElement="Elementals" SchemaID="Schema5" ShowImportExportValidationErrors="false" AutoFit="true" Append="false" PreserveSortAFLayout="true" PreserveFormat="true">
-    <DataBinding FileBinding="true" ConnectionID="4" DataBindingLoadMode="1"/>
+  <Map ID="16" Name="Elementals_맵" RootElement="Elementals" SchemaID="Schema7" ShowImportExportValidationErrors="false" AutoFit="true" Append="false" PreserveSortAFLayout="true" PreserveFormat="true">
+    <DataBinding FileBinding="true" ConnectionID="5" DataBindingLoadMode="1"/>
   </Map>
   <Map ID="10" Name="Researches_맵" RootElement="Researches" SchemaID="Schema6" ShowImportExportValidationErrors="false" AutoFit="true" Append="false" PreserveSortAFLayout="true" PreserveFormat="true">
-    <DataBinding FileBinding="true" ConnectionID="10" DataBindingLoadMode="1"/>
+    <DataBinding FileBinding="true" ConnectionID="11" DataBindingLoadMode="1"/>
   </Map>
   <Map ID="12" Name="Talents_맵" RootElement="Talents" SchemaID="Schema8" ShowImportExportValidationErrors="false" AutoFit="true" Append="false" PreserveSortAFLayout="true" PreserveFormat="true">
-    <DataBinding FileBinding="true" ConnectionID="12" DataBindingLoadMode="1"/>
+    <DataBinding FileBinding="true" ConnectionID="13" DataBindingLoadMode="1"/>
   </Map>
 </MapInfo>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="표28_2" displayName="표28_2" ref="A1:M28" tableType="xml" totalsRowShown="0" headerRowDxfId="40" dataDxfId="39" connectionId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="표28_2" displayName="표28_2" ref="A1:M28" tableType="xml" totalsRowShown="0" headerRowDxfId="40" dataDxfId="39" connectionId="11">
   <autoFilter ref="A1:M28">
     <filterColumn colId="4"/>
     <filterColumn colId="9"/>
@@ -1926,7 +2163,7 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="30" name="표30" displayName="표30" ref="A1:I10" tableType="xml" totalsRowShown="0" connectionId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="30" name="표30" displayName="표30" ref="A1:I10" tableType="xml" totalsRowShown="0" connectionId="5">
   <autoFilter ref="A1:I10">
     <filterColumn colId="5"/>
     <filterColumn colId="6"/>
@@ -1935,33 +2172,33 @@
   </autoFilter>
   <tableColumns count="9">
     <tableColumn id="1" uniqueName="id" name="id">
-      <xmlColumnPr mapId="13" xpath="/Elementals/Elemental/@id" xmlDataType="string"/>
+      <xmlColumnPr mapId="16" xpath="/Elementals/Elemental/@id" xmlDataType="string"/>
     </tableColumn>
     <tableColumn id="2" uniqueName="name" name="name">
       <calculatedColumnFormula>CONCATENATE("$",표30[[#This Row],[id]],"$")</calculatedColumnFormula>
-      <xmlColumnPr mapId="13" xpath="/Elementals/Elemental/@name" xmlDataType="string"/>
+      <xmlColumnPr mapId="16" xpath="/Elementals/Elemental/@name" xmlDataType="string"/>
     </tableColumn>
     <tableColumn id="3" uniqueName="basecastintervalxk" name="basecastintervalxk">
-      <xmlColumnPr mapId="13" xpath="/Elementals/Elemental/@basecastintervalxk" xmlDataType="integer"/>
+      <xmlColumnPr mapId="16" xpath="/Elementals/Elemental/@basecastintervalxk" xmlDataType="integer"/>
     </tableColumn>
     <tableColumn id="4" uniqueName="basedps" name="basedps" dataDxfId="18">
-      <xmlColumnPr mapId="13" xpath="/Elementals/Elemental/@basedps" xmlDataType="integer"/>
+      <xmlColumnPr mapId="16" xpath="/Elementals/Elemental/@basedps" xmlDataType="integer"/>
     </tableColumn>
     <tableColumn id="5" uniqueName="baseexp" name="baseexp" dataDxfId="17">
-      <xmlColumnPr mapId="13" xpath="/Elementals/Elemental/@baseexp" xmlDataType="integer"/>
+      <xmlColumnPr mapId="16" xpath="/Elementals/Elemental/@baseexp" xmlDataType="integer"/>
     </tableColumn>
     <tableColumn id="6" uniqueName="prefab" name="prefab">
-      <xmlColumnPr mapId="13" xpath="/Elementals/Elemental/@prefab" xmlDataType="string"/>
+      <xmlColumnPr mapId="16" xpath="/Elementals/Elemental/@prefab" xmlDataType="string"/>
     </tableColumn>
     <tableColumn id="7" uniqueName="skillprefab" name="skillprefab">
       <calculatedColumnFormula>CONCATENATE("prefabs/Projectile/",표30[[#This Row],[id]],"_skill")</calculatedColumnFormula>
-      <xmlColumnPr mapId="13" xpath="/Elementals/Elemental/@skillprefab" xmlDataType="string"/>
+      <xmlColumnPr mapId="16" xpath="/Elementals/Elemental/@skillprefab" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="8" uniqueName="baseskillrate" name="baseskillrate">
-      <xmlColumnPr mapId="13" xpath="/Elementals/Elemental/@baseskillrate" xmlDataType="integer"/>
+    <tableColumn id="8" uniqueName="baseskillratexk" name="baseskillratexk">
+      <xmlColumnPr mapId="16" xpath="/Elementals/Elemental/@baseskillratexk" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="9" uniqueName="baseskilldamagexh" name="baseskilldamagexh" dataDxfId="0">
-      <xmlColumnPr mapId="13" xpath="/Elementals/Elemental/@baseskilldamagexh" xmlDataType="integer"/>
+    <tableColumn id="9" uniqueName="baseskilldamagexh" name="baseskilldamagexh" dataDxfId="16">
+      <xmlColumnPr mapId="16" xpath="/Elementals/Elemental/@baseskilldamagexh" xmlDataType="integer"/>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1969,50 +2206,50 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="표28_24" displayName="표28_24" ref="A1:M18" tableType="xml" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15" connectionId="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="표28_24" displayName="표28_24" ref="A1:M18" tableType="xml" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14" connectionId="13">
   <autoFilter ref="A1:M18">
     <filterColumn colId="12"/>
   </autoFilter>
   <tableColumns count="13">
-    <tableColumn id="1" uniqueName="id" name="id" dataDxfId="14">
+    <tableColumn id="1" uniqueName="id" name="id" dataDxfId="13">
       <xmlColumnPr mapId="12" xpath="/Talents/Talent/@id" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="2" uniqueName="requireid" name="requireid" dataDxfId="13">
+    <tableColumn id="2" uniqueName="requireid" name="requireid" dataDxfId="12">
       <xmlColumnPr mapId="12" xpath="/Talents/Talent/@requireid" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="7" uniqueName="type" name="type" dataDxfId="12">
+    <tableColumn id="7" uniqueName="type" name="type" dataDxfId="11">
       <xmlColumnPr mapId="12" xpath="/Talents/Talent/@type" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="9" uniqueName="maxlevelper10" name="maxlevelper10" dataDxfId="11">
+    <tableColumn id="9" uniqueName="maxlevelper10" name="maxlevelper10" dataDxfId="10">
       <xmlColumnPr mapId="12" xpath="/Talents/Talent/@maxlevelper10" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="4" uniqueName="icon" name="icon" dataDxfId="10">
+    <tableColumn id="4" uniqueName="icon" name="icon" dataDxfId="9">
       <xmlColumnPr mapId="12" xpath="/Talents/Talent/Info/@icon" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="13" uniqueName="subicon" name="subicon" dataDxfId="9">
+    <tableColumn id="13" uniqueName="subicon" name="subicon" dataDxfId="8">
       <xmlColumnPr mapId="12" xpath="/Talents/Talent/Info/@subicon" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="5" uniqueName="name" name="name" dataDxfId="8">
+    <tableColumn id="5" uniqueName="name" name="name" dataDxfId="7">
       <calculatedColumnFormula>CONCATENATE("@S",표28_24[[#This Row],[id]],"N@")</calculatedColumnFormula>
       <xmlColumnPr mapId="12" xpath="/Talents/Talent/Info/@name" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="6" uniqueName="description" name="descrption" dataDxfId="7">
+    <tableColumn id="6" uniqueName="description" name="descrption" dataDxfId="6">
       <calculatedColumnFormula>CONCATENATE("@S",표28_24[[#This Row],[id]],"D@")</calculatedColumnFormula>
       <xmlColumnPr mapId="12" xpath="/Talents/Talent/Info/@description" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="8" uniqueName="rate" name="rate" dataDxfId="6">
+    <tableColumn id="8" uniqueName="rate" name="rate" dataDxfId="5">
       <xmlColumnPr mapId="12" xpath="/Talents/Talent/Rate/@rate" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="12" uniqueName="absrate" name="absrate" dataDxfId="5">
+    <tableColumn id="12" uniqueName="absrate" name="absrate" dataDxfId="4">
       <xmlColumnPr mapId="12" xpath="/Talents/Talent/Rate/@absrate" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="10" uniqueName="target" name="target" dataDxfId="4">
+    <tableColumn id="10" uniqueName="target" name="target" dataDxfId="3">
       <xmlColumnPr mapId="12" xpath="/Talents/Talent/Bonus/@target" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="11" uniqueName="attribute" name="attribute" dataDxfId="3">
+    <tableColumn id="11" uniqueName="attribute" name="attribute" dataDxfId="2">
       <xmlColumnPr mapId="12" xpath="/Talents/Talent/Bonus/@attribute" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="3" uniqueName="value" name="value" dataDxfId="2">
+    <tableColumn id="3" uniqueName="value" name="value" dataDxfId="1">
       <xmlColumnPr mapId="12" xpath="/Talents/Talent/Bonus/@value" xmlDataType="integer"/>
     </tableColumn>
   </tableColumns>
@@ -5023,8 +5260,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -5047,7 +5284,7 @@
         <v>10</v>
       </c>
       <c r="C1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D1" t="s">
         <v>29</v>
@@ -5062,10 +5299,10 @@
         <v>235</v>
       </c>
       <c r="H1" s="39" t="s">
-        <v>239</v>
+        <v>282</v>
       </c>
       <c r="I1" s="39" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="17.25" thickTop="1">
@@ -5076,7 +5313,7 @@
         <v>194</v>
       </c>
       <c r="C2">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="D2" s="38">
         <v>10</v>
@@ -5093,10 +5330,10 @@
         <v>prefabs/Projectile/fireball_skill</v>
       </c>
       <c r="H2">
-        <v>50</v>
-      </c>
-      <c r="I2" s="2">
-        <v>300</v>
+        <v>120</v>
+      </c>
+      <c r="I2" s="59">
+        <v>225</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -5107,7 +5344,7 @@
         <v>199</v>
       </c>
       <c r="C3" s="39">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="D3" s="41">
         <v>10</v>
@@ -5124,10 +5361,10 @@
         <v>prefabs/Projectile/iceblock_skill</v>
       </c>
       <c r="H3" s="39">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="I3" s="2">
-        <v>300</v>
+        <v>800</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -5138,7 +5375,7 @@
         <v>196</v>
       </c>
       <c r="C4" s="39">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="D4" s="38">
         <v>10</v>
@@ -5158,7 +5395,7 @@
         <v>50</v>
       </c>
       <c r="I4" s="2">
-        <v>300</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -5169,7 +5406,7 @@
         <v>211</v>
       </c>
       <c r="C5" s="39">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="D5" s="38">
         <v>10</v>
@@ -5186,10 +5423,10 @@
         <v>prefabs/Projectile/electricball_skill</v>
       </c>
       <c r="H5" s="39">
-        <v>50</v>
-      </c>
-      <c r="I5" s="2">
-        <v>300</v>
+        <v>75</v>
+      </c>
+      <c r="I5" s="59">
+        <v>350</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -5200,7 +5437,7 @@
         <v>195</v>
       </c>
       <c r="C6" s="39">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="D6" s="38">
         <v>10</v>
@@ -5217,10 +5454,10 @@
         <v>prefabs/Projectile/waterball_skill</v>
       </c>
       <c r="H6" s="39">
+        <v>150</v>
+      </c>
+      <c r="I6" s="59">
         <v>50</v>
-      </c>
-      <c r="I6" s="2">
-        <v>300</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -5231,7 +5468,7 @@
         <v>197</v>
       </c>
       <c r="C7" s="39">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="D7" s="38">
         <v>10</v>
@@ -5248,10 +5485,10 @@
         <v>prefabs/Projectile/earthball_skill</v>
       </c>
       <c r="H7" s="39">
-        <v>50</v>
-      </c>
-      <c r="I7" s="2">
-        <v>300</v>
+        <v>30</v>
+      </c>
+      <c r="I7" s="59">
+        <v>850</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -5262,7 +5499,7 @@
         <v>198</v>
       </c>
       <c r="C8" s="39">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="D8" s="38">
         <v>10</v>
@@ -5282,7 +5519,7 @@
         <v>50</v>
       </c>
       <c r="I8" s="2">
-        <v>300</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -5293,7 +5530,7 @@
         <v>238</v>
       </c>
       <c r="C9" s="39">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="D9" s="38">
         <v>10</v>
@@ -5310,10 +5547,10 @@
         <v>prefabs/Projectile/snowball_skill</v>
       </c>
       <c r="H9" s="39">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="I9" s="2">
-        <v>300</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -5324,7 +5561,7 @@
         <v>212</v>
       </c>
       <c r="C10" s="39">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="D10" s="38">
         <v>10</v>
@@ -5341,10 +5578,10 @@
         <v>prefabs/Projectile/magmaball_skill</v>
       </c>
       <c r="H10" s="39">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="I10" s="2">
-        <v>300</v>
+        <v>2550</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -5367,42 +5604,66 @@
     <row r="14" spans="1:9">
       <c r="D14" s="4"/>
     </row>
-    <row r="17" spans="5:7">
+    <row r="16" spans="1:9">
+      <c r="H16" s="58"/>
+    </row>
+    <row r="17" spans="5:8">
       <c r="E17" s="39"/>
-    </row>
-    <row r="24" spans="5:7" ht="17.25" thickBot="1">
+      <c r="H17" s="58"/>
+    </row>
+    <row r="18" spans="5:8">
+      <c r="H18" s="58"/>
+    </row>
+    <row r="19" spans="5:8">
+      <c r="H19" s="58"/>
+    </row>
+    <row r="20" spans="5:8">
+      <c r="H20" s="58"/>
+    </row>
+    <row r="21" spans="5:8">
+      <c r="H21" s="58"/>
+    </row>
+    <row r="22" spans="5:8">
+      <c r="H22" s="58"/>
+    </row>
+    <row r="23" spans="5:8">
+      <c r="H23" s="58"/>
+    </row>
+    <row r="24" spans="5:8" ht="17.25" thickBot="1">
       <c r="F24" s="43"/>
       <c r="G24" s="44"/>
-    </row>
-    <row r="25" spans="5:7" ht="17.25" thickTop="1">
+      <c r="H24" s="58"/>
+    </row>
+    <row r="25" spans="5:8" ht="17.25" thickTop="1">
       <c r="F25" s="45"/>
       <c r="G25" s="46"/>
-    </row>
-    <row r="26" spans="5:7">
+      <c r="H25" s="58"/>
+    </row>
+    <row r="26" spans="5:8">
       <c r="F26" s="47"/>
       <c r="G26" s="48"/>
     </row>
-    <row r="27" spans="5:7">
+    <row r="27" spans="5:8">
       <c r="F27" s="45"/>
       <c r="G27" s="46"/>
     </row>
-    <row r="28" spans="5:7">
+    <row r="28" spans="5:8">
       <c r="F28" s="47"/>
       <c r="G28" s="48"/>
     </row>
-    <row r="29" spans="5:7">
+    <row r="29" spans="5:8">
       <c r="F29" s="45"/>
       <c r="G29" s="46"/>
     </row>
-    <row r="30" spans="5:7">
+    <row r="30" spans="5:8">
       <c r="F30" s="47"/>
       <c r="G30" s="48"/>
     </row>
-    <row r="31" spans="5:7">
+    <row r="31" spans="5:8">
       <c r="F31" s="45"/>
       <c r="G31" s="46"/>
     </row>
-    <row r="32" spans="5:7">
+    <row r="32" spans="5:8">
       <c r="F32" s="47"/>
       <c r="G32" s="48"/>
     </row>
@@ -32160,7 +32421,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -32170,14 +32431,706 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A3:S23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+      <selection activeCell="F6" sqref="F6:F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
-  <sheetData/>
+  <sheetData>
+    <row r="3" spans="1:19">
+      <c r="D3" s="39" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
+      <c r="A4" s="39" t="s">
+        <v>276</v>
+      </c>
+      <c r="B4" s="39" t="s">
+        <v>279</v>
+      </c>
+      <c r="J4" s="39" t="s">
+        <v>245</v>
+      </c>
+      <c r="K4" s="39" t="s">
+        <v>245</v>
+      </c>
+      <c r="L4" s="39" t="s">
+        <v>248</v>
+      </c>
+      <c r="M4" s="39" t="s">
+        <v>246</v>
+      </c>
+      <c r="N4" s="39" t="s">
+        <v>246</v>
+      </c>
+      <c r="O4" s="39" t="s">
+        <v>246</v>
+      </c>
+      <c r="P4" s="51" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
+      <c r="A5" s="39" t="s">
+        <v>280</v>
+      </c>
+      <c r="B5" s="39" t="s">
+        <v>275</v>
+      </c>
+      <c r="D5" s="39" t="s">
+        <v>251</v>
+      </c>
+      <c r="E5" s="39" t="s">
+        <v>252</v>
+      </c>
+      <c r="F5" s="39" t="s">
+        <v>242</v>
+      </c>
+      <c r="G5" s="39" t="s">
+        <v>244</v>
+      </c>
+      <c r="H5" s="39" t="s">
+        <v>253</v>
+      </c>
+      <c r="I5" s="39" t="s">
+        <v>254</v>
+      </c>
+      <c r="J5" s="39" t="s">
+        <v>243</v>
+      </c>
+      <c r="K5" s="39" t="s">
+        <v>247</v>
+      </c>
+      <c r="M5" s="39" t="s">
+        <v>243</v>
+      </c>
+      <c r="N5" s="39" t="s">
+        <v>247</v>
+      </c>
+      <c r="O5" s="39" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
+      <c r="B6" s="39">
+        <v>4</v>
+      </c>
+      <c r="C6" s="56" t="s">
+        <v>255</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6" s="58">
+        <v>0.12</v>
+      </c>
+      <c r="G6" s="42">
+        <v>6.75</v>
+      </c>
+      <c r="H6" s="55">
+        <f>F6*D6</f>
+        <v>0.12</v>
+      </c>
+      <c r="I6" s="55">
+        <f>G6*E6</f>
+        <v>6.75</v>
+      </c>
+      <c r="J6" s="42">
+        <f>(1-H6)</f>
+        <v>0.88</v>
+      </c>
+      <c r="K6" s="42">
+        <v>1</v>
+      </c>
+      <c r="L6" s="52">
+        <f>J6*K6</f>
+        <v>0.88</v>
+      </c>
+      <c r="M6" s="42">
+        <f>H6</f>
+        <v>0.12</v>
+      </c>
+      <c r="N6" s="42">
+        <f>I6</f>
+        <v>6.75</v>
+      </c>
+      <c r="O6" s="53">
+        <f>M6*N6</f>
+        <v>0.80999999999999994</v>
+      </c>
+      <c r="P6" s="54">
+        <f>L6+O6</f>
+        <v>1.69</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
+      <c r="C7" s="56" t="s">
+        <v>256</v>
+      </c>
+      <c r="D7">
+        <f>D6</f>
+        <v>1</v>
+      </c>
+      <c r="E7" s="39">
+        <f>E6</f>
+        <v>1</v>
+      </c>
+      <c r="F7" s="58">
+        <v>0.1</v>
+      </c>
+      <c r="G7" s="42">
+        <v>8</v>
+      </c>
+      <c r="H7" s="55">
+        <f>F7*D7</f>
+        <v>0.1</v>
+      </c>
+      <c r="I7" s="55">
+        <f>G7*E7</f>
+        <v>8</v>
+      </c>
+      <c r="J7" s="42">
+        <f>(1-H7)</f>
+        <v>0.9</v>
+      </c>
+      <c r="K7" s="42">
+        <v>1</v>
+      </c>
+      <c r="L7" s="52">
+        <f>J7*K7</f>
+        <v>0.9</v>
+      </c>
+      <c r="M7" s="42">
+        <f>H7</f>
+        <v>0.1</v>
+      </c>
+      <c r="N7" s="42">
+        <f>I7</f>
+        <v>8</v>
+      </c>
+      <c r="O7" s="53">
+        <f>M7*N7</f>
+        <v>0.8</v>
+      </c>
+      <c r="P7" s="54">
+        <f>L7+O7</f>
+        <v>1.7000000000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
+      <c r="C8" s="56" t="s">
+        <v>257</v>
+      </c>
+      <c r="D8" s="39">
+        <f t="shared" ref="D8:D15" si="0">D7</f>
+        <v>1</v>
+      </c>
+      <c r="E8" s="39">
+        <f t="shared" ref="E8:E15" si="1">E7</f>
+        <v>1</v>
+      </c>
+      <c r="F8" s="58">
+        <v>0.05</v>
+      </c>
+      <c r="G8" s="42">
+        <v>15.5</v>
+      </c>
+      <c r="H8" s="55">
+        <f>F8*D8</f>
+        <v>0.05</v>
+      </c>
+      <c r="I8" s="55">
+        <f>G8*E8</f>
+        <v>15.5</v>
+      </c>
+      <c r="J8" s="42">
+        <f>(1-H8)</f>
+        <v>0.95</v>
+      </c>
+      <c r="K8" s="42">
+        <v>1</v>
+      </c>
+      <c r="L8" s="52">
+        <f>J8*K8</f>
+        <v>0.95</v>
+      </c>
+      <c r="M8" s="42">
+        <f>H8</f>
+        <v>0.05</v>
+      </c>
+      <c r="N8" s="42">
+        <f>I8</f>
+        <v>15.5</v>
+      </c>
+      <c r="O8" s="53">
+        <f>M8*N8</f>
+        <v>0.77500000000000002</v>
+      </c>
+      <c r="P8" s="54">
+        <f>L8+O8</f>
+        <v>1.7250000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
+      <c r="C9" s="56" t="s">
+        <v>258</v>
+      </c>
+      <c r="D9" s="39">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E9" s="39">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F9" s="58">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="G9" s="42">
+        <v>10.5</v>
+      </c>
+      <c r="H9" s="55">
+        <f>F9*D9</f>
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="I9" s="55">
+        <f>G9*E9</f>
+        <v>10.5</v>
+      </c>
+      <c r="J9" s="42">
+        <f>(1-H9)</f>
+        <v>0.92500000000000004</v>
+      </c>
+      <c r="K9" s="42">
+        <v>1</v>
+      </c>
+      <c r="L9" s="52">
+        <f>J9*K9</f>
+        <v>0.92500000000000004</v>
+      </c>
+      <c r="M9" s="42">
+        <f>H9</f>
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="N9" s="42">
+        <f>I9</f>
+        <v>10.5</v>
+      </c>
+      <c r="O9" s="53">
+        <f>M9*N9</f>
+        <v>0.78749999999999998</v>
+      </c>
+      <c r="P9" s="54">
+        <f>L9+O9</f>
+        <v>1.7124999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
+      <c r="C10" s="56" t="s">
+        <v>259</v>
+      </c>
+      <c r="D10" s="39">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E10" s="39">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F10" s="58">
+        <v>0.15</v>
+      </c>
+      <c r="G10" s="42">
+        <v>5.5</v>
+      </c>
+      <c r="H10" s="55">
+        <f>F10*D10</f>
+        <v>0.15</v>
+      </c>
+      <c r="I10" s="55">
+        <f>G10*E10</f>
+        <v>5.5</v>
+      </c>
+      <c r="J10" s="42">
+        <f>(1-H10)</f>
+        <v>0.85</v>
+      </c>
+      <c r="K10" s="42">
+        <v>1</v>
+      </c>
+      <c r="L10" s="52">
+        <f>J10*K10</f>
+        <v>0.85</v>
+      </c>
+      <c r="M10" s="42">
+        <f>H10</f>
+        <v>0.15</v>
+      </c>
+      <c r="N10" s="42">
+        <f>I10</f>
+        <v>5.5</v>
+      </c>
+      <c r="O10" s="53">
+        <f>M10*N10</f>
+        <v>0.82499999999999996</v>
+      </c>
+      <c r="P10" s="54">
+        <f>L10+O10</f>
+        <v>1.6749999999999998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
+      <c r="C11" s="56" t="s">
+        <v>260</v>
+      </c>
+      <c r="D11" s="39">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E11" s="39">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F11" s="58">
+        <v>0.03</v>
+      </c>
+      <c r="G11" s="42">
+        <v>25.5</v>
+      </c>
+      <c r="H11" s="55">
+        <f>F11*D11</f>
+        <v>0.03</v>
+      </c>
+      <c r="I11" s="55">
+        <f>G11*E11</f>
+        <v>25.5</v>
+      </c>
+      <c r="J11" s="42">
+        <f>(1-H11)</f>
+        <v>0.97</v>
+      </c>
+      <c r="K11" s="42">
+        <v>1</v>
+      </c>
+      <c r="L11" s="52">
+        <f>J11*K11</f>
+        <v>0.97</v>
+      </c>
+      <c r="M11" s="42">
+        <f>H11</f>
+        <v>0.03</v>
+      </c>
+      <c r="N11" s="42">
+        <f>I11</f>
+        <v>25.5</v>
+      </c>
+      <c r="O11" s="53">
+        <f>M11*N11</f>
+        <v>0.76500000000000001</v>
+      </c>
+      <c r="P11" s="54">
+        <f>L11+O11</f>
+        <v>1.7349999999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
+      <c r="C12" s="56" t="s">
+        <v>261</v>
+      </c>
+      <c r="D12" s="39">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E12" s="39">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F12" s="58">
+        <v>0.05</v>
+      </c>
+      <c r="G12" s="42">
+        <v>15.5</v>
+      </c>
+      <c r="H12" s="55">
+        <f>F12*D12</f>
+        <v>0.05</v>
+      </c>
+      <c r="I12" s="55">
+        <f>G12*E12</f>
+        <v>15.5</v>
+      </c>
+      <c r="J12" s="42">
+        <f>(1-H12)</f>
+        <v>0.95</v>
+      </c>
+      <c r="K12" s="42">
+        <v>1</v>
+      </c>
+      <c r="L12" s="52">
+        <f>J12*K12</f>
+        <v>0.95</v>
+      </c>
+      <c r="M12" s="42">
+        <f>H12</f>
+        <v>0.05</v>
+      </c>
+      <c r="N12" s="42">
+        <f>I12</f>
+        <v>15.5</v>
+      </c>
+      <c r="O12" s="53">
+        <f>M12*N12</f>
+        <v>0.77500000000000002</v>
+      </c>
+      <c r="P12" s="54">
+        <f>L12+O12</f>
+        <v>1.7250000000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
+      <c r="C13" s="56" t="s">
+        <v>262</v>
+      </c>
+      <c r="D13" s="39">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E13" s="39">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F13" s="58">
+        <v>0.06</v>
+      </c>
+      <c r="G13" s="42">
+        <v>13</v>
+      </c>
+      <c r="H13" s="55">
+        <f>F13*D13</f>
+        <v>0.06</v>
+      </c>
+      <c r="I13" s="55">
+        <f>G13*E13</f>
+        <v>13</v>
+      </c>
+      <c r="J13" s="42">
+        <f>(1-H13)</f>
+        <v>0.94</v>
+      </c>
+      <c r="K13" s="42">
+        <v>1</v>
+      </c>
+      <c r="L13" s="52">
+        <f>J13*K13</f>
+        <v>0.94</v>
+      </c>
+      <c r="M13" s="42">
+        <f>H13</f>
+        <v>0.06</v>
+      </c>
+      <c r="N13" s="42">
+        <f>I13</f>
+        <v>13</v>
+      </c>
+      <c r="O13" s="53">
+        <f>M13*N13</f>
+        <v>0.78</v>
+      </c>
+      <c r="P13" s="54">
+        <f>L13+O13</f>
+        <v>1.72</v>
+      </c>
+      <c r="Q13" s="39" t="s">
+        <v>266</v>
+      </c>
+      <c r="R13" s="39" t="s">
+        <v>269</v>
+      </c>
+      <c r="S13" s="39" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
+      <c r="C14" s="56" t="s">
+        <v>263</v>
+      </c>
+      <c r="D14" s="39">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E14" s="39">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F14" s="58">
+        <v>0.03</v>
+      </c>
+      <c r="G14" s="42">
+        <v>25.5</v>
+      </c>
+      <c r="H14" s="55">
+        <f>F14*D14</f>
+        <v>0.03</v>
+      </c>
+      <c r="I14" s="55">
+        <f>G14*E14</f>
+        <v>25.5</v>
+      </c>
+      <c r="J14" s="42">
+        <f>(1-H14)</f>
+        <v>0.97</v>
+      </c>
+      <c r="K14" s="42">
+        <v>1</v>
+      </c>
+      <c r="L14" s="52">
+        <f>J14*K14</f>
+        <v>0.97</v>
+      </c>
+      <c r="M14" s="42">
+        <f>H14</f>
+        <v>0.03</v>
+      </c>
+      <c r="N14" s="42">
+        <f>I14</f>
+        <v>25.5</v>
+      </c>
+      <c r="O14" s="53">
+        <f>M14*N14</f>
+        <v>0.76500000000000001</v>
+      </c>
+      <c r="P14" s="54">
+        <f>L14+O14</f>
+        <v>1.7349999999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
+      <c r="C15" s="57" t="s">
+        <v>264</v>
+      </c>
+      <c r="D15" s="39">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E15" s="39">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F15" s="58">
+        <v>0.2</v>
+      </c>
+      <c r="G15" s="42">
+        <v>4.25</v>
+      </c>
+      <c r="H15" s="55">
+        <f>F15*D15</f>
+        <v>0.2</v>
+      </c>
+      <c r="I15" s="55">
+        <f>G15*E15</f>
+        <v>4.25</v>
+      </c>
+      <c r="J15" s="42">
+        <f>(1-H15)</f>
+        <v>0.8</v>
+      </c>
+      <c r="K15" s="42">
+        <v>1</v>
+      </c>
+      <c r="L15" s="52">
+        <f>J15*K15</f>
+        <v>0.8</v>
+      </c>
+      <c r="M15" s="42">
+        <f>H15</f>
+        <v>0.2</v>
+      </c>
+      <c r="N15" s="42">
+        <f>I15</f>
+        <v>4.25</v>
+      </c>
+      <c r="O15" s="53">
+        <f>M15*N15</f>
+        <v>0.85000000000000009</v>
+      </c>
+      <c r="P15" s="54">
+        <f>L15+O15</f>
+        <v>1.6500000000000001</v>
+      </c>
+      <c r="R15" s="39" t="s">
+        <v>241</v>
+      </c>
+      <c r="S15" s="39" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
+      <c r="R16" s="39" t="s">
+        <v>270</v>
+      </c>
+      <c r="S16" s="39" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="18" spans="3:9">
+      <c r="G18" s="42">
+        <v>1.55</v>
+      </c>
+      <c r="H18">
+        <v>31</v>
+      </c>
+      <c r="I18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="3:9">
+      <c r="C19" s="39" t="s">
+        <v>272</v>
+      </c>
+      <c r="D19" s="39" t="s">
+        <v>277</v>
+      </c>
+      <c r="E19" s="39" t="s">
+        <v>278</v>
+      </c>
+      <c r="G19" s="42">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="20" spans="3:9">
+      <c r="C20" s="39" t="s">
+        <v>265</v>
+      </c>
+      <c r="D20" s="42">
+        <v>3</v>
+      </c>
+      <c r="E20" s="42">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:9">
+      <c r="D22" s="39" t="s">
+        <v>273</v>
+      </c>
+      <c r="E22" s="39" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="23" spans="3:9">
+      <c r="D23" s="39" t="s">
+        <v>274</v>
+      </c>
+      <c r="E23" s="39" t="s">
+        <v>274</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Doc/XmlDataDocument_170316.xlsx
+++ b/Doc/XmlDataDocument_170316.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="15300" yWindow="45" windowWidth="12300" windowHeight="13020" activeTab="1"/>
@@ -11,9 +11,10 @@
     <sheet name="Elemental" sheetId="3" r:id="rId2"/>
     <sheet name="Talent" sheetId="6" r:id="rId3"/>
     <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
-    <sheet name="Bonus" sheetId="2" r:id="rId5"/>
+    <sheet name="스킬구성" sheetId="2" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="124519"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -62,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="289">
   <si>
     <t>hero</t>
   </si>
@@ -291,10 +292,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>waterball</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>rock</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -360,9 +357,6 @@
     <t>Icon_04</t>
   </si>
   <si>
-    <t>Icon_09</t>
-  </si>
-  <si>
     <t>Icon_07</t>
   </si>
   <si>
@@ -370,9 +364,6 @@
   </si>
   <si>
     <t>Icon_11</t>
-  </si>
-  <si>
-    <t>Icon_08</t>
   </si>
   <si>
     <t>비법 : 화염구1</t>
@@ -396,18 +387,6 @@
   </si>
   <si>
     <t>비법 : 물폭탄1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>비법 : 물폭탄2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>비법 : 물폭탄3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>비법 : 물폭탄4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -753,10 +732,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>눈덩이를 배웁니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>공격속도가 $1$% 증가합니다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -846,10 +821,6 @@
   </si>
   <si>
     <t>지지직 습득</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>눈덩이 습득</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1126,6 +1097,58 @@
   <si>
     <t>baseskillratexk</t>
   </si>
+  <si>
+    <t>R01_006</t>
+  </si>
+  <si>
+    <t>비법 : 화염구6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iceblock</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Icon_05</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>각얼음 습득</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>각얼음을 배웁니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iceblock</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비법 : 각얼음1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비법 : 각얼음2</t>
+  </si>
+  <si>
+    <t>비법 : 각얼음3</t>
+  </si>
+  <si>
+    <t>비법 : 각얼음4</t>
+  </si>
+  <si>
+    <t>R05_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Icon_09</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>waterball</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -1135,7 +1158,7 @@
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
     <numFmt numFmtId="177" formatCode="0.00_ "/>
     <numFmt numFmtId="178" formatCode="0.000_ "/>
-    <numFmt numFmtId="185" formatCode="0.0%"/>
+    <numFmt numFmtId="179" formatCode="0.0%"/>
   </numFmts>
   <fonts count="8">
     <font>
@@ -1594,7 +1617,7 @@
     <xf numFmtId="0" fontId="7" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="185" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
@@ -2082,8 +2105,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="표28_2" displayName="표28_2" ref="A1:M28" tableType="xml" totalsRowShown="0" headerRowDxfId="40" dataDxfId="39" connectionId="11">
-  <autoFilter ref="A1:M28">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="표28_2" displayName="표28_2" ref="A1:M30" tableType="xml" totalsRowShown="0" headerRowDxfId="40" dataDxfId="39" connectionId="11">
+  <autoFilter ref="A1:M30">
     <filterColumn colId="4"/>
     <filterColumn colId="9"/>
     <filterColumn colId="11"/>
@@ -2138,8 +2161,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="표29_3" displayName="표29_3" ref="O1:S28" tableType="xml" totalsRowShown="0" headerRowDxfId="25" dataDxfId="24" connectionId="2">
-  <autoFilter ref="O1:S28"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="표29_3" displayName="표29_3" ref="O1:S30" tableType="xml" totalsRowShown="0" headerRowDxfId="25" dataDxfId="24" connectionId="2">
+  <autoFilter ref="O1:S30"/>
   <tableColumns count="5">
     <tableColumn id="1" uniqueName="group" name="group" dataDxfId="23">
       <calculatedColumnFormula>표28_2[[#This Row],[groupid]]</calculatedColumnFormula>
@@ -2542,13 +2565,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S92"/>
+  <dimension ref="A1:S89"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="8" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L5" sqref="L5"/>
+      <selection pane="bottomRight" activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2586,7 +2609,7 @@
         <v>4</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>10</v>
@@ -2630,22 +2653,22 @@
     </row>
     <row r="2" spans="1:19">
       <c r="A2" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>77</v>
-      </c>
       <c r="C2" s="2">
         <v>0</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="H2" s="5">
         <v>0</v>
@@ -2654,7 +2677,7 @@
         <v>0</v>
       </c>
       <c r="J2" s="5">
-        <v>990</v>
+        <v>600</v>
       </c>
       <c r="K2" s="2">
         <v>80</v>
@@ -2677,7 +2700,7 @@
         <v>18</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -2691,13 +2714,13 @@
         <v>0</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>81</v>
+        <v>278</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>207</v>
+        <v>279</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>183</v>
+        <v>280</v>
       </c>
       <c r="H3" s="5">
         <v>0</v>
@@ -2706,7 +2729,7 @@
         <v>10</v>
       </c>
       <c r="J3" s="5">
-        <v>1290</v>
+        <v>945</v>
       </c>
       <c r="K3" s="2">
         <v>80</v>
@@ -2729,7 +2752,7 @@
         <v>18</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>22</v>
+        <v>277</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -2737,19 +2760,19 @@
         <v>7</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>62</v>
+        <v>277</v>
       </c>
       <c r="C4" s="2">
         <v>0</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="H4" s="5">
         <v>0</v>
@@ -2758,7 +2781,7 @@
         <v>35</v>
       </c>
       <c r="J4" s="5">
-        <v>1613</v>
+        <v>1328</v>
       </c>
       <c r="K4" s="2">
         <v>80</v>
@@ -2789,19 +2812,19 @@
         <v>8</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C5" s="2">
         <v>0</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="H5" s="5">
         <v>0</v>
@@ -2810,7 +2833,7 @@
         <v>60</v>
       </c>
       <c r="J5" s="5">
-        <v>1965</v>
+        <v>1755</v>
       </c>
       <c r="K5" s="2">
         <v>80</v>
@@ -2847,13 +2870,13 @@
         <v>0</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>85</v>
+        <v>287</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="H6" s="5">
         <v>0</v>
@@ -2862,7 +2885,7 @@
         <v>90</v>
       </c>
       <c r="J6" s="5">
-        <v>2355</v>
+        <v>2235</v>
       </c>
       <c r="K6" s="2">
         <v>80</v>
@@ -2885,7 +2908,7 @@
         <v>18</v>
       </c>
       <c r="S6" s="2" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -2896,17 +2919,17 @@
         <v>51</v>
       </c>
       <c r="C7" s="7">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E7" s="2" t="str">
         <f>CONCATENATE("x",표29_3[[#This Row],[value]])</f>
         <v>x2</v>
       </c>
       <c r="F7" s="24" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="G7" s="7" t="str">
         <f>CONCATENATE("기본공격의 공격력이 ",표29_3[[#This Row],[value]],"배 증가합니다.")</f>
@@ -2919,7 +2942,7 @@
         <v>0</v>
       </c>
       <c r="J7" s="5">
-        <v>990</v>
+        <v>300</v>
       </c>
       <c r="K7" s="2">
         <v>80</v>
@@ -2953,18 +2976,18 @@
       <c r="B8" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="C8" s="2">
-        <v>25</v>
+      <c r="C8" s="7">
+        <v>10</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E8" s="2" t="str">
         <f>CONCATENATE("x",표29_3[[#This Row],[value]])</f>
         <v>x2</v>
       </c>
       <c r="F8" s="24" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="G8" s="7" t="str">
         <f>CONCATENATE("기본공격의 공격력이 ",표29_3[[#This Row],[value]],"배 증가합니다.")</f>
@@ -2977,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="J8" s="5">
-        <v>990</v>
+        <v>300</v>
       </c>
       <c r="K8" s="2">
         <v>80</v>
@@ -3011,22 +3034,22 @@
       <c r="B9" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="C9" s="7">
-        <v>45</v>
+      <c r="C9" s="2">
+        <v>25</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E9" s="2" t="str">
         <f>CONCATENATE("x",표29_3[[#This Row],[value]])</f>
-        <v>x2</v>
+        <v>x4</v>
       </c>
       <c r="F9" s="24" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="G9" s="7" t="str">
         <f>CONCATENATE("기본공격의 공격력이 ",표29_3[[#This Row],[value]],"배 증가합니다.")</f>
-        <v>기본공격의 공격력이 2배 증가합니다.</v>
+        <v>기본공격의 공격력이 4배 증가합니다.</v>
       </c>
       <c r="H9" s="7">
         <v>45</v>
@@ -3035,7 +3058,7 @@
         <v>0</v>
       </c>
       <c r="J9" s="5">
-        <v>990</v>
+        <v>300</v>
       </c>
       <c r="K9" s="2">
         <v>80</v>
@@ -3058,7 +3081,7 @@
         <v>52</v>
       </c>
       <c r="R9" s="37">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="S9" s="7"/>
     </row>
@@ -3069,31 +3092,31 @@
       <c r="B10" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="C10" s="2">
-        <v>65</v>
+      <c r="C10" s="7">
+        <v>45</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E10" s="2" t="str">
         <f>CONCATENATE("x",표29_3[[#This Row],[value]])</f>
-        <v>x10</v>
+        <v>x12</v>
       </c>
       <c r="F10" s="24" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="G10" s="7" t="str">
         <f>CONCATENATE("기본공격의 공격력이 ",표29_3[[#This Row],[value]],"배 증가합니다.")</f>
-        <v>기본공격의 공격력이 10배 증가합니다.</v>
+        <v>기본공격의 공격력이 12배 증가합니다.</v>
       </c>
       <c r="H10" s="2">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="I10" s="8">
         <v>0</v>
       </c>
       <c r="J10" s="5">
-        <v>990</v>
+        <v>300</v>
       </c>
       <c r="K10" s="2">
         <v>80</v>
@@ -3116,7 +3139,7 @@
         <v>52</v>
       </c>
       <c r="R10" s="37">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="S10" s="7"/>
     </row>
@@ -3127,31 +3150,31 @@
       <c r="B11" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="C11" s="7">
-        <v>90</v>
+      <c r="C11" s="2">
+        <v>70</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E11" s="2" t="str">
         <f>CONCATENATE("x",표29_3[[#This Row],[value]])</f>
-        <v>x25</v>
+        <v>x20</v>
       </c>
       <c r="F11" s="24" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="G11" s="7" t="str">
         <f>CONCATENATE("기본공격의 공격력이 ",표29_3[[#This Row],[value]],"배 증가합니다.")</f>
-        <v>기본공격의 공격력이 25배 증가합니다.</v>
+        <v>기본공격의 공격력이 20배 증가합니다.</v>
       </c>
       <c r="H11" s="7">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="I11" s="8">
         <v>0</v>
       </c>
       <c r="J11" s="5">
-        <v>990</v>
+        <v>300</v>
       </c>
       <c r="K11" s="2">
         <v>80</v>
@@ -3174,7 +3197,7 @@
         <v>52</v>
       </c>
       <c r="R11" s="37">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="S11" s="7"/>
     </row>
@@ -3185,18 +3208,18 @@
       <c r="B12" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="2">
-        <v>5</v>
+      <c r="C12" s="7">
+        <v>0</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E12" s="2" t="str">
         <f>CONCATENATE("x",표29_3[[#This Row],[value]])</f>
         <v>x2</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="G12" s="7" t="str">
         <f>CONCATENATE("화염구의 공격력이 ",표29_3[[#This Row],[value]],"배 증가합니다.")</f>
@@ -3209,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="J12" s="5">
-        <v>1290</v>
+        <v>600</v>
       </c>
       <c r="K12" s="2">
         <v>80</v>
@@ -3238,23 +3261,23 @@
     </row>
     <row r="13" spans="1:19">
       <c r="A13" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>20</v>
       </c>
       <c r="C13" s="2">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E13" s="2" t="str">
         <f>CONCATENATE("x",표29_3[[#This Row],[value]])</f>
         <v>x2</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="G13" s="7" t="str">
         <f>CONCATENATE("화염구의 공격력이 ",표29_3[[#This Row],[value]],"배 증가합니다.")</f>
@@ -3267,7 +3290,7 @@
         <v>0</v>
       </c>
       <c r="J13" s="5">
-        <v>1290</v>
+        <v>600</v>
       </c>
       <c r="K13" s="2">
         <v>80</v>
@@ -3296,23 +3319,23 @@
     </row>
     <row r="14" spans="1:19">
       <c r="A14" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="5">
-        <v>30</v>
+      <c r="C14" s="2">
+        <v>15</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E14" s="2" t="str">
         <f>CONCATENATE("x",표29_3[[#This Row],[value]])</f>
         <v>x2</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="G14" s="7" t="str">
         <f>CONCATENATE("화염구의 공격력이 ",표29_3[[#This Row],[value]],"배 증가합니다.")</f>
@@ -3325,7 +3348,7 @@
         <v>0</v>
       </c>
       <c r="J14" s="5">
-        <v>1290</v>
+        <v>600</v>
       </c>
       <c r="K14" s="2">
         <v>80</v>
@@ -3354,23 +3377,23 @@
     </row>
     <row r="15" spans="1:19">
       <c r="A15" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>20</v>
       </c>
       <c r="C15" s="5">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E15" s="2" t="str">
         <f>CONCATENATE("x",표29_3[[#This Row],[value]])</f>
         <v>x8</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="G15" s="7" t="str">
         <f>CONCATENATE("화염구의 공격력이 ",표29_3[[#This Row],[value]],"배 증가합니다.")</f>
@@ -3383,7 +3406,7 @@
         <v>0</v>
       </c>
       <c r="J15" s="5">
-        <v>1290</v>
+        <v>600</v>
       </c>
       <c r="K15" s="2">
         <v>80</v>
@@ -3412,27 +3435,27 @@
     </row>
     <row r="16" spans="1:19">
       <c r="A16" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>20</v>
       </c>
       <c r="C16" s="5">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E16" s="2" t="str">
         <f>CONCATENATE("x",표29_3[[#This Row],[value]])</f>
-        <v>x20</v>
+        <v>x16</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="G16" s="7" t="str">
         <f>CONCATENATE("화염구의 공격력이 ",표29_3[[#This Row],[value]],"배 증가합니다.")</f>
-        <v>화염구의 공격력이 20배 증가합니다.</v>
+        <v>화염구의 공격력이 16배 증가합니다.</v>
       </c>
       <c r="H16" s="5">
         <v>75</v>
@@ -3441,7 +3464,7 @@
         <v>0</v>
       </c>
       <c r="J16" s="5">
-        <v>1290</v>
+        <v>600</v>
       </c>
       <c r="K16" s="2">
         <v>80</v>
@@ -3465,41 +3488,41 @@
         <v>31</v>
       </c>
       <c r="R16" s="35">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:19">
       <c r="A17" s="1" t="s">
-        <v>37</v>
+        <v>275</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C17" s="2">
-        <v>5</v>
+        <v>20</v>
+      </c>
+      <c r="C17" s="5">
+        <v>75</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E17" s="2" t="str">
         <f>CONCATENATE("x",표29_3[[#This Row],[value]])</f>
-        <v>x2</v>
+        <v>x20</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>91</v>
+        <v>276</v>
       </c>
       <c r="G17" s="7" t="str">
-        <f>CONCATENATE("물폭탄의 공격력이 ",표29_3[[#This Row],[value]],"배 증가합니다.")</f>
-        <v>물폭탄의 공격력이 2배 증가합니다.</v>
+        <f>CONCATENATE("화염구의 공격력이 ",표29_3[[#This Row],[value]],"배 증가합니다.")</f>
+        <v>화염구의 공격력이 20배 증가합니다.</v>
       </c>
       <c r="H17" s="2">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="I17" s="5">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J17" s="5">
-        <v>1613</v>
+        <v>600</v>
       </c>
       <c r="K17" s="2">
         <v>80</v>
@@ -3509,56 +3532,56 @@
       </c>
       <c r="M17" s="1" t="str">
         <f>CONCATENATE("B",표28_2[[#This Row],[id]])</f>
-        <v>BR02_001</v>
+        <v>BR01_006</v>
       </c>
       <c r="N17" s="39"/>
       <c r="O17" s="7" t="str">
         <f>표28_2[[#This Row],[groupid]]</f>
-        <v>BR02_001</v>
+        <v>BR01_006</v>
       </c>
       <c r="P17" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>31</v>
       </c>
       <c r="R17" s="35">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="S17" s="7"/>
     </row>
     <row r="18" spans="1:19">
       <c r="A18" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>22</v>
+        <v>277</v>
       </c>
       <c r="C18" s="2">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>81</v>
+        <v>278</v>
       </c>
       <c r="E18" s="2" t="str">
         <f>CONCATENATE("x",표29_3[[#This Row],[value]])</f>
         <v>x2</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>92</v>
+        <v>282</v>
       </c>
       <c r="G18" s="7" t="str">
-        <f>CONCATENATE("물폭탄의 공격력이 ",표29_3[[#This Row],[value]],"배 증가합니다.")</f>
-        <v>물폭탄의 공격력이 2배 증가합니다.</v>
+        <f>CONCATENATE("각얼음의 공격력이 ",표29_3[[#This Row],[value]],"배 증가합니다.")</f>
+        <v>각얼음의 공격력이 2배 증가합니다.</v>
       </c>
       <c r="H18" s="2">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="I18" s="5">
         <v>10</v>
       </c>
       <c r="J18" s="5">
-        <v>1613</v>
+        <v>945</v>
       </c>
       <c r="K18" s="2">
         <v>80</v>
@@ -3568,15 +3591,15 @@
       </c>
       <c r="M18" s="1" t="str">
         <f>CONCATENATE("B",표28_2[[#This Row],[id]])</f>
-        <v>BR02_002</v>
+        <v>BR02_001</v>
       </c>
       <c r="N18" s="39"/>
       <c r="O18" s="7" t="str">
         <f>표28_2[[#This Row],[groupid]]</f>
-        <v>BR02_002</v>
+        <v>BR02_001</v>
       </c>
       <c r="P18" s="2" t="s">
-        <v>21</v>
+        <v>281</v>
       </c>
       <c r="Q18" s="7" t="s">
         <v>31</v>
@@ -3588,36 +3611,36 @@
     </row>
     <row r="19" spans="1:19">
       <c r="A19" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>22</v>
+        <v>277</v>
       </c>
       <c r="C19" s="2">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>81</v>
+        <v>278</v>
       </c>
       <c r="E19" s="2" t="str">
         <f>CONCATENATE("x",표29_3[[#This Row],[value]])</f>
-        <v>x6</v>
+        <v>x2</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>93</v>
+        <v>283</v>
       </c>
       <c r="G19" s="7" t="str">
-        <f>CONCATENATE("물폭탄의 공격력이 ",표29_3[[#This Row],[value]],"배 증가합니다.")</f>
-        <v>물폭탄의 공격력이 6배 증가합니다.</v>
+        <f>CONCATENATE("각얼음의 공격력이 ",표29_3[[#This Row],[value]],"배 증가합니다.")</f>
+        <v>각얼음의 공격력이 2배 증가합니다.</v>
       </c>
       <c r="H19" s="2">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="I19" s="5">
         <v>10</v>
       </c>
       <c r="J19" s="5">
-        <v>1613</v>
+        <v>945</v>
       </c>
       <c r="K19" s="2">
         <v>80</v>
@@ -3627,56 +3650,56 @@
       </c>
       <c r="M19" s="1" t="str">
         <f>CONCATENATE("B",표28_2[[#This Row],[id]])</f>
-        <v>BR02_003</v>
+        <v>BR02_002</v>
       </c>
       <c r="N19" s="39"/>
       <c r="O19" s="7" t="str">
         <f>표28_2[[#This Row],[groupid]]</f>
-        <v>BR02_003</v>
+        <v>BR02_002</v>
       </c>
       <c r="P19" s="2" t="s">
-        <v>21</v>
+        <v>281</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>31</v>
       </c>
       <c r="R19" s="35">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="S19" s="7"/>
     </row>
     <row r="20" spans="1:19">
       <c r="A20" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>22</v>
+        <v>277</v>
       </c>
       <c r="C20" s="2">
-        <v>65</v>
+        <v>20</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>81</v>
+        <v>278</v>
       </c>
       <c r="E20" s="2" t="str">
         <f>CONCATENATE("x",표29_3[[#This Row],[value]])</f>
-        <v>x15</v>
+        <v>x7</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>94</v>
+        <v>284</v>
       </c>
       <c r="G20" s="7" t="str">
-        <f>CONCATENATE("물폭탄의 공격력이 ",표29_3[[#This Row],[value]],"배 증가합니다.")</f>
-        <v>물폭탄의 공격력이 15배 증가합니다.</v>
+        <f>CONCATENATE("각얼음의 공격력이 ",표29_3[[#This Row],[value]],"배 증가합니다.")</f>
+        <v>각얼음의 공격력이 7배 증가합니다.</v>
       </c>
       <c r="H20" s="2">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="I20" s="5">
         <v>10</v>
       </c>
       <c r="J20" s="5">
-        <v>1613</v>
+        <v>945</v>
       </c>
       <c r="K20" s="2">
         <v>80</v>
@@ -3686,56 +3709,56 @@
       </c>
       <c r="M20" s="1" t="str">
         <f>CONCATENATE("B",표28_2[[#This Row],[id]])</f>
-        <v>BR02_004</v>
+        <v>BR02_003</v>
       </c>
       <c r="N20" s="39"/>
       <c r="O20" s="7" t="str">
         <f>표28_2[[#This Row],[groupid]]</f>
-        <v>BR02_004</v>
+        <v>BR02_003</v>
       </c>
       <c r="P20" s="2" t="s">
-        <v>21</v>
+        <v>281</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>31</v>
       </c>
       <c r="R20" s="35">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="S20" s="7"/>
     </row>
     <row r="21" spans="1:19">
       <c r="A21" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>24</v>
+        <v>277</v>
       </c>
       <c r="C21" s="2">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>82</v>
+        <v>278</v>
       </c>
       <c r="E21" s="2" t="str">
         <f>CONCATENATE("x",표29_3[[#This Row],[value]])</f>
-        <v>x2</v>
+        <v>x16</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>95</v>
+        <v>285</v>
       </c>
       <c r="G21" s="7" t="str">
-        <f>CONCATENATE("짱돌의 공격력이 ",표29_3[[#This Row],[value]],"배 증가합니다.")</f>
-        <v>짱돌의 공격력이 2배 증가합니다.</v>
+        <f>CONCATENATE("각얼음의 공격력이 ",표29_3[[#This Row],[value]],"배 증가합니다.")</f>
+        <v>각얼음의 공격력이 16배 증가합니다.</v>
       </c>
       <c r="H21" s="2">
-        <v>5</v>
+        <v>65</v>
       </c>
       <c r="I21" s="5">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="J21" s="5">
-        <v>1965</v>
+        <v>945</v>
       </c>
       <c r="K21" s="2">
         <v>80</v>
@@ -3745,56 +3768,56 @@
       </c>
       <c r="M21" s="1" t="str">
         <f>CONCATENATE("B",표28_2[[#This Row],[id]])</f>
-        <v>BR03_001</v>
+        <v>BR02_004</v>
       </c>
       <c r="N21" s="39"/>
       <c r="O21" s="7" t="str">
         <f>표28_2[[#This Row],[groupid]]</f>
-        <v>BR03_001</v>
+        <v>BR02_004</v>
       </c>
       <c r="P21" s="2" t="s">
-        <v>23</v>
+        <v>281</v>
       </c>
       <c r="Q21" s="7" t="s">
         <v>31</v>
       </c>
       <c r="R21" s="35">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="S21" s="7"/>
     </row>
     <row r="22" spans="1:19">
       <c r="A22" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>24</v>
       </c>
       <c r="C22" s="2">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E22" s="2" t="str">
         <f>CONCATENATE("x",표29_3[[#This Row],[value]])</f>
-        <v>x3</v>
+        <v>x2</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="G22" s="7" t="str">
         <f>CONCATENATE("짱돌의 공격력이 ",표29_3[[#This Row],[value]],"배 증가합니다.")</f>
-        <v>짱돌의 공격력이 3배 증가합니다.</v>
+        <v>짱돌의 공격력이 2배 증가합니다.</v>
       </c>
       <c r="H22" s="2">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="I22" s="5">
         <v>35</v>
       </c>
       <c r="J22" s="5">
-        <v>1965</v>
+        <v>1328</v>
       </c>
       <c r="K22" s="2">
         <v>80</v>
@@ -3804,12 +3827,12 @@
       </c>
       <c r="M22" s="1" t="str">
         <f>CONCATENATE("B",표28_2[[#This Row],[id]])</f>
-        <v>BR03_002</v>
+        <v>BR03_001</v>
       </c>
       <c r="N22" s="39"/>
       <c r="O22" s="7" t="str">
         <f>표28_2[[#This Row],[groupid]]</f>
-        <v>BR03_002</v>
+        <v>BR03_001</v>
       </c>
       <c r="P22" s="2" t="s">
         <v>23</v>
@@ -3818,42 +3841,42 @@
         <v>31</v>
       </c>
       <c r="R22" s="35">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S22" s="7"/>
     </row>
     <row r="23" spans="1:19">
       <c r="A23" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>24</v>
       </c>
       <c r="C23" s="2">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E23" s="2" t="str">
         <f>CONCATENATE("x",표29_3[[#This Row],[value]])</f>
-        <v>x12</v>
+        <v>x4</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="G23" s="7" t="str">
         <f>CONCATENATE("짱돌의 공격력이 ",표29_3[[#This Row],[value]],"배 증가합니다.")</f>
-        <v>짱돌의 공격력이 12배 증가합니다.</v>
+        <v>짱돌의 공격력이 4배 증가합니다.</v>
       </c>
       <c r="H23" s="2">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="I23" s="5">
         <v>35</v>
       </c>
       <c r="J23" s="5">
-        <v>1965</v>
+        <v>1328</v>
       </c>
       <c r="K23" s="2">
         <v>80</v>
@@ -3863,12 +3886,12 @@
       </c>
       <c r="M23" s="1" t="str">
         <f>CONCATENATE("B",표28_2[[#This Row],[id]])</f>
-        <v>BR03_003</v>
+        <v>BR03_002</v>
       </c>
       <c r="N23" s="39"/>
       <c r="O23" s="7" t="str">
         <f>표28_2[[#This Row],[groupid]]</f>
-        <v>BR03_003</v>
+        <v>BR03_002</v>
       </c>
       <c r="P23" s="2" t="s">
         <v>23</v>
@@ -3877,42 +3900,42 @@
         <v>31</v>
       </c>
       <c r="R23" s="35">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="S23" s="7"/>
     </row>
     <row r="24" spans="1:19">
       <c r="A24" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C24" s="2">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>80</v>
       </c>
       <c r="E24" s="2" t="str">
         <f>CONCATENATE("x",표29_3[[#This Row],[value]])</f>
-        <v>x2</v>
+        <v>x12</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="G24" s="7" t="str">
-        <f>CONCATENATE("지지직의 공격력이 ",표29_3[[#This Row],[value]],"배 증가합니다.")</f>
-        <v>지지직의 공격력이 2배 증가합니다.</v>
+        <f>CONCATENATE("짱돌의 공격력이 ",표29_3[[#This Row],[value]],"배 증가합니다.")</f>
+        <v>짱돌의 공격력이 12배 증가합니다.</v>
       </c>
       <c r="H24" s="2">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="I24" s="5">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="J24" s="5">
-        <v>2355</v>
+        <v>1328</v>
       </c>
       <c r="K24" s="2">
         <v>80</v>
@@ -3922,56 +3945,56 @@
       </c>
       <c r="M24" s="1" t="str">
         <f>CONCATENATE("B",표28_2[[#This Row],[id]])</f>
-        <v>BR04_001</v>
+        <v>BR03_003</v>
       </c>
       <c r="N24" s="39"/>
       <c r="O24" s="7" t="str">
         <f>표28_2[[#This Row],[groupid]]</f>
-        <v>BR04_001</v>
+        <v>BR03_003</v>
       </c>
       <c r="P24" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="Q24" s="7" t="s">
         <v>31</v>
       </c>
       <c r="R24" s="35">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="S24" s="7"/>
     </row>
     <row r="25" spans="1:19">
       <c r="A25" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>26</v>
       </c>
       <c r="C25" s="2">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E25" s="2" t="str">
         <f>CONCATENATE("x",표29_3[[#This Row],[value]])</f>
-        <v>x6</v>
+        <v>x2</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="G25" s="7" t="str">
         <f>CONCATENATE("지지직의 공격력이 ",표29_3[[#This Row],[value]],"배 증가합니다.")</f>
-        <v>지지직의 공격력이 6배 증가합니다.</v>
+        <v>지지직의 공격력이 2배 증가합니다.</v>
       </c>
       <c r="H25" s="2">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="I25" s="5">
         <v>60</v>
       </c>
       <c r="J25" s="5">
-        <v>2355</v>
+        <v>1755</v>
       </c>
       <c r="K25" s="2">
         <v>80</v>
@@ -3981,12 +4004,12 @@
       </c>
       <c r="M25" s="1" t="str">
         <f>CONCATENATE("B",표28_2[[#This Row],[id]])</f>
-        <v>BR04_002</v>
+        <v>BR04_001</v>
       </c>
       <c r="N25" s="39"/>
       <c r="O25" s="7" t="str">
         <f>표28_2[[#This Row],[groupid]]</f>
-        <v>BR04_002</v>
+        <v>BR04_001</v>
       </c>
       <c r="P25" s="2" t="s">
         <v>25</v>
@@ -3995,120 +4018,122 @@
         <v>31</v>
       </c>
       <c r="R25" s="35">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="S25" s="7"/>
     </row>
     <row r="26" spans="1:19">
       <c r="A26" s="1" t="s">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="C26" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="E26" s="2" t="str">
-        <f>CONCATENATE("-x",표29_3[[#This Row],[value]])</f>
-        <v>-x2</v>
+        <f>CONCATENATE("x",표29_3[[#This Row],[value]])</f>
+        <v>x6</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>213</v>
+        <v>93</v>
+      </c>
+      <c r="G26" s="7" t="str">
+        <f>CONCATENATE("지지직의 공격력이 ",표29_3[[#This Row],[value]],"배 증가합니다.")</f>
+        <v>지지직의 공격력이 6배 증가합니다.</v>
       </c>
       <c r="H26" s="2">
+        <v>30</v>
+      </c>
+      <c r="I26" s="5">
         <v>60</v>
       </c>
-      <c r="I26" s="5">
-        <v>0</v>
-      </c>
       <c r="J26" s="5">
-        <v>2355</v>
+        <v>1755</v>
       </c>
       <c r="K26" s="2">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="L26" s="2">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="M26" s="1" t="str">
         <f>CONCATENATE("B",표28_2[[#This Row],[id]])</f>
-        <v>BR99</v>
+        <v>BR04_002</v>
       </c>
       <c r="N26" s="39"/>
       <c r="O26" s="7" t="str">
         <f>표28_2[[#This Row],[groupid]]</f>
-        <v>BR99</v>
+        <v>BR04_002</v>
       </c>
       <c r="P26" s="2" t="s">
-        <v>115</v>
+        <v>25</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>71</v>
+        <v>31</v>
       </c>
       <c r="R26" s="35">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="S26" s="7"/>
     </row>
     <row r="27" spans="1:19">
       <c r="A27" s="1" t="s">
-        <v>69</v>
+        <v>286</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>0</v>
+        <v>288</v>
       </c>
       <c r="C27" s="2">
         <v>0</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>83</v>
+        <v>287</v>
       </c>
       <c r="E27" s="2" t="str">
-        <f>CONCATENATE("-x",표29_3[[#This Row],[value]])</f>
-        <v>-x2</v>
+        <f>CONCATENATE("x",표29_3[[#This Row],[value]])</f>
+        <v>x2</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>213</v>
+        <v>88</v>
+      </c>
+      <c r="G27" s="7" t="str">
+        <f>CONCATENATE("물폭탄의 공격력이 ",표29_3[[#This Row],[value]],"배 증가합니다.")</f>
+        <v>물폭탄의 공격력이 2배 증가합니다.</v>
       </c>
       <c r="H27" s="2">
+        <v>5</v>
+      </c>
+      <c r="I27" s="5">
+        <v>90</v>
+      </c>
+      <c r="J27" s="5">
+        <v>2235</v>
+      </c>
+      <c r="K27" s="2">
         <v>80</v>
       </c>
-      <c r="I27" s="5">
-        <v>0</v>
-      </c>
-      <c r="J27" s="5">
-        <v>2355</v>
-      </c>
-      <c r="K27" s="2">
-        <v>0</v>
-      </c>
       <c r="L27" s="2">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="M27" s="1" t="str">
         <f>CONCATENATE("B",표28_2[[#This Row],[id]])</f>
-        <v>BR98</v>
+        <v>BR05_001</v>
       </c>
       <c r="N27" s="39"/>
       <c r="O27" s="7" t="str">
         <f>표28_2[[#This Row],[groupid]]</f>
-        <v>BR98</v>
+        <v>BR05_001</v>
       </c>
       <c r="P27" s="2" t="s">
-        <v>115</v>
+        <v>288</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>71</v>
+        <v>31</v>
       </c>
       <c r="R27" s="35">
         <v>2</v>
@@ -4116,103 +4141,183 @@
       <c r="S27" s="7"/>
     </row>
     <row r="28" spans="1:19">
-      <c r="A28" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B28" s="1" t="s">
+      <c r="A28" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B28" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C28" s="2">
-        <v>0</v>
-      </c>
-      <c r="D28" s="24" t="s">
-        <v>83</v>
+        <v>40</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>81</v>
       </c>
       <c r="E28" s="2" t="str">
         <f>CONCATENATE("-x",표29_3[[#This Row],[value]])</f>
         <v>-x2</v>
       </c>
-      <c r="F28" s="1" t="s">
-        <v>102</v>
+      <c r="F28" s="2" t="s">
+        <v>94</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="H28" s="2">
-        <v>100</v>
-      </c>
-      <c r="I28" s="8">
+        <v>205</v>
+      </c>
+      <c r="H28" s="5">
+        <v>60</v>
+      </c>
+      <c r="I28" s="5">
         <v>0</v>
       </c>
       <c r="J28" s="5">
-        <v>2790</v>
-      </c>
-      <c r="K28" s="7">
-        <v>0</v>
-      </c>
-      <c r="L28" s="7">
-        <v>0</v>
-      </c>
-      <c r="M28" s="24" t="str">
+        <v>1328</v>
+      </c>
+      <c r="K28" s="2">
+        <v>0</v>
+      </c>
+      <c r="L28" s="2">
+        <v>0</v>
+      </c>
+      <c r="M28" s="2" t="str">
         <f>CONCATENATE("B",표28_2[[#This Row],[id]])</f>
-        <v>BR97</v>
+        <v>BR99</v>
       </c>
       <c r="N28" s="39"/>
       <c r="O28" s="7" t="str">
         <f>표28_2[[#This Row],[groupid]]</f>
+        <v>BR99</v>
+      </c>
+      <c r="P28" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q28" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="R28" s="35">
+        <v>2</v>
+      </c>
+      <c r="S28" s="7"/>
+    </row>
+    <row r="29" spans="1:19">
+      <c r="A29" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C29" s="2">
+        <v>60</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E29" s="2" t="str">
+        <f>CONCATENATE("-x",표29_3[[#This Row],[value]])</f>
+        <v>-x2</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="H29" s="5">
+        <v>80</v>
+      </c>
+      <c r="I29" s="5">
+        <v>0</v>
+      </c>
+      <c r="J29" s="5">
+        <v>1755</v>
+      </c>
+      <c r="K29" s="2">
+        <v>0</v>
+      </c>
+      <c r="L29" s="2">
+        <v>0</v>
+      </c>
+      <c r="M29" s="2" t="str">
+        <f>CONCATENATE("B",표28_2[[#This Row],[id]])</f>
+        <v>BR98</v>
+      </c>
+      <c r="N29" s="39"/>
+      <c r="O29" s="7" t="str">
+        <f>표28_2[[#This Row],[groupid]]</f>
+        <v>BR98</v>
+      </c>
+      <c r="P29" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q29" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="R29" s="35">
+        <v>2</v>
+      </c>
+      <c r="S29" s="7"/>
+    </row>
+    <row r="30" spans="1:19">
+      <c r="A30" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C30" s="2">
+        <v>80</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="E30" s="7" t="str">
+        <f>CONCATENATE("-x",표29_3[[#This Row],[value]])</f>
+        <v>-x2</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="H30" s="8">
+        <v>100</v>
+      </c>
+      <c r="I30" s="8">
+        <v>0</v>
+      </c>
+      <c r="J30" s="8">
+        <v>2235</v>
+      </c>
+      <c r="K30" s="7">
+        <v>0</v>
+      </c>
+      <c r="L30" s="7">
+        <v>0</v>
+      </c>
+      <c r="M30" s="7" t="str">
+        <f>CONCATENATE("B",표28_2[[#This Row],[id]])</f>
         <v>BR97</v>
       </c>
-      <c r="P28" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="R28" s="36">
+      <c r="N30" s="39"/>
+      <c r="O30" s="7" t="str">
+        <f>표28_2[[#This Row],[groupid]]</f>
+        <v>BR97</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q30" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="R30" s="36">
         <v>2</v>
       </c>
-      <c r="S28" s="7"/>
-    </row>
-    <row r="29" spans="1:19">
-      <c r="A29" s="1"/>
-      <c r="B29" s="1"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="24"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="7"/>
-      <c r="H29" s="2"/>
-      <c r="I29" s="8"/>
-      <c r="J29" s="5"/>
-      <c r="K29" s="7"/>
-      <c r="L29" s="7"/>
-      <c r="M29" s="24"/>
-      <c r="O29" s="7"/>
-      <c r="Q29" s="7"/>
-      <c r="R29" s="36"/>
-      <c r="S29" s="7"/>
-    </row>
-    <row r="30" spans="1:19">
-      <c r="A30" s="1"/>
-      <c r="B30" s="1"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="24"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="24"/>
-      <c r="H30" s="2"/>
-      <c r="I30" s="8"/>
-      <c r="J30" s="5"/>
-      <c r="K30" s="7"/>
-      <c r="L30" s="7"/>
-      <c r="M30" s="24"/>
-      <c r="O30" s="7"/>
-      <c r="Q30" s="7"/>
-      <c r="R30" s="7"/>
       <c r="S30" s="7"/>
     </row>
     <row r="31" spans="1:19">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
+      <c r="C31" s="7"/>
       <c r="D31" s="2"/>
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
@@ -4346,20 +4451,23 @@
       <c r="S38" s="7"/>
     </row>
     <row r="39" spans="1:19">
-      <c r="A39" s="2"/>
-      <c r="B39" s="2"/>
-      <c r="C39" s="2"/>
-      <c r="D39" s="2"/>
-      <c r="F39" s="2"/>
-      <c r="G39" s="2"/>
-      <c r="H39" s="5"/>
-      <c r="I39" s="5"/>
-      <c r="J39" s="5"/>
-      <c r="K39" s="2"/>
-      <c r="L39" s="2"/>
-      <c r="M39" s="2"/>
+      <c r="A39" s="7"/>
+      <c r="B39" s="7"/>
+      <c r="C39" s="7"/>
+      <c r="D39" s="7"/>
+      <c r="E39" s="7"/>
+      <c r="F39" s="7"/>
+      <c r="G39" s="7"/>
+      <c r="H39" s="8"/>
+      <c r="I39" s="8"/>
+      <c r="J39" s="8"/>
+      <c r="K39" s="7"/>
+      <c r="L39" s="7"/>
+      <c r="M39" s="7"/>
       <c r="O39" s="7"/>
+      <c r="P39" s="7"/>
       <c r="Q39" s="7"/>
+      <c r="R39" s="7"/>
       <c r="S39" s="7"/>
     </row>
     <row r="40" spans="1:19">
@@ -4392,29 +4500,22 @@
       <c r="K41" s="2"/>
       <c r="L41" s="2"/>
       <c r="M41" s="2"/>
-      <c r="O41" s="7"/>
       <c r="Q41" s="7"/>
-      <c r="S41" s="7"/>
     </row>
     <row r="42" spans="1:19">
-      <c r="A42" s="7"/>
-      <c r="B42" s="7"/>
-      <c r="C42" s="7"/>
-      <c r="D42" s="7"/>
-      <c r="E42" s="7"/>
-      <c r="F42" s="7"/>
-      <c r="G42" s="7"/>
-      <c r="H42" s="8"/>
-      <c r="I42" s="8"/>
-      <c r="J42" s="8"/>
-      <c r="K42" s="7"/>
-      <c r="L42" s="7"/>
-      <c r="M42" s="7"/>
-      <c r="O42" s="7"/>
-      <c r="P42" s="7"/>
+      <c r="A42" s="2"/>
+      <c r="B42" s="2"/>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="2"/>
+      <c r="H42" s="5"/>
+      <c r="I42" s="5"/>
+      <c r="J42" s="5"/>
+      <c r="K42" s="2"/>
+      <c r="L42" s="2"/>
+      <c r="M42" s="2"/>
       <c r="Q42" s="7"/>
-      <c r="R42" s="7"/>
-      <c r="S42" s="7"/>
     </row>
     <row r="43" spans="1:19">
       <c r="A43" s="2"/>
@@ -4429,9 +4530,7 @@
       <c r="K43" s="2"/>
       <c r="L43" s="2"/>
       <c r="M43" s="2"/>
-      <c r="O43" s="7"/>
       <c r="Q43" s="7"/>
-      <c r="S43" s="7"/>
     </row>
     <row r="44" spans="1:19">
       <c r="A44" s="2"/>
@@ -4536,7 +4635,9 @@
       <c r="K50" s="2"/>
       <c r="L50" s="2"/>
       <c r="M50" s="2"/>
+      <c r="O50" s="7"/>
       <c r="Q50" s="7"/>
+      <c r="S50" s="7"/>
     </row>
     <row r="51" spans="1:19">
       <c r="A51" s="2"/>
@@ -4551,7 +4652,9 @@
       <c r="K51" s="2"/>
       <c r="L51" s="2"/>
       <c r="M51" s="2"/>
+      <c r="O51" s="7"/>
       <c r="Q51" s="7"/>
+      <c r="S51" s="7"/>
     </row>
     <row r="52" spans="1:19">
       <c r="A52" s="2"/>
@@ -4566,7 +4669,9 @@
       <c r="K52" s="2"/>
       <c r="L52" s="2"/>
       <c r="M52" s="2"/>
+      <c r="O52" s="7"/>
       <c r="Q52" s="7"/>
+      <c r="S52" s="7"/>
     </row>
     <row r="53" spans="1:19">
       <c r="A53" s="2"/>
@@ -4649,9 +4754,7 @@
       <c r="K57" s="2"/>
       <c r="L57" s="2"/>
       <c r="M57" s="2"/>
-      <c r="O57" s="7"/>
       <c r="Q57" s="7"/>
-      <c r="S57" s="7"/>
     </row>
     <row r="58" spans="1:19">
       <c r="A58" s="2"/>
@@ -4666,9 +4769,7 @@
       <c r="K58" s="2"/>
       <c r="L58" s="2"/>
       <c r="M58" s="2"/>
-      <c r="O58" s="7"/>
       <c r="Q58" s="7"/>
-      <c r="S58" s="7"/>
     </row>
     <row r="59" spans="1:19">
       <c r="A59" s="2"/>
@@ -4683,9 +4784,7 @@
       <c r="K59" s="2"/>
       <c r="L59" s="2"/>
       <c r="M59" s="2"/>
-      <c r="O59" s="7"/>
       <c r="Q59" s="7"/>
-      <c r="S59" s="7"/>
     </row>
     <row r="60" spans="1:19">
       <c r="A60" s="2"/>
@@ -4700,7 +4799,9 @@
       <c r="K60" s="2"/>
       <c r="L60" s="2"/>
       <c r="M60" s="2"/>
+      <c r="O60" s="7"/>
       <c r="Q60" s="7"/>
+      <c r="S60" s="7"/>
     </row>
     <row r="61" spans="1:19">
       <c r="A61" s="2"/>
@@ -4715,7 +4816,9 @@
       <c r="K61" s="2"/>
       <c r="L61" s="2"/>
       <c r="M61" s="2"/>
+      <c r="O61" s="7"/>
       <c r="Q61" s="7"/>
+      <c r="S61" s="7"/>
     </row>
     <row r="62" spans="1:19">
       <c r="A62" s="2"/>
@@ -4730,7 +4833,9 @@
       <c r="K62" s="2"/>
       <c r="L62" s="2"/>
       <c r="M62" s="2"/>
+      <c r="O62" s="7"/>
       <c r="Q62" s="7"/>
+      <c r="S62" s="7"/>
     </row>
     <row r="63" spans="1:19">
       <c r="A63" s="2"/>
@@ -5175,75 +5280,24 @@
       <c r="S88" s="7"/>
     </row>
     <row r="89" spans="1:19">
-      <c r="A89" s="2"/>
-      <c r="B89" s="2"/>
-      <c r="C89" s="2"/>
-      <c r="D89" s="2"/>
-      <c r="F89" s="2"/>
-      <c r="G89" s="2"/>
-      <c r="H89" s="5"/>
-      <c r="I89" s="5"/>
-      <c r="J89" s="5"/>
-      <c r="K89" s="2"/>
-      <c r="L89" s="2"/>
-      <c r="M89" s="2"/>
+      <c r="A89" s="7"/>
+      <c r="B89" s="7"/>
+      <c r="C89" s="7"/>
+      <c r="D89" s="7"/>
+      <c r="E89" s="7"/>
+      <c r="F89" s="7"/>
+      <c r="G89" s="7"/>
+      <c r="H89" s="8"/>
+      <c r="I89" s="8"/>
+      <c r="J89" s="8"/>
+      <c r="K89" s="7"/>
+      <c r="L89" s="7"/>
+      <c r="M89" s="7"/>
       <c r="O89" s="7"/>
+      <c r="P89" s="7"/>
       <c r="Q89" s="7"/>
+      <c r="R89" s="7"/>
       <c r="S89" s="7"/>
-    </row>
-    <row r="90" spans="1:19">
-      <c r="A90" s="2"/>
-      <c r="B90" s="2"/>
-      <c r="C90" s="2"/>
-      <c r="D90" s="2"/>
-      <c r="F90" s="2"/>
-      <c r="G90" s="2"/>
-      <c r="H90" s="5"/>
-      <c r="I90" s="5"/>
-      <c r="J90" s="5"/>
-      <c r="K90" s="2"/>
-      <c r="L90" s="2"/>
-      <c r="M90" s="2"/>
-      <c r="O90" s="7"/>
-      <c r="Q90" s="7"/>
-      <c r="S90" s="7"/>
-    </row>
-    <row r="91" spans="1:19">
-      <c r="A91" s="2"/>
-      <c r="B91" s="2"/>
-      <c r="C91" s="2"/>
-      <c r="D91" s="2"/>
-      <c r="F91" s="2"/>
-      <c r="G91" s="2"/>
-      <c r="H91" s="5"/>
-      <c r="I91" s="5"/>
-      <c r="J91" s="5"/>
-      <c r="K91" s="2"/>
-      <c r="L91" s="2"/>
-      <c r="M91" s="2"/>
-      <c r="O91" s="7"/>
-      <c r="Q91" s="7"/>
-      <c r="S91" s="7"/>
-    </row>
-    <row r="92" spans="1:19">
-      <c r="A92" s="7"/>
-      <c r="B92" s="7"/>
-      <c r="C92" s="7"/>
-      <c r="D92" s="7"/>
-      <c r="E92" s="7"/>
-      <c r="F92" s="7"/>
-      <c r="G92" s="7"/>
-      <c r="H92" s="8"/>
-      <c r="I92" s="8"/>
-      <c r="J92" s="8"/>
-      <c r="K92" s="7"/>
-      <c r="L92" s="7"/>
-      <c r="M92" s="7"/>
-      <c r="O92" s="7"/>
-      <c r="P92" s="7"/>
-      <c r="Q92" s="7"/>
-      <c r="R92" s="7"/>
-      <c r="S92" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -5260,8 +5314,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -5284,7 +5338,7 @@
         <v>10</v>
       </c>
       <c r="C1" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="D1" t="s">
         <v>29</v>
@@ -5293,16 +5347,16 @@
         <v>30</v>
       </c>
       <c r="F1" s="40" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="G1" s="39" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="H1" s="39" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="I1" s="39" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="17.25" thickTop="1">
@@ -5310,16 +5364,16 @@
         <v>19</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="C2">
         <v>10000</v>
       </c>
-      <c r="D2" s="38">
-        <v>10</v>
-      </c>
-      <c r="E2" s="38">
-        <v>10</v>
+      <c r="D2" s="41">
+        <v>1</v>
+      </c>
+      <c r="E2" s="41">
+        <v>120</v>
       </c>
       <c r="F2" s="1" t="str">
         <f>CONCATENATE("prefabs/Projectile/",표30[[#This Row],[id]])</f>
@@ -5338,19 +5392,19 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="C3" s="39">
         <v>10000</v>
       </c>
-      <c r="D3" s="41">
-        <v>10</v>
-      </c>
-      <c r="E3" s="41">
-        <v>10</v>
+      <c r="D3" s="38">
+        <v>8.6</v>
+      </c>
+      <c r="E3" s="38">
+        <v>1512.0000000000016</v>
       </c>
       <c r="F3" s="1" t="str">
         <f>CONCATENATE("prefabs/Projectile/",표30[[#This Row],[id]])</f>
@@ -5372,16 +5426,16 @@
         <v>23</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="C4" s="39">
         <v>10000</v>
       </c>
       <c r="D4" s="38">
-        <v>10</v>
+        <v>150.40000000000038</v>
       </c>
       <c r="E4" s="38">
-        <v>10</v>
+        <v>33984</v>
       </c>
       <c r="F4" s="1" t="str">
         <f>CONCATENATE("prefabs/Projectile/",표30[[#This Row],[id]])</f>
@@ -5403,16 +5457,16 @@
         <v>25</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="C5" s="39">
         <v>10000</v>
       </c>
       <c r="D5" s="38">
-        <v>10</v>
+        <v>5324.8</v>
       </c>
       <c r="E5" s="38">
-        <v>10</v>
+        <v>1437696</v>
       </c>
       <c r="F5" s="1" t="str">
         <f>CONCATENATE("prefabs/Projectile/",표30[[#This Row],[id]])</f>
@@ -5434,16 +5488,16 @@
         <v>21</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="C6" s="39">
         <v>10000</v>
       </c>
       <c r="D6" s="38">
-        <v>10</v>
+        <v>380108.79999999999</v>
       </c>
       <c r="E6" s="38">
-        <v>10</v>
+        <v>117178368</v>
       </c>
       <c r="F6" s="1" t="str">
         <f>CONCATENATE("prefabs/Projectile/",표30[[#This Row],[id]])</f>
@@ -5462,10 +5516,10 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="C7" s="39">
         <v>10000</v>
@@ -5493,10 +5547,10 @@
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="C8" s="39">
         <v>10000</v>
@@ -5524,10 +5578,10 @@
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="C9" s="39">
         <v>10000</v>
@@ -5555,10 +5609,10 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="C10" s="39">
         <v>10000</v>
@@ -5709,273 +5763,273 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="27" t="s">
+        <v>124</v>
+      </c>
+      <c r="B1" s="27" t="s">
+        <v>125</v>
+      </c>
+      <c r="C1" s="28" t="s">
+        <v>126</v>
+      </c>
+      <c r="D1" s="27" t="s">
+        <v>121</v>
+      </c>
+      <c r="E1" s="27" t="s">
+        <v>127</v>
+      </c>
+      <c r="F1" s="27" t="s">
+        <v>128</v>
+      </c>
+      <c r="G1" s="27" t="s">
+        <v>129</v>
+      </c>
+      <c r="H1" s="27" t="s">
         <v>130</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="I1" s="27" t="s">
+        <v>122</v>
+      </c>
+      <c r="J1" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="K1" s="27" t="s">
         <v>131</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="L1" s="27" t="s">
         <v>132</v>
       </c>
-      <c r="D1" s="27" t="s">
-        <v>127</v>
-      </c>
-      <c r="E1" s="27" t="s">
+      <c r="M1" s="27" t="s">
         <v>133</v>
       </c>
-      <c r="F1" s="27" t="s">
+      <c r="N1" s="27" t="s">
         <v>134</v>
-      </c>
-      <c r="G1" s="27" t="s">
-        <v>135</v>
-      </c>
-      <c r="H1" s="27" t="s">
-        <v>136</v>
-      </c>
-      <c r="I1" s="27" t="s">
-        <v>128</v>
-      </c>
-      <c r="J1" s="29" t="s">
-        <v>129</v>
-      </c>
-      <c r="K1" s="27" t="s">
-        <v>137</v>
-      </c>
-      <c r="L1" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="M1" s="27" t="s">
-        <v>139</v>
-      </c>
-      <c r="N1" s="27" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="1" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="B2" s="27" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="C2" s="29" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="D2" s="32">
         <v>5</v>
       </c>
       <c r="E2" s="27" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="I2" s="33">
         <v>100</v>
       </c>
       <c r="J2" s="33"/>
       <c r="K2" s="27" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="L2" s="30" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="M2" s="32">
         <v>6</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="O2" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="P2" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="27" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="B3" s="27" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C3" s="29" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="D3" s="32">
         <v>5</v>
       </c>
       <c r="E3" s="27" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="F3" s="27" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="G3" s="27" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="I3" s="33">
         <v>100</v>
       </c>
       <c r="J3" s="33"/>
       <c r="K3" s="27" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L3" s="27" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="M3" s="32">
         <v>6</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="O3" s="39" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="P3" s="39" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="Q3" s="39"/>
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="27" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="B4" s="27" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C4" s="29" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="D4" s="32">
         <v>5</v>
       </c>
       <c r="E4" s="27" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="F4" s="27" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="G4" s="27" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="I4" s="33">
         <v>100</v>
       </c>
       <c r="J4" s="33"/>
       <c r="K4" s="27" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L4" s="27" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="M4" s="32">
         <v>3</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="O4" s="39" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="P4" s="39" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="Q4" s="39"/>
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="27" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="B5" s="27" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C5" s="29" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="D5" s="32">
         <v>5</v>
       </c>
       <c r="E5" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="F5" s="27" t="s">
+        <v>143</v>
+      </c>
+      <c r="G5" s="27" t="s">
         <v>144</v>
       </c>
-      <c r="F5" s="27" t="s">
-        <v>149</v>
-      </c>
-      <c r="G5" s="27" t="s">
-        <v>150</v>
-      </c>
       <c r="H5" s="1" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="I5" s="33">
         <v>100</v>
       </c>
       <c r="J5" s="33"/>
       <c r="K5" s="27" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L5" s="27" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="M5" s="32">
         <v>30</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="O5" s="39" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="P5" s="39" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="Q5" s="39"/>
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="27" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="B6" s="27" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C6" s="29" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="D6" s="32"/>
       <c r="E6" s="27" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="F6" s="27"/>
       <c r="G6" s="27" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="H6" s="27" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="I6" s="33"/>
       <c r="J6" s="33">
         <v>10</v>
       </c>
       <c r="K6" s="27" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L6" s="27" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="M6" s="32"/>
       <c r="N6" s="27"/>
@@ -5985,75 +6039,75 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="27" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C7" s="29" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="D7" s="32">
         <v>5</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="F7" s="27" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="I7" s="33">
         <v>100</v>
       </c>
       <c r="J7" s="33"/>
       <c r="K7" s="1" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="L7" s="30" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="M7" s="32">
         <v>6</v>
       </c>
       <c r="N7" s="27"/>
       <c r="O7" s="39" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="P7" s="39" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="Q7" s="39"/>
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="1" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="B8" s="27" t="s">
         <v>20</v>
       </c>
       <c r="C8" s="29" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="D8" s="32">
         <v>5</v>
       </c>
       <c r="E8" s="27" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="G8" s="27" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="I8" s="33">
         <v>100</v>
@@ -6063,44 +6117,44 @@
         <v>19</v>
       </c>
       <c r="L8" s="30" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="M8" s="32">
         <v>20</v>
       </c>
       <c r="N8" s="27"/>
       <c r="O8" s="39" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="P8" s="39" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="Q8" s="39"/>
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="27" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="B9" s="30" t="s">
         <v>22</v>
       </c>
       <c r="C9" s="29" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="D9" s="32">
         <v>5</v>
       </c>
       <c r="E9" s="27" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="G9" s="27" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="I9" s="34">
         <v>100</v>
@@ -6110,44 +6164,44 @@
         <v>21</v>
       </c>
       <c r="L9" s="30" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="M9" s="32">
         <v>20</v>
       </c>
       <c r="N9" s="30"/>
       <c r="O9" s="39" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="P9" s="39" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="Q9" s="39"/>
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="1" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="B10" s="30" t="s">
         <v>24</v>
       </c>
       <c r="C10" s="29" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="D10" s="32">
         <v>5</v>
       </c>
       <c r="E10" s="27" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="G10" s="27" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="I10" s="34">
         <v>100</v>
@@ -6157,44 +6211,44 @@
         <v>23</v>
       </c>
       <c r="L10" s="30" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="M10" s="32">
         <v>20</v>
       </c>
       <c r="N10" s="30"/>
       <c r="O10" s="39" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="P10" s="39" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="Q10" s="39"/>
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="27" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="B11" s="30" t="s">
         <v>26</v>
       </c>
       <c r="C11" s="29" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="D11" s="32">
         <v>5</v>
       </c>
       <c r="E11" s="27" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="G11" s="27" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="I11" s="34">
         <v>100</v>
@@ -6204,44 +6258,44 @@
         <v>25</v>
       </c>
       <c r="L11" s="30" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="M11" s="32">
         <v>20</v>
       </c>
       <c r="N11" s="30"/>
       <c r="O11" s="39" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="P11" s="39" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="Q11" s="39"/>
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="1" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="B12" s="30" t="s">
         <v>27</v>
       </c>
       <c r="C12" s="29" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="D12" s="32">
         <v>5</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="G12" s="27" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="I12" s="34">
         <v>100</v>
@@ -6251,50 +6305,50 @@
         <v>27</v>
       </c>
       <c r="L12" s="30" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="M12" s="32">
         <v>20</v>
       </c>
       <c r="N12" s="30"/>
       <c r="O12" s="39" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="P12" s="39" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="Q12" s="39"/>
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="27" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="B13" s="27" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C13" s="29" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="D13" s="32"/>
       <c r="E13" s="27" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="F13" s="27"/>
       <c r="G13" s="27" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="H13" s="27" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="I13" s="33"/>
       <c r="J13" s="33">
         <v>10</v>
       </c>
       <c r="K13" s="27" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="L13" s="27" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="M13" s="36"/>
       <c r="N13" s="30"/>
@@ -6304,214 +6358,214 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="1" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="B14" s="30" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="C14" s="31" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="D14" s="32">
         <v>5</v>
       </c>
       <c r="E14" s="27" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="F14" s="27" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="G14" s="30" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="H14" s="30" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="I14" s="34">
         <v>100</v>
       </c>
       <c r="J14" s="33"/>
       <c r="K14" s="27" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="L14" s="30" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="M14" s="32">
         <v>2</v>
       </c>
       <c r="N14" s="27"/>
       <c r="O14" s="39" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="P14" s="39" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="Q14" s="39"/>
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="27" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="B15" s="30" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="C15" s="31" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="D15" s="32">
         <v>5</v>
       </c>
       <c r="E15" s="27" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="F15" s="27" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="G15" s="27" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="I15" s="34">
         <v>100</v>
       </c>
       <c r="J15" s="33"/>
       <c r="K15" s="27" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="L15" s="30" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="M15" s="32">
         <v>2</v>
       </c>
       <c r="N15" s="27"/>
       <c r="O15" s="39" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="P15" s="39" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="Q15" s="39"/>
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="1" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="B16" s="27" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="C16" s="31" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="D16" s="32"/>
       <c r="E16" s="27" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="F16" s="27"/>
       <c r="G16" s="27" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="H16" s="27" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="I16" s="34">
         <v>100</v>
       </c>
       <c r="J16" s="33"/>
       <c r="K16" s="27" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="L16" s="30" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="M16" s="32">
         <v>1</v>
       </c>
       <c r="N16" s="30"/>
       <c r="O16" s="39" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="P16" s="39" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="Q16" s="39"/>
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="27" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="B17" s="27" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="C17" s="31" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="D17" s="32"/>
       <c r="E17" s="27" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="F17" s="27"/>
       <c r="G17" s="27" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="I17" s="34">
         <v>100</v>
       </c>
       <c r="J17" s="33"/>
       <c r="K17" s="27" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="L17" s="30" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="M17" s="32">
         <v>1000</v>
       </c>
       <c r="N17" s="27"/>
       <c r="O17" s="39" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="P17" s="39" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="Q17" s="39"/>
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="1" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="B18" s="27" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="C18" s="29" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="D18" s="32"/>
       <c r="E18" s="27" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="F18" s="27"/>
       <c r="G18" s="27" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="I18" s="33"/>
       <c r="J18" s="33">
         <v>10</v>
       </c>
       <c r="K18" s="27" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="L18" s="30" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="M18" s="32">
         <v>1</v>
@@ -32434,84 +32488,84 @@
   <dimension ref="A3:S23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6:F15"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData>
     <row r="3" spans="1:19">
       <c r="D3" s="39" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
     </row>
     <row r="4" spans="1:19">
       <c r="A4" s="39" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="B4" s="39" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="J4" s="39" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="K4" s="39" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="L4" s="39" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="M4" s="39" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="N4" s="39" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="O4" s="39" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="P4" s="51" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
     </row>
     <row r="5" spans="1:19">
       <c r="A5" s="39" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="B5" s="39" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="D5" s="39" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="E5" s="39" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="F5" s="39" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="G5" s="39" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="H5" s="39" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="I5" s="39" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="J5" s="39" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="K5" s="39" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="M5" s="39" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="N5" s="39" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="O5" s="39" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -32519,7 +32573,7 @@
         <v>4</v>
       </c>
       <c r="C6" s="56" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -32534,44 +32588,44 @@
         <v>6.75</v>
       </c>
       <c r="H6" s="55">
-        <f>F6*D6</f>
+        <f t="shared" ref="H6:H15" si="0">F6*D6</f>
         <v>0.12</v>
       </c>
       <c r="I6" s="55">
-        <f>G6*E6</f>
+        <f t="shared" ref="I6:I15" si="1">G6*E6</f>
         <v>6.75</v>
       </c>
       <c r="J6" s="42">
-        <f>(1-H6)</f>
+        <f t="shared" ref="J6:J15" si="2">(1-H6)</f>
         <v>0.88</v>
       </c>
       <c r="K6" s="42">
         <v>1</v>
       </c>
       <c r="L6" s="52">
-        <f>J6*K6</f>
+        <f t="shared" ref="L6:L15" si="3">J6*K6</f>
         <v>0.88</v>
       </c>
       <c r="M6" s="42">
-        <f>H6</f>
+        <f t="shared" ref="M6:M15" si="4">H6</f>
         <v>0.12</v>
       </c>
       <c r="N6" s="42">
-        <f>I6</f>
+        <f t="shared" ref="N6:N15" si="5">I6</f>
         <v>6.75</v>
       </c>
       <c r="O6" s="53">
-        <f>M6*N6</f>
+        <f t="shared" ref="O6:O15" si="6">M6*N6</f>
         <v>0.80999999999999994</v>
       </c>
       <c r="P6" s="54">
-        <f>L6+O6</f>
+        <f t="shared" ref="P6:P15" si="7">L6+O6</f>
         <v>1.69</v>
       </c>
     </row>
     <row r="7" spans="1:19">
       <c r="C7" s="56" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="D7">
         <f>D6</f>
@@ -32588,51 +32642,51 @@
         <v>8</v>
       </c>
       <c r="H7" s="55">
-        <f>F7*D7</f>
+        <f t="shared" si="0"/>
         <v>0.1</v>
       </c>
       <c r="I7" s="55">
-        <f>G7*E7</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="J7" s="42">
-        <f>(1-H7)</f>
+        <f t="shared" si="2"/>
         <v>0.9</v>
       </c>
       <c r="K7" s="42">
         <v>1</v>
       </c>
       <c r="L7" s="52">
-        <f>J7*K7</f>
+        <f t="shared" si="3"/>
         <v>0.9</v>
       </c>
       <c r="M7" s="42">
-        <f>H7</f>
+        <f t="shared" si="4"/>
         <v>0.1</v>
       </c>
       <c r="N7" s="42">
-        <f>I7</f>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
       <c r="O7" s="53">
-        <f>M7*N7</f>
+        <f t="shared" si="6"/>
         <v>0.8</v>
       </c>
       <c r="P7" s="54">
-        <f>L7+O7</f>
+        <f t="shared" si="7"/>
         <v>1.7000000000000002</v>
       </c>
     </row>
     <row r="8" spans="1:19">
       <c r="C8" s="56" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="D8" s="39">
-        <f t="shared" ref="D8:D15" si="0">D7</f>
+        <f t="shared" ref="D8:D15" si="8">D7</f>
         <v>1</v>
       </c>
       <c r="E8" s="39">
-        <f t="shared" ref="E8:E15" si="1">E7</f>
+        <f t="shared" ref="E8:E15" si="9">E7</f>
         <v>1</v>
       </c>
       <c r="F8" s="58">
@@ -32642,51 +32696,51 @@
         <v>15.5</v>
       </c>
       <c r="H8" s="55">
-        <f>F8*D8</f>
+        <f t="shared" si="0"/>
         <v>0.05</v>
       </c>
       <c r="I8" s="55">
-        <f>G8*E8</f>
+        <f t="shared" si="1"/>
         <v>15.5</v>
       </c>
       <c r="J8" s="42">
-        <f>(1-H8)</f>
+        <f t="shared" si="2"/>
         <v>0.95</v>
       </c>
       <c r="K8" s="42">
         <v>1</v>
       </c>
       <c r="L8" s="52">
-        <f>J8*K8</f>
+        <f t="shared" si="3"/>
         <v>0.95</v>
       </c>
       <c r="M8" s="42">
-        <f>H8</f>
+        <f t="shared" si="4"/>
         <v>0.05</v>
       </c>
       <c r="N8" s="42">
-        <f>I8</f>
+        <f t="shared" si="5"/>
         <v>15.5</v>
       </c>
       <c r="O8" s="53">
-        <f>M8*N8</f>
+        <f t="shared" si="6"/>
         <v>0.77500000000000002</v>
       </c>
       <c r="P8" s="54">
-        <f>L8+O8</f>
+        <f t="shared" si="7"/>
         <v>1.7250000000000001</v>
       </c>
     </row>
     <row r="9" spans="1:19">
       <c r="C9" s="56" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="D9" s="39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="E9" s="39">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="F9" s="58">
@@ -32696,51 +32750,51 @@
         <v>10.5</v>
       </c>
       <c r="H9" s="55">
-        <f>F9*D9</f>
+        <f t="shared" si="0"/>
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="I9" s="55">
-        <f>G9*E9</f>
+        <f t="shared" si="1"/>
         <v>10.5</v>
       </c>
       <c r="J9" s="42">
-        <f>(1-H9)</f>
+        <f t="shared" si="2"/>
         <v>0.92500000000000004</v>
       </c>
       <c r="K9" s="42">
         <v>1</v>
       </c>
       <c r="L9" s="52">
-        <f>J9*K9</f>
+        <f t="shared" si="3"/>
         <v>0.92500000000000004</v>
       </c>
       <c r="M9" s="42">
-        <f>H9</f>
+        <f t="shared" si="4"/>
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="N9" s="42">
-        <f>I9</f>
+        <f t="shared" si="5"/>
         <v>10.5</v>
       </c>
       <c r="O9" s="53">
-        <f>M9*N9</f>
+        <f t="shared" si="6"/>
         <v>0.78749999999999998</v>
       </c>
       <c r="P9" s="54">
-        <f>L9+O9</f>
+        <f t="shared" si="7"/>
         <v>1.7124999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:19">
       <c r="C10" s="56" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="D10" s="39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="E10" s="39">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="F10" s="58">
@@ -32750,51 +32804,51 @@
         <v>5.5</v>
       </c>
       <c r="H10" s="55">
-        <f>F10*D10</f>
+        <f t="shared" si="0"/>
         <v>0.15</v>
       </c>
       <c r="I10" s="55">
-        <f>G10*E10</f>
+        <f t="shared" si="1"/>
         <v>5.5</v>
       </c>
       <c r="J10" s="42">
-        <f>(1-H10)</f>
+        <f t="shared" si="2"/>
         <v>0.85</v>
       </c>
       <c r="K10" s="42">
         <v>1</v>
       </c>
       <c r="L10" s="52">
-        <f>J10*K10</f>
+        <f t="shared" si="3"/>
         <v>0.85</v>
       </c>
       <c r="M10" s="42">
-        <f>H10</f>
+        <f t="shared" si="4"/>
         <v>0.15</v>
       </c>
       <c r="N10" s="42">
-        <f>I10</f>
+        <f t="shared" si="5"/>
         <v>5.5</v>
       </c>
       <c r="O10" s="53">
-        <f>M10*N10</f>
+        <f t="shared" si="6"/>
         <v>0.82499999999999996</v>
       </c>
       <c r="P10" s="54">
-        <f>L10+O10</f>
+        <f t="shared" si="7"/>
         <v>1.6749999999999998</v>
       </c>
     </row>
     <row r="11" spans="1:19">
       <c r="C11" s="56" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="D11" s="39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="E11" s="39">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="F11" s="58">
@@ -32804,51 +32858,51 @@
         <v>25.5</v>
       </c>
       <c r="H11" s="55">
-        <f>F11*D11</f>
+        <f t="shared" si="0"/>
         <v>0.03</v>
       </c>
       <c r="I11" s="55">
-        <f>G11*E11</f>
+        <f t="shared" si="1"/>
         <v>25.5</v>
       </c>
       <c r="J11" s="42">
-        <f>(1-H11)</f>
+        <f t="shared" si="2"/>
         <v>0.97</v>
       </c>
       <c r="K11" s="42">
         <v>1</v>
       </c>
       <c r="L11" s="52">
-        <f>J11*K11</f>
+        <f t="shared" si="3"/>
         <v>0.97</v>
       </c>
       <c r="M11" s="42">
-        <f>H11</f>
+        <f t="shared" si="4"/>
         <v>0.03</v>
       </c>
       <c r="N11" s="42">
-        <f>I11</f>
+        <f t="shared" si="5"/>
         <v>25.5</v>
       </c>
       <c r="O11" s="53">
-        <f>M11*N11</f>
+        <f t="shared" si="6"/>
         <v>0.76500000000000001</v>
       </c>
       <c r="P11" s="54">
-        <f>L11+O11</f>
+        <f t="shared" si="7"/>
         <v>1.7349999999999999</v>
       </c>
     </row>
     <row r="12" spans="1:19">
       <c r="C12" s="56" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="D12" s="39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="E12" s="39">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="F12" s="58">
@@ -32858,51 +32912,51 @@
         <v>15.5</v>
       </c>
       <c r="H12" s="55">
-        <f>F12*D12</f>
+        <f t="shared" si="0"/>
         <v>0.05</v>
       </c>
       <c r="I12" s="55">
-        <f>G12*E12</f>
+        <f t="shared" si="1"/>
         <v>15.5</v>
       </c>
       <c r="J12" s="42">
-        <f>(1-H12)</f>
+        <f t="shared" si="2"/>
         <v>0.95</v>
       </c>
       <c r="K12" s="42">
         <v>1</v>
       </c>
       <c r="L12" s="52">
-        <f>J12*K12</f>
+        <f t="shared" si="3"/>
         <v>0.95</v>
       </c>
       <c r="M12" s="42">
-        <f>H12</f>
+        <f t="shared" si="4"/>
         <v>0.05</v>
       </c>
       <c r="N12" s="42">
-        <f>I12</f>
+        <f t="shared" si="5"/>
         <v>15.5</v>
       </c>
       <c r="O12" s="53">
-        <f>M12*N12</f>
+        <f t="shared" si="6"/>
         <v>0.77500000000000002</v>
       </c>
       <c r="P12" s="54">
-        <f>L12+O12</f>
+        <f t="shared" si="7"/>
         <v>1.7250000000000001</v>
       </c>
     </row>
     <row r="13" spans="1:19">
       <c r="C13" s="56" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="D13" s="39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="E13" s="39">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="F13" s="58">
@@ -32912,60 +32966,60 @@
         <v>13</v>
       </c>
       <c r="H13" s="55">
-        <f>F13*D13</f>
+        <f t="shared" si="0"/>
         <v>0.06</v>
       </c>
       <c r="I13" s="55">
-        <f>G13*E13</f>
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
       <c r="J13" s="42">
-        <f>(1-H13)</f>
+        <f t="shared" si="2"/>
         <v>0.94</v>
       </c>
       <c r="K13" s="42">
         <v>1</v>
       </c>
       <c r="L13" s="52">
-        <f>J13*K13</f>
+        <f t="shared" si="3"/>
         <v>0.94</v>
       </c>
       <c r="M13" s="42">
-        <f>H13</f>
+        <f t="shared" si="4"/>
         <v>0.06</v>
       </c>
       <c r="N13" s="42">
-        <f>I13</f>
+        <f t="shared" si="5"/>
         <v>13</v>
       </c>
       <c r="O13" s="53">
-        <f>M13*N13</f>
+        <f t="shared" si="6"/>
         <v>0.78</v>
       </c>
       <c r="P13" s="54">
-        <f>L13+O13</f>
+        <f t="shared" si="7"/>
         <v>1.72</v>
       </c>
       <c r="Q13" s="39" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="R13" s="39" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="S13" s="39" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
     </row>
     <row r="14" spans="1:19">
       <c r="C14" s="56" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="D14" s="39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="E14" s="39">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="F14" s="58">
@@ -32975,51 +33029,51 @@
         <v>25.5</v>
       </c>
       <c r="H14" s="55">
-        <f>F14*D14</f>
+        <f t="shared" si="0"/>
         <v>0.03</v>
       </c>
       <c r="I14" s="55">
-        <f>G14*E14</f>
+        <f t="shared" si="1"/>
         <v>25.5</v>
       </c>
       <c r="J14" s="42">
-        <f>(1-H14)</f>
+        <f t="shared" si="2"/>
         <v>0.97</v>
       </c>
       <c r="K14" s="42">
         <v>1</v>
       </c>
       <c r="L14" s="52">
-        <f>J14*K14</f>
+        <f t="shared" si="3"/>
         <v>0.97</v>
       </c>
       <c r="M14" s="42">
-        <f>H14</f>
+        <f t="shared" si="4"/>
         <v>0.03</v>
       </c>
       <c r="N14" s="42">
-        <f>I14</f>
+        <f t="shared" si="5"/>
         <v>25.5</v>
       </c>
       <c r="O14" s="53">
-        <f>M14*N14</f>
+        <f t="shared" si="6"/>
         <v>0.76500000000000001</v>
       </c>
       <c r="P14" s="54">
-        <f>L14+O14</f>
+        <f t="shared" si="7"/>
         <v>1.7349999999999999</v>
       </c>
     </row>
     <row r="15" spans="1:19">
       <c r="C15" s="57" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="D15" s="39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="E15" s="39">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="F15" s="58">
@@ -33029,53 +33083,53 @@
         <v>4.25</v>
       </c>
       <c r="H15" s="55">
-        <f>F15*D15</f>
+        <f t="shared" si="0"/>
         <v>0.2</v>
       </c>
       <c r="I15" s="55">
-        <f>G15*E15</f>
+        <f t="shared" si="1"/>
         <v>4.25</v>
       </c>
       <c r="J15" s="42">
-        <f>(1-H15)</f>
+        <f t="shared" si="2"/>
         <v>0.8</v>
       </c>
       <c r="K15" s="42">
         <v>1</v>
       </c>
       <c r="L15" s="52">
-        <f>J15*K15</f>
+        <f t="shared" si="3"/>
         <v>0.8</v>
       </c>
       <c r="M15" s="42">
-        <f>H15</f>
+        <f t="shared" si="4"/>
         <v>0.2</v>
       </c>
       <c r="N15" s="42">
-        <f>I15</f>
+        <f t="shared" si="5"/>
         <v>4.25</v>
       </c>
       <c r="O15" s="53">
-        <f>M15*N15</f>
+        <f t="shared" si="6"/>
         <v>0.85000000000000009</v>
       </c>
       <c r="P15" s="54">
-        <f>L15+O15</f>
+        <f t="shared" si="7"/>
         <v>1.6500000000000001</v>
       </c>
       <c r="R15" s="39" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="S15" s="39" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
     </row>
     <row r="16" spans="1:19">
       <c r="R16" s="39" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="S16" s="39" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
     </row>
     <row r="18" spans="3:9">
@@ -33091,13 +33145,13 @@
     </row>
     <row r="19" spans="3:9">
       <c r="C19" s="39" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="D19" s="39" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="E19" s="39" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="G19" s="42">
         <v>0.1</v>
@@ -33105,7 +33159,7 @@
     </row>
     <row r="20" spans="3:9">
       <c r="C20" s="39" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="D20" s="42">
         <v>3</v>
@@ -33116,18 +33170,18 @@
     </row>
     <row r="22" spans="3:9">
       <c r="D22" s="39" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="E22" s="39" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
     </row>
     <row r="23" spans="3:9">
       <c r="D23" s="39" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="E23" s="39" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
     </row>
   </sheetData>

--- a/Doc/XmlDataDocument_170316.xlsx
+++ b/Doc/XmlDataDocument_170316.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="15300" yWindow="45" windowWidth="12300" windowHeight="13020" activeTab="1"/>
+    <workbookView xWindow="15300" yWindow="45" windowWidth="12300" windowHeight="13020" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Research" sheetId="5" r:id="rId1"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="295">
   <si>
     <t>hero</t>
   </si>
@@ -1126,6 +1126,54 @@
   <si>
     <t>baseskillratexk</t>
   </si>
+  <si>
+    <t>100%기준뎀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬합계</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전체데미지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>배율</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬쪽배율</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>400%최대</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>증가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공속+200%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>증뎀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>증뎀+200%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬확률+400%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬증뎀+400%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -1135,7 +1183,7 @@
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
     <numFmt numFmtId="177" formatCode="0.00_ "/>
     <numFmt numFmtId="178" formatCode="0.000_ "/>
-    <numFmt numFmtId="185" formatCode="0.0%"/>
+    <numFmt numFmtId="179" formatCode="0.0%"/>
   </numFmts>
   <fonts count="8">
     <font>
@@ -1594,7 +1642,7 @@
     <xf numFmtId="0" fontId="7" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="185" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
@@ -5260,7 +5308,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
@@ -32431,703 +32479,1609 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A3:S23"/>
+  <dimension ref="C7:W44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6:F15"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData>
-    <row r="3" spans="1:19">
-      <c r="D3" s="39" t="s">
+    <row r="7" spans="3:19">
+      <c r="G7" s="39" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="4" spans="1:19">
-      <c r="A4" s="39" t="s">
+    <row r="8" spans="3:19">
+      <c r="D8" s="39" t="s">
         <v>276</v>
       </c>
-      <c r="B4" s="39" t="s">
+      <c r="E8" s="39" t="s">
         <v>279</v>
       </c>
-      <c r="J4" s="39" t="s">
+      <c r="M8" s="39" t="s">
         <v>245</v>
       </c>
-      <c r="K4" s="39" t="s">
+      <c r="N8" s="39" t="s">
         <v>245</v>
       </c>
-      <c r="L4" s="39" t="s">
+      <c r="O8" s="39" t="s">
         <v>248</v>
       </c>
-      <c r="M4" s="39" t="s">
+      <c r="P8" s="39" t="s">
         <v>246</v>
       </c>
-      <c r="N4" s="39" t="s">
+      <c r="Q8" s="39" t="s">
         <v>246</v>
       </c>
-      <c r="O4" s="39" t="s">
+      <c r="R8" s="39" t="s">
         <v>246</v>
       </c>
-      <c r="P4" s="51" t="s">
+      <c r="S8" s="51" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="5" spans="1:19">
-      <c r="A5" s="39" t="s">
+    <row r="9" spans="3:19">
+      <c r="E9" s="39" t="s">
         <v>280</v>
       </c>
-      <c r="B5" s="39" t="s">
+      <c r="F9" s="39" t="s">
         <v>275</v>
       </c>
-      <c r="D5" s="39" t="s">
+      <c r="G9" s="39" t="s">
         <v>251</v>
       </c>
-      <c r="E5" s="39" t="s">
+      <c r="H9" s="39" t="s">
         <v>252</v>
       </c>
-      <c r="F5" s="39" t="s">
+      <c r="I9" s="39" t="s">
         <v>242</v>
       </c>
-      <c r="G5" s="39" t="s">
+      <c r="J9" s="39" t="s">
         <v>244</v>
       </c>
-      <c r="H5" s="39" t="s">
+      <c r="K9" s="39" t="s">
         <v>253</v>
       </c>
-      <c r="I5" s="39" t="s">
+      <c r="L9" s="39" t="s">
         <v>254</v>
       </c>
-      <c r="J5" s="39" t="s">
+      <c r="M9" s="39" t="s">
         <v>243</v>
       </c>
-      <c r="K5" s="39" t="s">
+      <c r="N9" s="39" t="s">
         <v>247</v>
       </c>
-      <c r="M5" s="39" t="s">
+      <c r="P9" s="39" t="s">
         <v>243</v>
       </c>
-      <c r="N5" s="39" t="s">
+      <c r="Q9" s="39" t="s">
         <v>247</v>
       </c>
-      <c r="O5" s="39" t="s">
+      <c r="R9" s="39" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="6" spans="1:19">
-      <c r="B6" s="39">
+    <row r="10" spans="3:19">
+      <c r="C10" s="56" t="s">
+        <v>255</v>
+      </c>
+      <c r="E10" s="39">
         <v>4</v>
       </c>
-      <c r="C6" s="56" t="s">
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10" s="58">
+        <v>0.12</v>
+      </c>
+      <c r="J10" s="42">
+        <v>6.75</v>
+      </c>
+      <c r="K10" s="55">
+        <f t="shared" ref="K10:K19" si="0">I10*G10</f>
+        <v>0.12</v>
+      </c>
+      <c r="L10" s="55">
+        <f t="shared" ref="L10:L19" si="1">J10*H10</f>
+        <v>6.75</v>
+      </c>
+      <c r="M10" s="42">
+        <f t="shared" ref="M10:M19" si="2">(1-K10)</f>
+        <v>0.88</v>
+      </c>
+      <c r="N10" s="42">
+        <v>1</v>
+      </c>
+      <c r="O10" s="52">
+        <f t="shared" ref="O10:O19" si="3">M10*N10</f>
+        <v>0.88</v>
+      </c>
+      <c r="P10" s="42">
+        <f t="shared" ref="P10:P19" si="4">K10</f>
+        <v>0.12</v>
+      </c>
+      <c r="Q10" s="42">
+        <f t="shared" ref="Q10:Q19" si="5">L10</f>
+        <v>6.75</v>
+      </c>
+      <c r="R10" s="53">
+        <f t="shared" ref="R10:R19" si="6">P10*Q10</f>
+        <v>0.80999999999999994</v>
+      </c>
+      <c r="S10" s="54">
+        <f t="shared" ref="S10:S19" si="7">O10+R10</f>
+        <v>1.69</v>
+      </c>
+    </row>
+    <row r="11" spans="3:19">
+      <c r="C11" s="56" t="s">
+        <v>256</v>
+      </c>
+      <c r="G11">
+        <f>G10</f>
+        <v>1</v>
+      </c>
+      <c r="H11" s="39">
+        <f>H10</f>
+        <v>1</v>
+      </c>
+      <c r="I11" s="58">
+        <v>0.1</v>
+      </c>
+      <c r="J11" s="42">
+        <v>8</v>
+      </c>
+      <c r="K11" s="55">
+        <f t="shared" si="0"/>
+        <v>0.1</v>
+      </c>
+      <c r="L11" s="55">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="M11" s="42">
+        <f t="shared" si="2"/>
+        <v>0.9</v>
+      </c>
+      <c r="N11" s="42">
+        <v>1</v>
+      </c>
+      <c r="O11" s="52">
+        <f t="shared" si="3"/>
+        <v>0.9</v>
+      </c>
+      <c r="P11" s="42">
+        <f t="shared" si="4"/>
+        <v>0.1</v>
+      </c>
+      <c r="Q11" s="42">
+        <f t="shared" si="5"/>
+        <v>8</v>
+      </c>
+      <c r="R11" s="53">
+        <f t="shared" si="6"/>
+        <v>0.8</v>
+      </c>
+      <c r="S11" s="54">
+        <f t="shared" si="7"/>
+        <v>1.7000000000000002</v>
+      </c>
+    </row>
+    <row r="12" spans="3:19">
+      <c r="C12" s="56" t="s">
+        <v>257</v>
+      </c>
+      <c r="G12" s="39">
+        <f t="shared" ref="G12:G19" si="8">G11</f>
+        <v>1</v>
+      </c>
+      <c r="H12" s="39">
+        <f t="shared" ref="H12:H19" si="9">H11</f>
+        <v>1</v>
+      </c>
+      <c r="I12" s="58">
+        <v>0.05</v>
+      </c>
+      <c r="J12" s="42">
+        <v>15.5</v>
+      </c>
+      <c r="K12" s="55">
+        <f t="shared" si="0"/>
+        <v>0.05</v>
+      </c>
+      <c r="L12" s="55">
+        <f t="shared" si="1"/>
+        <v>15.5</v>
+      </c>
+      <c r="M12" s="42">
+        <f t="shared" si="2"/>
+        <v>0.95</v>
+      </c>
+      <c r="N12" s="42">
+        <v>1</v>
+      </c>
+      <c r="O12" s="52">
+        <f t="shared" si="3"/>
+        <v>0.95</v>
+      </c>
+      <c r="P12" s="42">
+        <f t="shared" si="4"/>
+        <v>0.05</v>
+      </c>
+      <c r="Q12" s="42">
+        <f t="shared" si="5"/>
+        <v>15.5</v>
+      </c>
+      <c r="R12" s="53">
+        <f t="shared" si="6"/>
+        <v>0.77500000000000002</v>
+      </c>
+      <c r="S12" s="54">
+        <f t="shared" si="7"/>
+        <v>1.7250000000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="3:19">
+      <c r="C13" s="56" t="s">
+        <v>258</v>
+      </c>
+      <c r="G13" s="39">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="H13" s="39">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="I13" s="58">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="J13" s="42">
+        <v>10.5</v>
+      </c>
+      <c r="K13" s="55">
+        <f t="shared" si="0"/>
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="L13" s="55">
+        <f t="shared" si="1"/>
+        <v>10.5</v>
+      </c>
+      <c r="M13" s="42">
+        <f t="shared" si="2"/>
+        <v>0.92500000000000004</v>
+      </c>
+      <c r="N13" s="42">
+        <v>1</v>
+      </c>
+      <c r="O13" s="52">
+        <f t="shared" si="3"/>
+        <v>0.92500000000000004</v>
+      </c>
+      <c r="P13" s="42">
+        <f t="shared" si="4"/>
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="Q13" s="42">
+        <f t="shared" si="5"/>
+        <v>10.5</v>
+      </c>
+      <c r="R13" s="53">
+        <f t="shared" si="6"/>
+        <v>0.78749999999999998</v>
+      </c>
+      <c r="S13" s="54">
+        <f t="shared" si="7"/>
+        <v>1.7124999999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="3:19">
+      <c r="C14" s="56" t="s">
+        <v>259</v>
+      </c>
+      <c r="G14" s="39">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="H14" s="39">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="I14" s="58">
+        <v>0.15</v>
+      </c>
+      <c r="J14" s="42">
+        <v>5.5</v>
+      </c>
+      <c r="K14" s="55">
+        <f t="shared" si="0"/>
+        <v>0.15</v>
+      </c>
+      <c r="L14" s="55">
+        <f t="shared" si="1"/>
+        <v>5.5</v>
+      </c>
+      <c r="M14" s="42">
+        <f t="shared" si="2"/>
+        <v>0.85</v>
+      </c>
+      <c r="N14" s="42">
+        <v>1</v>
+      </c>
+      <c r="O14" s="52">
+        <f t="shared" si="3"/>
+        <v>0.85</v>
+      </c>
+      <c r="P14" s="42">
+        <f t="shared" si="4"/>
+        <v>0.15</v>
+      </c>
+      <c r="Q14" s="42">
+        <f t="shared" si="5"/>
+        <v>5.5</v>
+      </c>
+      <c r="R14" s="53">
+        <f t="shared" si="6"/>
+        <v>0.82499999999999996</v>
+      </c>
+      <c r="S14" s="54">
+        <f t="shared" si="7"/>
+        <v>1.6749999999999998</v>
+      </c>
+    </row>
+    <row r="15" spans="3:19">
+      <c r="C15" s="56" t="s">
+        <v>260</v>
+      </c>
+      <c r="G15" s="39">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="H15" s="39">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="I15" s="58">
+        <v>0.03</v>
+      </c>
+      <c r="J15" s="42">
+        <v>25.5</v>
+      </c>
+      <c r="K15" s="55">
+        <f t="shared" si="0"/>
+        <v>0.03</v>
+      </c>
+      <c r="L15" s="55">
+        <f t="shared" si="1"/>
+        <v>25.5</v>
+      </c>
+      <c r="M15" s="42">
+        <f t="shared" si="2"/>
+        <v>0.97</v>
+      </c>
+      <c r="N15" s="42">
+        <v>1</v>
+      </c>
+      <c r="O15" s="52">
+        <f t="shared" si="3"/>
+        <v>0.97</v>
+      </c>
+      <c r="P15" s="42">
+        <f t="shared" si="4"/>
+        <v>0.03</v>
+      </c>
+      <c r="Q15" s="42">
+        <f t="shared" si="5"/>
+        <v>25.5</v>
+      </c>
+      <c r="R15" s="53">
+        <f t="shared" si="6"/>
+        <v>0.76500000000000001</v>
+      </c>
+      <c r="S15" s="54">
+        <f t="shared" si="7"/>
+        <v>1.7349999999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="3:19">
+      <c r="C16" s="56" t="s">
+        <v>261</v>
+      </c>
+      <c r="G16" s="39">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="H16" s="39">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="I16" s="58">
+        <v>0.05</v>
+      </c>
+      <c r="J16" s="42">
+        <v>15.5</v>
+      </c>
+      <c r="K16" s="55">
+        <f t="shared" si="0"/>
+        <v>0.05</v>
+      </c>
+      <c r="L16" s="55">
+        <f t="shared" si="1"/>
+        <v>15.5</v>
+      </c>
+      <c r="M16" s="42">
+        <f t="shared" si="2"/>
+        <v>0.95</v>
+      </c>
+      <c r="N16" s="42">
+        <v>1</v>
+      </c>
+      <c r="O16" s="52">
+        <f t="shared" si="3"/>
+        <v>0.95</v>
+      </c>
+      <c r="P16" s="42">
+        <f t="shared" si="4"/>
+        <v>0.05</v>
+      </c>
+      <c r="Q16" s="42">
+        <f t="shared" si="5"/>
+        <v>15.5</v>
+      </c>
+      <c r="R16" s="53">
+        <f t="shared" si="6"/>
+        <v>0.77500000000000002</v>
+      </c>
+      <c r="S16" s="54">
+        <f t="shared" si="7"/>
+        <v>1.7250000000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="3:22">
+      <c r="C17" s="56" t="s">
+        <v>262</v>
+      </c>
+      <c r="G17" s="39">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="H17" s="39">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="I17" s="58">
+        <v>0.06</v>
+      </c>
+      <c r="J17" s="42">
+        <v>13</v>
+      </c>
+      <c r="K17" s="55">
+        <f t="shared" si="0"/>
+        <v>0.06</v>
+      </c>
+      <c r="L17" s="55">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="M17" s="42">
+        <f t="shared" si="2"/>
+        <v>0.94</v>
+      </c>
+      <c r="N17" s="42">
+        <v>1</v>
+      </c>
+      <c r="O17" s="52">
+        <f t="shared" si="3"/>
+        <v>0.94</v>
+      </c>
+      <c r="P17" s="42">
+        <f t="shared" si="4"/>
+        <v>0.06</v>
+      </c>
+      <c r="Q17" s="42">
+        <f t="shared" si="5"/>
+        <v>13</v>
+      </c>
+      <c r="R17" s="53">
+        <f t="shared" si="6"/>
+        <v>0.78</v>
+      </c>
+      <c r="S17" s="54">
+        <f t="shared" si="7"/>
+        <v>1.72</v>
+      </c>
+      <c r="T17" s="39" t="s">
+        <v>266</v>
+      </c>
+      <c r="U17" s="39" t="s">
+        <v>269</v>
+      </c>
+      <c r="V17" s="39" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="18" spans="3:22">
+      <c r="C18" s="56" t="s">
+        <v>263</v>
+      </c>
+      <c r="G18" s="39">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="H18" s="39">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="I18" s="58">
+        <v>0.03</v>
+      </c>
+      <c r="J18" s="42">
+        <v>25.5</v>
+      </c>
+      <c r="K18" s="55">
+        <f t="shared" si="0"/>
+        <v>0.03</v>
+      </c>
+      <c r="L18" s="55">
+        <f t="shared" si="1"/>
+        <v>25.5</v>
+      </c>
+      <c r="M18" s="42">
+        <f t="shared" si="2"/>
+        <v>0.97</v>
+      </c>
+      <c r="N18" s="42">
+        <v>1</v>
+      </c>
+      <c r="O18" s="52">
+        <f t="shared" si="3"/>
+        <v>0.97</v>
+      </c>
+      <c r="P18" s="42">
+        <f t="shared" si="4"/>
+        <v>0.03</v>
+      </c>
+      <c r="Q18" s="42">
+        <f t="shared" si="5"/>
+        <v>25.5</v>
+      </c>
+      <c r="R18" s="53">
+        <f t="shared" si="6"/>
+        <v>0.76500000000000001</v>
+      </c>
+      <c r="S18" s="54">
+        <f t="shared" si="7"/>
+        <v>1.7349999999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="3:22">
+      <c r="C19" s="57" t="s">
+        <v>264</v>
+      </c>
+      <c r="G19" s="39">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="H19" s="39">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="I19" s="58">
+        <v>0.2</v>
+      </c>
+      <c r="J19" s="42">
+        <v>4.25</v>
+      </c>
+      <c r="K19" s="55">
+        <f t="shared" si="0"/>
+        <v>0.2</v>
+      </c>
+      <c r="L19" s="55">
+        <f t="shared" si="1"/>
+        <v>4.25</v>
+      </c>
+      <c r="M19" s="42">
+        <f t="shared" si="2"/>
+        <v>0.8</v>
+      </c>
+      <c r="N19" s="42">
+        <v>1</v>
+      </c>
+      <c r="O19" s="52">
+        <f t="shared" si="3"/>
+        <v>0.8</v>
+      </c>
+      <c r="P19" s="42">
+        <f t="shared" si="4"/>
+        <v>0.2</v>
+      </c>
+      <c r="Q19" s="42">
+        <f t="shared" si="5"/>
+        <v>4.25</v>
+      </c>
+      <c r="R19" s="53">
+        <f t="shared" si="6"/>
+        <v>0.85000000000000009</v>
+      </c>
+      <c r="S19" s="54">
+        <f t="shared" si="7"/>
+        <v>1.6500000000000001</v>
+      </c>
+      <c r="U19" s="39" t="s">
+        <v>241</v>
+      </c>
+      <c r="V19" s="39" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="20" spans="3:22">
+      <c r="U20" s="39" t="s">
+        <v>270</v>
+      </c>
+      <c r="V20" s="39" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="22" spans="3:22">
+      <c r="J22" s="42">
+        <v>1.55</v>
+      </c>
+      <c r="K22">
+        <v>31</v>
+      </c>
+      <c r="L22">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22">
+      <c r="F23" s="39" t="s">
+        <v>272</v>
+      </c>
+      <c r="G23" s="39" t="s">
+        <v>277</v>
+      </c>
+      <c r="H23" s="39" t="s">
+        <v>278</v>
+      </c>
+      <c r="J23" s="42">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="24" spans="3:22">
+      <c r="F24" s="39" t="s">
+        <v>265</v>
+      </c>
+      <c r="G24" s="42">
+        <v>3</v>
+      </c>
+      <c r="H24" s="42">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22">
+      <c r="G26" s="39" t="s">
+        <v>273</v>
+      </c>
+      <c r="H26" s="39" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="27" spans="3:22">
+      <c r="G27" s="39" t="s">
+        <v>274</v>
+      </c>
+      <c r="H27" s="39" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22">
+      <c r="D31" s="39" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22">
+      <c r="C32" s="39"/>
+      <c r="D32" s="39" t="s">
+        <v>288</v>
+      </c>
+      <c r="E32" s="39" t="s">
+        <v>292</v>
+      </c>
+      <c r="F32" s="39" t="s">
+        <v>290</v>
+      </c>
+      <c r="G32" s="39" t="s">
+        <v>293</v>
+      </c>
+      <c r="H32" s="39" t="s">
+        <v>294</v>
+      </c>
+      <c r="I32" s="39"/>
+      <c r="J32" s="39"/>
+      <c r="K32" s="39"/>
+      <c r="L32" s="39"/>
+      <c r="M32" s="39"/>
+      <c r="N32" s="39"/>
+      <c r="O32" s="39"/>
+      <c r="P32" s="39"/>
+      <c r="Q32" s="39"/>
+      <c r="R32" s="39"/>
+      <c r="S32" s="39"/>
+    </row>
+    <row r="33" spans="3:23">
+      <c r="C33" s="39"/>
+      <c r="D33" s="39"/>
+      <c r="E33" s="39"/>
+      <c r="F33" s="39"/>
+      <c r="G33" s="39"/>
+      <c r="H33" s="39"/>
+      <c r="I33" s="39"/>
+      <c r="J33" s="39"/>
+      <c r="K33" s="39"/>
+      <c r="L33" s="39"/>
+      <c r="M33" s="39" t="s">
+        <v>245</v>
+      </c>
+      <c r="N33" s="39" t="s">
+        <v>245</v>
+      </c>
+      <c r="O33" s="39" t="s">
+        <v>248</v>
+      </c>
+      <c r="P33" s="39" t="s">
+        <v>246</v>
+      </c>
+      <c r="Q33" s="39" t="s">
+        <v>246</v>
+      </c>
+      <c r="R33" s="39" t="s">
+        <v>246</v>
+      </c>
+      <c r="S33" s="51" t="s">
+        <v>284</v>
+      </c>
+      <c r="T33" s="39" t="s">
+        <v>287</v>
+      </c>
+      <c r="U33" s="39" t="s">
+        <v>285</v>
+      </c>
+      <c r="V33" s="39" t="s">
+        <v>283</v>
+      </c>
+      <c r="W33" s="39" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="34" spans="3:23">
+      <c r="C34" s="39"/>
+      <c r="D34" s="39"/>
+      <c r="E34" s="39" t="s">
+        <v>291</v>
+      </c>
+      <c r="F34" s="39" t="s">
+        <v>275</v>
+      </c>
+      <c r="G34" s="39" t="s">
+        <v>251</v>
+      </c>
+      <c r="H34" s="39" t="s">
+        <v>252</v>
+      </c>
+      <c r="I34" s="39" t="s">
+        <v>242</v>
+      </c>
+      <c r="J34" s="39" t="s">
+        <v>244</v>
+      </c>
+      <c r="K34" s="39" t="s">
+        <v>253</v>
+      </c>
+      <c r="L34" s="39" t="s">
+        <v>254</v>
+      </c>
+      <c r="M34" s="39" t="s">
+        <v>243</v>
+      </c>
+      <c r="N34" s="39" t="s">
+        <v>247</v>
+      </c>
+      <c r="O34" s="39"/>
+      <c r="P34" s="39" t="s">
+        <v>243</v>
+      </c>
+      <c r="Q34" s="39" t="s">
+        <v>247</v>
+      </c>
+      <c r="R34" s="39" t="s">
+        <v>249</v>
+      </c>
+      <c r="S34" s="39"/>
+    </row>
+    <row r="35" spans="3:23">
+      <c r="C35" s="56" t="s">
         <v>255</v>
       </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6" s="58">
+      <c r="D35" s="42">
+        <v>4</v>
+      </c>
+      <c r="E35" s="51">
+        <f>100%+$D$35/2</f>
+        <v>3</v>
+      </c>
+      <c r="F35" s="51">
+        <f>100%+$D$35/2</f>
+        <v>3</v>
+      </c>
+      <c r="G35" s="51">
+        <f>100%+$D$35</f>
+        <v>5</v>
+      </c>
+      <c r="H35" s="51">
+        <f>100%+$D$35</f>
+        <v>5</v>
+      </c>
+      <c r="I35" s="58">
         <v>0.12</v>
       </c>
-      <c r="G6" s="42">
+      <c r="J35" s="42">
         <v>6.75</v>
       </c>
-      <c r="H6" s="55">
-        <f>F6*D6</f>
-        <v>0.12</v>
-      </c>
-      <c r="I6" s="55">
-        <f>G6*E6</f>
-        <v>6.75</v>
-      </c>
-      <c r="J6" s="42">
-        <f>(1-H6)</f>
-        <v>0.88</v>
-      </c>
-      <c r="K6" s="42">
-        <v>1</v>
-      </c>
-      <c r="L6" s="52">
-        <f>J6*K6</f>
-        <v>0.88</v>
-      </c>
-      <c r="M6" s="42">
-        <f>H6</f>
-        <v>0.12</v>
-      </c>
-      <c r="N6" s="42">
-        <f>I6</f>
-        <v>6.75</v>
-      </c>
-      <c r="O6" s="53">
-        <f>M6*N6</f>
-        <v>0.80999999999999994</v>
-      </c>
-      <c r="P6" s="54">
-        <f>L6+O6</f>
+      <c r="K35" s="55">
+        <f t="shared" ref="K35:K44" si="10">I35*G35</f>
+        <v>0.6</v>
+      </c>
+      <c r="L35" s="55">
+        <f t="shared" ref="L35:L44" si="11">J35*H35</f>
+        <v>33.75</v>
+      </c>
+      <c r="M35" s="42">
+        <f t="shared" ref="M35:M44" si="12">(1-K35)</f>
+        <v>0.4</v>
+      </c>
+      <c r="N35" s="42">
+        <v>1</v>
+      </c>
+      <c r="O35" s="52">
+        <f t="shared" ref="O35:O44" si="13">M35*N35</f>
+        <v>0.4</v>
+      </c>
+      <c r="P35" s="42">
+        <f t="shared" ref="P35:P44" si="14">K35</f>
+        <v>0.6</v>
+      </c>
+      <c r="Q35" s="42">
+        <f t="shared" ref="Q35:Q44" si="15">L35</f>
+        <v>33.75</v>
+      </c>
+      <c r="R35" s="53">
+        <f t="shared" ref="R35:R44" si="16">P35*Q35</f>
+        <v>20.25</v>
+      </c>
+      <c r="S35" s="54">
+        <f t="shared" ref="S35:S44" si="17">O35+R35</f>
+        <v>20.65</v>
+      </c>
+      <c r="T35" s="42">
+        <f>S35/V35</f>
+        <v>12.218934911242602</v>
+      </c>
+      <c r="U35" s="51">
+        <f>E35*F35*S35</f>
+        <v>185.85</v>
+      </c>
+      <c r="V35">
         <v>1.69</v>
       </c>
-    </row>
-    <row r="7" spans="1:19">
-      <c r="C7" s="56" t="s">
+      <c r="W35" s="42">
+        <f>U35/V35</f>
+        <v>109.97041420118343</v>
+      </c>
+    </row>
+    <row r="36" spans="3:23">
+      <c r="C36" s="56" t="s">
         <v>256</v>
       </c>
-      <c r="D7">
-        <f>D6</f>
-        <v>1</v>
-      </c>
-      <c r="E7" s="39">
-        <f>E6</f>
-        <v>1</v>
-      </c>
-      <c r="F7" s="58">
+      <c r="D36" s="39"/>
+      <c r="E36" s="51">
+        <f>E35</f>
+        <v>3</v>
+      </c>
+      <c r="F36" s="51">
+        <f t="shared" ref="F36:H36" si="18">F35</f>
+        <v>3</v>
+      </c>
+      <c r="G36" s="51">
+        <f t="shared" si="18"/>
+        <v>5</v>
+      </c>
+      <c r="H36" s="51">
+        <f t="shared" si="18"/>
+        <v>5</v>
+      </c>
+      <c r="I36" s="58">
         <v>0.1</v>
       </c>
-      <c r="G7" s="42">
+      <c r="J36" s="42">
         <v>8</v>
       </c>
-      <c r="H7" s="55">
-        <f>F7*D7</f>
-        <v>0.1</v>
-      </c>
-      <c r="I7" s="55">
-        <f>G7*E7</f>
-        <v>8</v>
-      </c>
-      <c r="J7" s="42">
-        <f>(1-H7)</f>
-        <v>0.9</v>
-      </c>
-      <c r="K7" s="42">
-        <v>1</v>
-      </c>
-      <c r="L7" s="52">
-        <f>J7*K7</f>
-        <v>0.9</v>
-      </c>
-      <c r="M7" s="42">
-        <f>H7</f>
-        <v>0.1</v>
-      </c>
-      <c r="N7" s="42">
-        <f>I7</f>
-        <v>8</v>
-      </c>
-      <c r="O7" s="53">
-        <f>M7*N7</f>
-        <v>0.8</v>
-      </c>
-      <c r="P7" s="54">
-        <f>L7+O7</f>
+      <c r="K36" s="55">
+        <f t="shared" si="10"/>
+        <v>0.5</v>
+      </c>
+      <c r="L36" s="55">
+        <f t="shared" si="11"/>
+        <v>40</v>
+      </c>
+      <c r="M36" s="42">
+        <f t="shared" si="12"/>
+        <v>0.5</v>
+      </c>
+      <c r="N36" s="42">
+        <v>1</v>
+      </c>
+      <c r="O36" s="52">
+        <f t="shared" si="13"/>
+        <v>0.5</v>
+      </c>
+      <c r="P36" s="42">
+        <f t="shared" si="14"/>
+        <v>0.5</v>
+      </c>
+      <c r="Q36" s="42">
+        <f t="shared" si="15"/>
+        <v>40</v>
+      </c>
+      <c r="R36" s="53">
+        <f t="shared" si="16"/>
+        <v>20</v>
+      </c>
+      <c r="S36" s="54">
+        <f t="shared" si="17"/>
+        <v>20.5</v>
+      </c>
+      <c r="T36" s="42">
+        <f t="shared" ref="T36:T44" si="19">S36/V36</f>
+        <v>12.058823529411763</v>
+      </c>
+      <c r="U36" s="51">
+        <f t="shared" ref="U36:U44" si="20">E36*F36*S36</f>
+        <v>184.5</v>
+      </c>
+      <c r="V36">
         <v>1.7000000000000002</v>
       </c>
-    </row>
-    <row r="8" spans="1:19">
-      <c r="C8" s="56" t="s">
+      <c r="W36" s="42">
+        <f t="shared" ref="W36:W44" si="21">U36/V36</f>
+        <v>108.52941176470587</v>
+      </c>
+    </row>
+    <row r="37" spans="3:23">
+      <c r="C37" s="56" t="s">
         <v>257</v>
       </c>
-      <c r="D8" s="39">
-        <f t="shared" ref="D8:D15" si="0">D7</f>
-        <v>1</v>
-      </c>
-      <c r="E8" s="39">
-        <f t="shared" ref="E8:E15" si="1">E7</f>
-        <v>1</v>
-      </c>
-      <c r="F8" s="58">
+      <c r="D37" s="39"/>
+      <c r="E37" s="51">
+        <f t="shared" ref="E37:E44" si="22">E36</f>
+        <v>3</v>
+      </c>
+      <c r="F37" s="51">
+        <f t="shared" ref="F37:F44" si="23">F36</f>
+        <v>3</v>
+      </c>
+      <c r="G37" s="51">
+        <f t="shared" ref="G37:G44" si="24">G36</f>
+        <v>5</v>
+      </c>
+      <c r="H37" s="51">
+        <f t="shared" ref="H37:H44" si="25">H36</f>
+        <v>5</v>
+      </c>
+      <c r="I37" s="58">
         <v>0.05</v>
       </c>
-      <c r="G8" s="42">
+      <c r="J37" s="42">
         <v>15.5</v>
       </c>
-      <c r="H8" s="55">
-        <f>F8*D8</f>
+      <c r="K37" s="55">
+        <f t="shared" si="10"/>
+        <v>0.25</v>
+      </c>
+      <c r="L37" s="55">
+        <f t="shared" si="11"/>
+        <v>77.5</v>
+      </c>
+      <c r="M37" s="42">
+        <f t="shared" si="12"/>
+        <v>0.75</v>
+      </c>
+      <c r="N37" s="42">
+        <v>1</v>
+      </c>
+      <c r="O37" s="52">
+        <f t="shared" si="13"/>
+        <v>0.75</v>
+      </c>
+      <c r="P37" s="42">
+        <f t="shared" si="14"/>
+        <v>0.25</v>
+      </c>
+      <c r="Q37" s="42">
+        <f t="shared" si="15"/>
+        <v>77.5</v>
+      </c>
+      <c r="R37" s="53">
+        <f t="shared" si="16"/>
+        <v>19.375</v>
+      </c>
+      <c r="S37" s="54">
+        <f t="shared" si="17"/>
+        <v>20.125</v>
+      </c>
+      <c r="T37" s="42">
+        <f t="shared" si="19"/>
+        <v>11.666666666666666</v>
+      </c>
+      <c r="U37" s="51">
+        <f t="shared" si="20"/>
+        <v>181.125</v>
+      </c>
+      <c r="V37">
+        <v>1.7250000000000001</v>
+      </c>
+      <c r="W37" s="42">
+        <f t="shared" si="21"/>
+        <v>105</v>
+      </c>
+    </row>
+    <row r="38" spans="3:23">
+      <c r="C38" s="56" t="s">
+        <v>258</v>
+      </c>
+      <c r="D38" s="39"/>
+      <c r="E38" s="51">
+        <f t="shared" si="22"/>
+        <v>3</v>
+      </c>
+      <c r="F38" s="51">
+        <f t="shared" si="23"/>
+        <v>3</v>
+      </c>
+      <c r="G38" s="51">
+        <f t="shared" si="24"/>
+        <v>5</v>
+      </c>
+      <c r="H38" s="51">
+        <f t="shared" si="25"/>
+        <v>5</v>
+      </c>
+      <c r="I38" s="58">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="J38" s="42">
+        <v>10.5</v>
+      </c>
+      <c r="K38" s="55">
+        <f t="shared" si="10"/>
+        <v>0.375</v>
+      </c>
+      <c r="L38" s="55">
+        <f t="shared" si="11"/>
+        <v>52.5</v>
+      </c>
+      <c r="M38" s="42">
+        <f t="shared" si="12"/>
+        <v>0.625</v>
+      </c>
+      <c r="N38" s="42">
+        <v>1</v>
+      </c>
+      <c r="O38" s="52">
+        <f t="shared" si="13"/>
+        <v>0.625</v>
+      </c>
+      <c r="P38" s="42">
+        <f t="shared" si="14"/>
+        <v>0.375</v>
+      </c>
+      <c r="Q38" s="42">
+        <f t="shared" si="15"/>
+        <v>52.5</v>
+      </c>
+      <c r="R38" s="53">
+        <f t="shared" si="16"/>
+        <v>19.6875</v>
+      </c>
+      <c r="S38" s="54">
+        <f t="shared" si="17"/>
+        <v>20.3125</v>
+      </c>
+      <c r="T38" s="42">
+        <f t="shared" si="19"/>
+        <v>11.86131386861314</v>
+      </c>
+      <c r="U38" s="51">
+        <f t="shared" si="20"/>
+        <v>182.8125</v>
+      </c>
+      <c r="V38">
+        <v>1.7124999999999999</v>
+      </c>
+      <c r="W38" s="42">
+        <f t="shared" si="21"/>
+        <v>106.75182481751825</v>
+      </c>
+    </row>
+    <row r="39" spans="3:23">
+      <c r="C39" s="56" t="s">
+        <v>259</v>
+      </c>
+      <c r="D39" s="39"/>
+      <c r="E39" s="51">
+        <f t="shared" si="22"/>
+        <v>3</v>
+      </c>
+      <c r="F39" s="51">
+        <f t="shared" si="23"/>
+        <v>3</v>
+      </c>
+      <c r="G39" s="51">
+        <f t="shared" si="24"/>
+        <v>5</v>
+      </c>
+      <c r="H39" s="51">
+        <f t="shared" si="25"/>
+        <v>5</v>
+      </c>
+      <c r="I39" s="58">
+        <v>0.15</v>
+      </c>
+      <c r="J39" s="42">
+        <v>5.5</v>
+      </c>
+      <c r="K39" s="55">
+        <f t="shared" si="10"/>
+        <v>0.75</v>
+      </c>
+      <c r="L39" s="55">
+        <f t="shared" si="11"/>
+        <v>27.5</v>
+      </c>
+      <c r="M39" s="42">
+        <f t="shared" si="12"/>
+        <v>0.25</v>
+      </c>
+      <c r="N39" s="42">
+        <v>1</v>
+      </c>
+      <c r="O39" s="52">
+        <f t="shared" si="13"/>
+        <v>0.25</v>
+      </c>
+      <c r="P39" s="42">
+        <f t="shared" si="14"/>
+        <v>0.75</v>
+      </c>
+      <c r="Q39" s="42">
+        <f t="shared" si="15"/>
+        <v>27.5</v>
+      </c>
+      <c r="R39" s="53">
+        <f t="shared" si="16"/>
+        <v>20.625</v>
+      </c>
+      <c r="S39" s="54">
+        <f t="shared" si="17"/>
+        <v>20.875</v>
+      </c>
+      <c r="T39" s="42">
+        <f t="shared" si="19"/>
+        <v>12.46268656716418</v>
+      </c>
+      <c r="U39" s="51">
+        <f t="shared" si="20"/>
+        <v>187.875</v>
+      </c>
+      <c r="V39">
+        <v>1.6749999999999998</v>
+      </c>
+      <c r="W39" s="42">
+        <f t="shared" si="21"/>
+        <v>112.16417910447763</v>
+      </c>
+    </row>
+    <row r="40" spans="3:23">
+      <c r="C40" s="56" t="s">
+        <v>260</v>
+      </c>
+      <c r="D40" s="39"/>
+      <c r="E40" s="51">
+        <f t="shared" si="22"/>
+        <v>3</v>
+      </c>
+      <c r="F40" s="51">
+        <f t="shared" si="23"/>
+        <v>3</v>
+      </c>
+      <c r="G40" s="51">
+        <f t="shared" si="24"/>
+        <v>5</v>
+      </c>
+      <c r="H40" s="51">
+        <f t="shared" si="25"/>
+        <v>5</v>
+      </c>
+      <c r="I40" s="58">
+        <v>0.03</v>
+      </c>
+      <c r="J40" s="42">
+        <v>25.5</v>
+      </c>
+      <c r="K40" s="55">
+        <f t="shared" si="10"/>
+        <v>0.15</v>
+      </c>
+      <c r="L40" s="55">
+        <f t="shared" si="11"/>
+        <v>127.5</v>
+      </c>
+      <c r="M40" s="42">
+        <f t="shared" si="12"/>
+        <v>0.85</v>
+      </c>
+      <c r="N40" s="42">
+        <v>1</v>
+      </c>
+      <c r="O40" s="52">
+        <f t="shared" si="13"/>
+        <v>0.85</v>
+      </c>
+      <c r="P40" s="42">
+        <f t="shared" si="14"/>
+        <v>0.15</v>
+      </c>
+      <c r="Q40" s="42">
+        <f t="shared" si="15"/>
+        <v>127.5</v>
+      </c>
+      <c r="R40" s="53">
+        <f t="shared" si="16"/>
+        <v>19.125</v>
+      </c>
+      <c r="S40" s="54">
+        <f t="shared" si="17"/>
+        <v>19.975000000000001</v>
+      </c>
+      <c r="T40" s="42">
+        <f t="shared" si="19"/>
+        <v>11.512968299711817</v>
+      </c>
+      <c r="U40" s="51">
+        <f t="shared" si="20"/>
+        <v>179.77500000000001</v>
+      </c>
+      <c r="V40">
+        <v>1.7349999999999999</v>
+      </c>
+      <c r="W40" s="42">
+        <f t="shared" si="21"/>
+        <v>103.61671469740635</v>
+      </c>
+    </row>
+    <row r="41" spans="3:23">
+      <c r="C41" s="56" t="s">
+        <v>261</v>
+      </c>
+      <c r="D41" s="39"/>
+      <c r="E41" s="51">
+        <f t="shared" si="22"/>
+        <v>3</v>
+      </c>
+      <c r="F41" s="51">
+        <f t="shared" si="23"/>
+        <v>3</v>
+      </c>
+      <c r="G41" s="51">
+        <f t="shared" si="24"/>
+        <v>5</v>
+      </c>
+      <c r="H41" s="51">
+        <f t="shared" si="25"/>
+        <v>5</v>
+      </c>
+      <c r="I41" s="58">
         <v>0.05</v>
       </c>
-      <c r="I8" s="55">
-        <f>G8*E8</f>
+      <c r="J41" s="42">
         <v>15.5</v>
       </c>
-      <c r="J8" s="42">
-        <f>(1-H8)</f>
-        <v>0.95</v>
-      </c>
-      <c r="K8" s="42">
-        <v>1</v>
-      </c>
-      <c r="L8" s="52">
-        <f>J8*K8</f>
-        <v>0.95</v>
-      </c>
-      <c r="M8" s="42">
-        <f>H8</f>
-        <v>0.05</v>
-      </c>
-      <c r="N8" s="42">
-        <f>I8</f>
-        <v>15.5</v>
-      </c>
-      <c r="O8" s="53">
-        <f>M8*N8</f>
-        <v>0.77500000000000002</v>
-      </c>
-      <c r="P8" s="54">
-        <f>L8+O8</f>
+      <c r="K41" s="55">
+        <f t="shared" si="10"/>
+        <v>0.25</v>
+      </c>
+      <c r="L41" s="55">
+        <f t="shared" si="11"/>
+        <v>77.5</v>
+      </c>
+      <c r="M41" s="42">
+        <f t="shared" si="12"/>
+        <v>0.75</v>
+      </c>
+      <c r="N41" s="42">
+        <v>1</v>
+      </c>
+      <c r="O41" s="52">
+        <f t="shared" si="13"/>
+        <v>0.75</v>
+      </c>
+      <c r="P41" s="42">
+        <f t="shared" si="14"/>
+        <v>0.25</v>
+      </c>
+      <c r="Q41" s="42">
+        <f t="shared" si="15"/>
+        <v>77.5</v>
+      </c>
+      <c r="R41" s="53">
+        <f t="shared" si="16"/>
+        <v>19.375</v>
+      </c>
+      <c r="S41" s="54">
+        <f t="shared" si="17"/>
+        <v>20.125</v>
+      </c>
+      <c r="T41" s="42">
+        <f t="shared" si="19"/>
+        <v>11.666666666666666</v>
+      </c>
+      <c r="U41" s="51">
+        <f t="shared" si="20"/>
+        <v>181.125</v>
+      </c>
+      <c r="V41">
         <v>1.7250000000000001</v>
       </c>
-    </row>
-    <row r="9" spans="1:19">
-      <c r="C9" s="56" t="s">
-        <v>258</v>
-      </c>
-      <c r="D9" s="39">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="E9" s="39">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="F9" s="58">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="G9" s="42">
-        <v>10.5</v>
-      </c>
-      <c r="H9" s="55">
-        <f>F9*D9</f>
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="I9" s="55">
-        <f>G9*E9</f>
-        <v>10.5</v>
-      </c>
-      <c r="J9" s="42">
-        <f>(1-H9)</f>
-        <v>0.92500000000000004</v>
-      </c>
-      <c r="K9" s="42">
-        <v>1</v>
-      </c>
-      <c r="L9" s="52">
-        <f>J9*K9</f>
-        <v>0.92500000000000004</v>
-      </c>
-      <c r="M9" s="42">
-        <f>H9</f>
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="N9" s="42">
-        <f>I9</f>
-        <v>10.5</v>
-      </c>
-      <c r="O9" s="53">
-        <f>M9*N9</f>
-        <v>0.78749999999999998</v>
-      </c>
-      <c r="P9" s="54">
-        <f>L9+O9</f>
-        <v>1.7124999999999999</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19">
-      <c r="C10" s="56" t="s">
-        <v>259</v>
-      </c>
-      <c r="D10" s="39">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="E10" s="39">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="F10" s="58">
+      <c r="W41" s="42">
+        <f t="shared" si="21"/>
+        <v>105</v>
+      </c>
+    </row>
+    <row r="42" spans="3:23">
+      <c r="C42" s="56" t="s">
+        <v>262</v>
+      </c>
+      <c r="D42" s="39"/>
+      <c r="E42" s="51">
+        <f t="shared" si="22"/>
+        <v>3</v>
+      </c>
+      <c r="F42" s="51">
+        <f t="shared" si="23"/>
+        <v>3</v>
+      </c>
+      <c r="G42" s="51">
+        <f t="shared" si="24"/>
+        <v>5</v>
+      </c>
+      <c r="H42" s="51">
+        <f t="shared" si="25"/>
+        <v>5</v>
+      </c>
+      <c r="I42" s="58">
+        <v>0.06</v>
+      </c>
+      <c r="J42" s="42">
+        <v>13</v>
+      </c>
+      <c r="K42" s="55">
+        <f t="shared" si="10"/>
+        <v>0.3</v>
+      </c>
+      <c r="L42" s="55">
+        <f t="shared" si="11"/>
+        <v>65</v>
+      </c>
+      <c r="M42" s="42">
+        <f t="shared" si="12"/>
+        <v>0.7</v>
+      </c>
+      <c r="N42" s="42">
+        <v>1</v>
+      </c>
+      <c r="O42" s="52">
+        <f t="shared" si="13"/>
+        <v>0.7</v>
+      </c>
+      <c r="P42" s="42">
+        <f t="shared" si="14"/>
+        <v>0.3</v>
+      </c>
+      <c r="Q42" s="42">
+        <f t="shared" si="15"/>
+        <v>65</v>
+      </c>
+      <c r="R42" s="53">
+        <f t="shared" si="16"/>
+        <v>19.5</v>
+      </c>
+      <c r="S42" s="54">
+        <f t="shared" si="17"/>
+        <v>20.2</v>
+      </c>
+      <c r="T42" s="42">
+        <f t="shared" si="19"/>
+        <v>11.744186046511627</v>
+      </c>
+      <c r="U42" s="51">
+        <f t="shared" si="20"/>
+        <v>181.79999999999998</v>
+      </c>
+      <c r="V42">
+        <v>1.72</v>
+      </c>
+      <c r="W42" s="42">
+        <f t="shared" si="21"/>
+        <v>105.69767441860465</v>
+      </c>
+    </row>
+    <row r="43" spans="3:23">
+      <c r="C43" s="56" t="s">
+        <v>263</v>
+      </c>
+      <c r="D43" s="39"/>
+      <c r="E43" s="51">
+        <f t="shared" si="22"/>
+        <v>3</v>
+      </c>
+      <c r="F43" s="51">
+        <f t="shared" si="23"/>
+        <v>3</v>
+      </c>
+      <c r="G43" s="51">
+        <f t="shared" si="24"/>
+        <v>5</v>
+      </c>
+      <c r="H43" s="51">
+        <f t="shared" si="25"/>
+        <v>5</v>
+      </c>
+      <c r="I43" s="58">
+        <v>0.03</v>
+      </c>
+      <c r="J43" s="42">
+        <v>25.5</v>
+      </c>
+      <c r="K43" s="55">
+        <f t="shared" si="10"/>
         <v>0.15</v>
       </c>
-      <c r="G10" s="42">
-        <v>5.5</v>
-      </c>
-      <c r="H10" s="55">
-        <f>F10*D10</f>
+      <c r="L43" s="55">
+        <f t="shared" si="11"/>
+        <v>127.5</v>
+      </c>
+      <c r="M43" s="42">
+        <f t="shared" si="12"/>
+        <v>0.85</v>
+      </c>
+      <c r="N43" s="42">
+        <v>1</v>
+      </c>
+      <c r="O43" s="52">
+        <f t="shared" si="13"/>
+        <v>0.85</v>
+      </c>
+      <c r="P43" s="42">
+        <f t="shared" si="14"/>
         <v>0.15</v>
       </c>
-      <c r="I10" s="55">
-        <f>G10*E10</f>
-        <v>5.5</v>
-      </c>
-      <c r="J10" s="42">
-        <f>(1-H10)</f>
-        <v>0.85</v>
-      </c>
-      <c r="K10" s="42">
-        <v>1</v>
-      </c>
-      <c r="L10" s="52">
-        <f>J10*K10</f>
-        <v>0.85</v>
-      </c>
-      <c r="M10" s="42">
-        <f>H10</f>
-        <v>0.15</v>
-      </c>
-      <c r="N10" s="42">
-        <f>I10</f>
-        <v>5.5</v>
-      </c>
-      <c r="O10" s="53">
-        <f>M10*N10</f>
-        <v>0.82499999999999996</v>
-      </c>
-      <c r="P10" s="54">
-        <f>L10+O10</f>
-        <v>1.6749999999999998</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19">
-      <c r="C11" s="56" t="s">
-        <v>260</v>
-      </c>
-      <c r="D11" s="39">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="E11" s="39">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="F11" s="58">
-        <v>0.03</v>
-      </c>
-      <c r="G11" s="42">
-        <v>25.5</v>
-      </c>
-      <c r="H11" s="55">
-        <f>F11*D11</f>
-        <v>0.03</v>
-      </c>
-      <c r="I11" s="55">
-        <f>G11*E11</f>
-        <v>25.5</v>
-      </c>
-      <c r="J11" s="42">
-        <f>(1-H11)</f>
-        <v>0.97</v>
-      </c>
-      <c r="K11" s="42">
-        <v>1</v>
-      </c>
-      <c r="L11" s="52">
-        <f>J11*K11</f>
-        <v>0.97</v>
-      </c>
-      <c r="M11" s="42">
-        <f>H11</f>
-        <v>0.03</v>
-      </c>
-      <c r="N11" s="42">
-        <f>I11</f>
-        <v>25.5</v>
-      </c>
-      <c r="O11" s="53">
-        <f>M11*N11</f>
-        <v>0.76500000000000001</v>
-      </c>
-      <c r="P11" s="54">
-        <f>L11+O11</f>
+      <c r="Q43" s="42">
+        <f t="shared" si="15"/>
+        <v>127.5</v>
+      </c>
+      <c r="R43" s="53">
+        <f t="shared" si="16"/>
+        <v>19.125</v>
+      </c>
+      <c r="S43" s="54">
+        <f t="shared" si="17"/>
+        <v>19.975000000000001</v>
+      </c>
+      <c r="T43" s="42">
+        <f t="shared" si="19"/>
+        <v>11.512968299711817</v>
+      </c>
+      <c r="U43" s="51">
+        <f t="shared" si="20"/>
+        <v>179.77500000000001</v>
+      </c>
+      <c r="V43">
         <v>1.7349999999999999</v>
       </c>
-    </row>
-    <row r="12" spans="1:19">
-      <c r="C12" s="56" t="s">
-        <v>261</v>
-      </c>
-      <c r="D12" s="39">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="E12" s="39">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="F12" s="58">
-        <v>0.05</v>
-      </c>
-      <c r="G12" s="42">
-        <v>15.5</v>
-      </c>
-      <c r="H12" s="55">
-        <f>F12*D12</f>
-        <v>0.05</v>
-      </c>
-      <c r="I12" s="55">
-        <f>G12*E12</f>
-        <v>15.5</v>
-      </c>
-      <c r="J12" s="42">
-        <f>(1-H12)</f>
-        <v>0.95</v>
-      </c>
-      <c r="K12" s="42">
-        <v>1</v>
-      </c>
-      <c r="L12" s="52">
-        <f>J12*K12</f>
-        <v>0.95</v>
-      </c>
-      <c r="M12" s="42">
-        <f>H12</f>
-        <v>0.05</v>
-      </c>
-      <c r="N12" s="42">
-        <f>I12</f>
-        <v>15.5</v>
-      </c>
-      <c r="O12" s="53">
-        <f>M12*N12</f>
-        <v>0.77500000000000002</v>
-      </c>
-      <c r="P12" s="54">
-        <f>L12+O12</f>
-        <v>1.7250000000000001</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19">
-      <c r="C13" s="56" t="s">
-        <v>262</v>
-      </c>
-      <c r="D13" s="39">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="E13" s="39">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="F13" s="58">
-        <v>0.06</v>
-      </c>
-      <c r="G13" s="42">
-        <v>13</v>
-      </c>
-      <c r="H13" s="55">
-        <f>F13*D13</f>
-        <v>0.06</v>
-      </c>
-      <c r="I13" s="55">
-        <f>G13*E13</f>
-        <v>13</v>
-      </c>
-      <c r="J13" s="42">
-        <f>(1-H13)</f>
-        <v>0.94</v>
-      </c>
-      <c r="K13" s="42">
-        <v>1</v>
-      </c>
-      <c r="L13" s="52">
-        <f>J13*K13</f>
-        <v>0.94</v>
-      </c>
-      <c r="M13" s="42">
-        <f>H13</f>
-        <v>0.06</v>
-      </c>
-      <c r="N13" s="42">
-        <f>I13</f>
-        <v>13</v>
-      </c>
-      <c r="O13" s="53">
-        <f>M13*N13</f>
-        <v>0.78</v>
-      </c>
-      <c r="P13" s="54">
-        <f>L13+O13</f>
-        <v>1.72</v>
-      </c>
-      <c r="Q13" s="39" t="s">
-        <v>266</v>
-      </c>
-      <c r="R13" s="39" t="s">
-        <v>269</v>
-      </c>
-      <c r="S13" s="39" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19">
-      <c r="C14" s="56" t="s">
-        <v>263</v>
-      </c>
-      <c r="D14" s="39">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="E14" s="39">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="F14" s="58">
-        <v>0.03</v>
-      </c>
-      <c r="G14" s="42">
-        <v>25.5</v>
-      </c>
-      <c r="H14" s="55">
-        <f>F14*D14</f>
-        <v>0.03</v>
-      </c>
-      <c r="I14" s="55">
-        <f>G14*E14</f>
-        <v>25.5</v>
-      </c>
-      <c r="J14" s="42">
-        <f>(1-H14)</f>
-        <v>0.97</v>
-      </c>
-      <c r="K14" s="42">
-        <v>1</v>
-      </c>
-      <c r="L14" s="52">
-        <f>J14*K14</f>
-        <v>0.97</v>
-      </c>
-      <c r="M14" s="42">
-        <f>H14</f>
-        <v>0.03</v>
-      </c>
-      <c r="N14" s="42">
-        <f>I14</f>
-        <v>25.5</v>
-      </c>
-      <c r="O14" s="53">
-        <f>M14*N14</f>
-        <v>0.76500000000000001</v>
-      </c>
-      <c r="P14" s="54">
-        <f>L14+O14</f>
-        <v>1.7349999999999999</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19">
-      <c r="C15" s="57" t="s">
+      <c r="W43" s="42">
+        <f t="shared" si="21"/>
+        <v>103.61671469740635</v>
+      </c>
+    </row>
+    <row r="44" spans="3:23">
+      <c r="C44" s="57" t="s">
         <v>264</v>
       </c>
-      <c r="D15" s="39">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="E15" s="39">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="F15" s="58">
+      <c r="D44" s="39"/>
+      <c r="E44" s="51">
+        <f t="shared" si="22"/>
+        <v>3</v>
+      </c>
+      <c r="F44" s="51">
+        <f t="shared" si="23"/>
+        <v>3</v>
+      </c>
+      <c r="G44" s="51">
+        <f t="shared" si="24"/>
+        <v>5</v>
+      </c>
+      <c r="H44" s="51">
+        <f t="shared" si="25"/>
+        <v>5</v>
+      </c>
+      <c r="I44" s="58">
         <v>0.2</v>
       </c>
-      <c r="G15" s="42">
+      <c r="J44" s="42">
         <v>4.25</v>
       </c>
-      <c r="H15" s="55">
-        <f>F15*D15</f>
-        <v>0.2</v>
-      </c>
-      <c r="I15" s="55">
-        <f>G15*E15</f>
-        <v>4.25</v>
-      </c>
-      <c r="J15" s="42">
-        <f>(1-H15)</f>
-        <v>0.8</v>
-      </c>
-      <c r="K15" s="42">
-        <v>1</v>
-      </c>
-      <c r="L15" s="52">
-        <f>J15*K15</f>
-        <v>0.8</v>
-      </c>
-      <c r="M15" s="42">
-        <f>H15</f>
-        <v>0.2</v>
-      </c>
-      <c r="N15" s="42">
-        <f>I15</f>
-        <v>4.25</v>
-      </c>
-      <c r="O15" s="53">
-        <f>M15*N15</f>
-        <v>0.85000000000000009</v>
-      </c>
-      <c r="P15" s="54">
-        <f>L15+O15</f>
+      <c r="K44" s="55">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="L44" s="55">
+        <f t="shared" si="11"/>
+        <v>21.25</v>
+      </c>
+      <c r="M44" s="42">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="N44" s="42">
+        <v>1</v>
+      </c>
+      <c r="O44" s="52">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="P44" s="42">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="Q44" s="42">
+        <f t="shared" si="15"/>
+        <v>21.25</v>
+      </c>
+      <c r="R44" s="53">
+        <f t="shared" si="16"/>
+        <v>21.25</v>
+      </c>
+      <c r="S44" s="54">
+        <f t="shared" si="17"/>
+        <v>21.25</v>
+      </c>
+      <c r="T44" s="42">
+        <f t="shared" si="19"/>
+        <v>12.878787878787877</v>
+      </c>
+      <c r="U44" s="51">
+        <f t="shared" si="20"/>
+        <v>191.25</v>
+      </c>
+      <c r="V44">
         <v>1.6500000000000001</v>
       </c>
-      <c r="R15" s="39" t="s">
-        <v>241</v>
-      </c>
-      <c r="S15" s="39" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19">
-      <c r="R16" s="39" t="s">
-        <v>270</v>
-      </c>
-      <c r="S16" s="39" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="18" spans="3:9">
-      <c r="G18" s="42">
-        <v>1.55</v>
-      </c>
-      <c r="H18">
-        <v>31</v>
-      </c>
-      <c r="I18">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="3:9">
-      <c r="C19" s="39" t="s">
-        <v>272</v>
-      </c>
-      <c r="D19" s="39" t="s">
-        <v>277</v>
-      </c>
-      <c r="E19" s="39" t="s">
-        <v>278</v>
-      </c>
-      <c r="G19" s="42">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="20" spans="3:9">
-      <c r="C20" s="39" t="s">
-        <v>265</v>
-      </c>
-      <c r="D20" s="42">
-        <v>3</v>
-      </c>
-      <c r="E20" s="42">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="3:9">
-      <c r="D22" s="39" t="s">
-        <v>273</v>
-      </c>
-      <c r="E22" s="39" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="23" spans="3:9">
-      <c r="D23" s="39" t="s">
-        <v>274</v>
-      </c>
-      <c r="E23" s="39" t="s">
-        <v>274</v>
+      <c r="W44" s="42">
+        <f t="shared" si="21"/>
+        <v>115.90909090909091</v>
       </c>
     </row>
   </sheetData>

--- a/Doc/XmlDataDocument_170316.xlsx
+++ b/Doc/XmlDataDocument_170316.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="15300" yWindow="45" windowWidth="12300" windowHeight="13020" activeTab="4"/>
+    <workbookView xWindow="15300" yWindow="45" windowWidth="12300" windowHeight="13020" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Research" sheetId="5" r:id="rId1"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="283">
   <si>
     <t>hero</t>
   </si>
@@ -1126,54 +1126,6 @@
   <si>
     <t>baseskillratexk</t>
   </si>
-  <si>
-    <t>100%기준뎀</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스킬합계</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>전체데미지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>배율</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스킬쪽배율</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>400%최대</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>증가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>공속+200%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>증뎀</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>증뎀+200%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스킬확률+400%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스킬증뎀+400%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
 </sst>
 </file>
 
@@ -1183,7 +1135,7 @@
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
     <numFmt numFmtId="177" formatCode="0.00_ "/>
     <numFmt numFmtId="178" formatCode="0.000_ "/>
-    <numFmt numFmtId="179" formatCode="0.0%"/>
+    <numFmt numFmtId="185" formatCode="0.0%"/>
   </numFmts>
   <fonts count="8">
     <font>
@@ -1642,7 +1594,7 @@
     <xf numFmtId="0" fontId="7" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="185" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
@@ -5308,7 +5260,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
       <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
@@ -32479,1609 +32431,703 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="C7:W44"/>
+  <dimension ref="A3:S23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F6" sqref="F6:F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData>
-    <row r="7" spans="3:19">
-      <c r="G7" s="39" t="s">
+    <row r="3" spans="1:19">
+      <c r="D3" s="39" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="8" spans="3:19">
-      <c r="D8" s="39" t="s">
+    <row r="4" spans="1:19">
+      <c r="A4" s="39" t="s">
         <v>276</v>
       </c>
-      <c r="E8" s="39" t="s">
+      <c r="B4" s="39" t="s">
         <v>279</v>
       </c>
-      <c r="M8" s="39" t="s">
+      <c r="J4" s="39" t="s">
         <v>245</v>
       </c>
-      <c r="N8" s="39" t="s">
+      <c r="K4" s="39" t="s">
         <v>245</v>
       </c>
-      <c r="O8" s="39" t="s">
+      <c r="L4" s="39" t="s">
         <v>248</v>
       </c>
-      <c r="P8" s="39" t="s">
+      <c r="M4" s="39" t="s">
         <v>246</v>
       </c>
-      <c r="Q8" s="39" t="s">
+      <c r="N4" s="39" t="s">
         <v>246</v>
       </c>
-      <c r="R8" s="39" t="s">
+      <c r="O4" s="39" t="s">
         <v>246</v>
       </c>
-      <c r="S8" s="51" t="s">
+      <c r="P4" s="51" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="9" spans="3:19">
-      <c r="E9" s="39" t="s">
+    <row r="5" spans="1:19">
+      <c r="A5" s="39" t="s">
         <v>280</v>
       </c>
-      <c r="F9" s="39" t="s">
+      <c r="B5" s="39" t="s">
         <v>275</v>
       </c>
-      <c r="G9" s="39" t="s">
+      <c r="D5" s="39" t="s">
         <v>251</v>
       </c>
-      <c r="H9" s="39" t="s">
+      <c r="E5" s="39" t="s">
         <v>252</v>
       </c>
-      <c r="I9" s="39" t="s">
+      <c r="F5" s="39" t="s">
         <v>242</v>
       </c>
-      <c r="J9" s="39" t="s">
+      <c r="G5" s="39" t="s">
         <v>244</v>
       </c>
-      <c r="K9" s="39" t="s">
+      <c r="H5" s="39" t="s">
         <v>253</v>
       </c>
-      <c r="L9" s="39" t="s">
+      <c r="I5" s="39" t="s">
         <v>254</v>
       </c>
-      <c r="M9" s="39" t="s">
+      <c r="J5" s="39" t="s">
         <v>243</v>
       </c>
-      <c r="N9" s="39" t="s">
+      <c r="K5" s="39" t="s">
         <v>247</v>
       </c>
-      <c r="P9" s="39" t="s">
+      <c r="M5" s="39" t="s">
         <v>243</v>
       </c>
-      <c r="Q9" s="39" t="s">
+      <c r="N5" s="39" t="s">
         <v>247</v>
       </c>
-      <c r="R9" s="39" t="s">
+      <c r="O5" s="39" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="10" spans="3:19">
+    <row r="6" spans="1:19">
+      <c r="B6" s="39">
+        <v>4</v>
+      </c>
+      <c r="C6" s="56" t="s">
+        <v>255</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6" s="58">
+        <v>0.12</v>
+      </c>
+      <c r="G6" s="42">
+        <v>6.75</v>
+      </c>
+      <c r="H6" s="55">
+        <f>F6*D6</f>
+        <v>0.12</v>
+      </c>
+      <c r="I6" s="55">
+        <f>G6*E6</f>
+        <v>6.75</v>
+      </c>
+      <c r="J6" s="42">
+        <f>(1-H6)</f>
+        <v>0.88</v>
+      </c>
+      <c r="K6" s="42">
+        <v>1</v>
+      </c>
+      <c r="L6" s="52">
+        <f>J6*K6</f>
+        <v>0.88</v>
+      </c>
+      <c r="M6" s="42">
+        <f>H6</f>
+        <v>0.12</v>
+      </c>
+      <c r="N6" s="42">
+        <f>I6</f>
+        <v>6.75</v>
+      </c>
+      <c r="O6" s="53">
+        <f>M6*N6</f>
+        <v>0.80999999999999994</v>
+      </c>
+      <c r="P6" s="54">
+        <f>L6+O6</f>
+        <v>1.69</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
+      <c r="C7" s="56" t="s">
+        <v>256</v>
+      </c>
+      <c r="D7">
+        <f>D6</f>
+        <v>1</v>
+      </c>
+      <c r="E7" s="39">
+        <f>E6</f>
+        <v>1</v>
+      </c>
+      <c r="F7" s="58">
+        <v>0.1</v>
+      </c>
+      <c r="G7" s="42">
+        <v>8</v>
+      </c>
+      <c r="H7" s="55">
+        <f>F7*D7</f>
+        <v>0.1</v>
+      </c>
+      <c r="I7" s="55">
+        <f>G7*E7</f>
+        <v>8</v>
+      </c>
+      <c r="J7" s="42">
+        <f>(1-H7)</f>
+        <v>0.9</v>
+      </c>
+      <c r="K7" s="42">
+        <v>1</v>
+      </c>
+      <c r="L7" s="52">
+        <f>J7*K7</f>
+        <v>0.9</v>
+      </c>
+      <c r="M7" s="42">
+        <f>H7</f>
+        <v>0.1</v>
+      </c>
+      <c r="N7" s="42">
+        <f>I7</f>
+        <v>8</v>
+      </c>
+      <c r="O7" s="53">
+        <f>M7*N7</f>
+        <v>0.8</v>
+      </c>
+      <c r="P7" s="54">
+        <f>L7+O7</f>
+        <v>1.7000000000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
+      <c r="C8" s="56" t="s">
+        <v>257</v>
+      </c>
+      <c r="D8" s="39">
+        <f t="shared" ref="D8:D15" si="0">D7</f>
+        <v>1</v>
+      </c>
+      <c r="E8" s="39">
+        <f t="shared" ref="E8:E15" si="1">E7</f>
+        <v>1</v>
+      </c>
+      <c r="F8" s="58">
+        <v>0.05</v>
+      </c>
+      <c r="G8" s="42">
+        <v>15.5</v>
+      </c>
+      <c r="H8" s="55">
+        <f>F8*D8</f>
+        <v>0.05</v>
+      </c>
+      <c r="I8" s="55">
+        <f>G8*E8</f>
+        <v>15.5</v>
+      </c>
+      <c r="J8" s="42">
+        <f>(1-H8)</f>
+        <v>0.95</v>
+      </c>
+      <c r="K8" s="42">
+        <v>1</v>
+      </c>
+      <c r="L8" s="52">
+        <f>J8*K8</f>
+        <v>0.95</v>
+      </c>
+      <c r="M8" s="42">
+        <f>H8</f>
+        <v>0.05</v>
+      </c>
+      <c r="N8" s="42">
+        <f>I8</f>
+        <v>15.5</v>
+      </c>
+      <c r="O8" s="53">
+        <f>M8*N8</f>
+        <v>0.77500000000000002</v>
+      </c>
+      <c r="P8" s="54">
+        <f>L8+O8</f>
+        <v>1.7250000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
+      <c r="C9" s="56" t="s">
+        <v>258</v>
+      </c>
+      <c r="D9" s="39">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E9" s="39">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F9" s="58">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="G9" s="42">
+        <v>10.5</v>
+      </c>
+      <c r="H9" s="55">
+        <f>F9*D9</f>
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="I9" s="55">
+        <f>G9*E9</f>
+        <v>10.5</v>
+      </c>
+      <c r="J9" s="42">
+        <f>(1-H9)</f>
+        <v>0.92500000000000004</v>
+      </c>
+      <c r="K9" s="42">
+        <v>1</v>
+      </c>
+      <c r="L9" s="52">
+        <f>J9*K9</f>
+        <v>0.92500000000000004</v>
+      </c>
+      <c r="M9" s="42">
+        <f>H9</f>
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="N9" s="42">
+        <f>I9</f>
+        <v>10.5</v>
+      </c>
+      <c r="O9" s="53">
+        <f>M9*N9</f>
+        <v>0.78749999999999998</v>
+      </c>
+      <c r="P9" s="54">
+        <f>L9+O9</f>
+        <v>1.7124999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="C10" s="56" t="s">
-        <v>255</v>
+        <v>259</v>
+      </c>
+      <c r="D10" s="39">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="E10" s="39">
-        <v>4</v>
-      </c>
-      <c r="G10">
-        <v>1</v>
-      </c>
-      <c r="H10">
-        <v>1</v>
-      </c>
-      <c r="I10" s="58">
-        <v>0.12</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F10" s="58">
+        <v>0.15</v>
+      </c>
+      <c r="G10" s="42">
+        <v>5.5</v>
+      </c>
+      <c r="H10" s="55">
+        <f>F10*D10</f>
+        <v>0.15</v>
+      </c>
+      <c r="I10" s="55">
+        <f>G10*E10</f>
+        <v>5.5</v>
       </c>
       <c r="J10" s="42">
-        <v>6.75</v>
-      </c>
-      <c r="K10" s="55">
-        <f t="shared" ref="K10:K19" si="0">I10*G10</f>
-        <v>0.12</v>
-      </c>
-      <c r="L10" s="55">
-        <f t="shared" ref="L10:L19" si="1">J10*H10</f>
-        <v>6.75</v>
+        <f>(1-H10)</f>
+        <v>0.85</v>
+      </c>
+      <c r="K10" s="42">
+        <v>1</v>
+      </c>
+      <c r="L10" s="52">
+        <f>J10*K10</f>
+        <v>0.85</v>
       </c>
       <c r="M10" s="42">
-        <f t="shared" ref="M10:M19" si="2">(1-K10)</f>
-        <v>0.88</v>
+        <f>H10</f>
+        <v>0.15</v>
       </c>
       <c r="N10" s="42">
-        <v>1</v>
-      </c>
-      <c r="O10" s="52">
-        <f t="shared" ref="O10:O19" si="3">M10*N10</f>
-        <v>0.88</v>
-      </c>
-      <c r="P10" s="42">
-        <f t="shared" ref="P10:P19" si="4">K10</f>
-        <v>0.12</v>
-      </c>
-      <c r="Q10" s="42">
-        <f t="shared" ref="Q10:Q19" si="5">L10</f>
-        <v>6.75</v>
-      </c>
-      <c r="R10" s="53">
-        <f t="shared" ref="R10:R19" si="6">P10*Q10</f>
-        <v>0.80999999999999994</v>
-      </c>
-      <c r="S10" s="54">
-        <f t="shared" ref="S10:S19" si="7">O10+R10</f>
-        <v>1.69</v>
-      </c>
-    </row>
-    <row r="11" spans="3:19">
+        <f>I10</f>
+        <v>5.5</v>
+      </c>
+      <c r="O10" s="53">
+        <f>M10*N10</f>
+        <v>0.82499999999999996</v>
+      </c>
+      <c r="P10" s="54">
+        <f>L10+O10</f>
+        <v>1.6749999999999998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="C11" s="56" t="s">
-        <v>256</v>
-      </c>
-      <c r="G11">
-        <f>G10</f>
-        <v>1</v>
-      </c>
-      <c r="H11" s="39">
-        <f>H10</f>
-        <v>1</v>
-      </c>
-      <c r="I11" s="58">
+        <v>260</v>
+      </c>
+      <c r="D11" s="39">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E11" s="39">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F11" s="58">
+        <v>0.03</v>
+      </c>
+      <c r="G11" s="42">
+        <v>25.5</v>
+      </c>
+      <c r="H11" s="55">
+        <f>F11*D11</f>
+        <v>0.03</v>
+      </c>
+      <c r="I11" s="55">
+        <f>G11*E11</f>
+        <v>25.5</v>
+      </c>
+      <c r="J11" s="42">
+        <f>(1-H11)</f>
+        <v>0.97</v>
+      </c>
+      <c r="K11" s="42">
+        <v>1</v>
+      </c>
+      <c r="L11" s="52">
+        <f>J11*K11</f>
+        <v>0.97</v>
+      </c>
+      <c r="M11" s="42">
+        <f>H11</f>
+        <v>0.03</v>
+      </c>
+      <c r="N11" s="42">
+        <f>I11</f>
+        <v>25.5</v>
+      </c>
+      <c r="O11" s="53">
+        <f>M11*N11</f>
+        <v>0.76500000000000001</v>
+      </c>
+      <c r="P11" s="54">
+        <f>L11+O11</f>
+        <v>1.7349999999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
+      <c r="C12" s="56" t="s">
+        <v>261</v>
+      </c>
+      <c r="D12" s="39">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E12" s="39">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F12" s="58">
+        <v>0.05</v>
+      </c>
+      <c r="G12" s="42">
+        <v>15.5</v>
+      </c>
+      <c r="H12" s="55">
+        <f>F12*D12</f>
+        <v>0.05</v>
+      </c>
+      <c r="I12" s="55">
+        <f>G12*E12</f>
+        <v>15.5</v>
+      </c>
+      <c r="J12" s="42">
+        <f>(1-H12)</f>
+        <v>0.95</v>
+      </c>
+      <c r="K12" s="42">
+        <v>1</v>
+      </c>
+      <c r="L12" s="52">
+        <f>J12*K12</f>
+        <v>0.95</v>
+      </c>
+      <c r="M12" s="42">
+        <f>H12</f>
+        <v>0.05</v>
+      </c>
+      <c r="N12" s="42">
+        <f>I12</f>
+        <v>15.5</v>
+      </c>
+      <c r="O12" s="53">
+        <f>M12*N12</f>
+        <v>0.77500000000000002</v>
+      </c>
+      <c r="P12" s="54">
+        <f>L12+O12</f>
+        <v>1.7250000000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
+      <c r="C13" s="56" t="s">
+        <v>262</v>
+      </c>
+      <c r="D13" s="39">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E13" s="39">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F13" s="58">
+        <v>0.06</v>
+      </c>
+      <c r="G13" s="42">
+        <v>13</v>
+      </c>
+      <c r="H13" s="55">
+        <f>F13*D13</f>
+        <v>0.06</v>
+      </c>
+      <c r="I13" s="55">
+        <f>G13*E13</f>
+        <v>13</v>
+      </c>
+      <c r="J13" s="42">
+        <f>(1-H13)</f>
+        <v>0.94</v>
+      </c>
+      <c r="K13" s="42">
+        <v>1</v>
+      </c>
+      <c r="L13" s="52">
+        <f>J13*K13</f>
+        <v>0.94</v>
+      </c>
+      <c r="M13" s="42">
+        <f>H13</f>
+        <v>0.06</v>
+      </c>
+      <c r="N13" s="42">
+        <f>I13</f>
+        <v>13</v>
+      </c>
+      <c r="O13" s="53">
+        <f>M13*N13</f>
+        <v>0.78</v>
+      </c>
+      <c r="P13" s="54">
+        <f>L13+O13</f>
+        <v>1.72</v>
+      </c>
+      <c r="Q13" s="39" t="s">
+        <v>266</v>
+      </c>
+      <c r="R13" s="39" t="s">
+        <v>269</v>
+      </c>
+      <c r="S13" s="39" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
+      <c r="C14" s="56" t="s">
+        <v>263</v>
+      </c>
+      <c r="D14" s="39">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E14" s="39">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F14" s="58">
+        <v>0.03</v>
+      </c>
+      <c r="G14" s="42">
+        <v>25.5</v>
+      </c>
+      <c r="H14" s="55">
+        <f>F14*D14</f>
+        <v>0.03</v>
+      </c>
+      <c r="I14" s="55">
+        <f>G14*E14</f>
+        <v>25.5</v>
+      </c>
+      <c r="J14" s="42">
+        <f>(1-H14)</f>
+        <v>0.97</v>
+      </c>
+      <c r="K14" s="42">
+        <v>1</v>
+      </c>
+      <c r="L14" s="52">
+        <f>J14*K14</f>
+        <v>0.97</v>
+      </c>
+      <c r="M14" s="42">
+        <f>H14</f>
+        <v>0.03</v>
+      </c>
+      <c r="N14" s="42">
+        <f>I14</f>
+        <v>25.5</v>
+      </c>
+      <c r="O14" s="53">
+        <f>M14*N14</f>
+        <v>0.76500000000000001</v>
+      </c>
+      <c r="P14" s="54">
+        <f>L14+O14</f>
+        <v>1.7349999999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
+      <c r="C15" s="57" t="s">
+        <v>264</v>
+      </c>
+      <c r="D15" s="39">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E15" s="39">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F15" s="58">
+        <v>0.2</v>
+      </c>
+      <c r="G15" s="42">
+        <v>4.25</v>
+      </c>
+      <c r="H15" s="55">
+        <f>F15*D15</f>
+        <v>0.2</v>
+      </c>
+      <c r="I15" s="55">
+        <f>G15*E15</f>
+        <v>4.25</v>
+      </c>
+      <c r="J15" s="42">
+        <f>(1-H15)</f>
+        <v>0.8</v>
+      </c>
+      <c r="K15" s="42">
+        <v>1</v>
+      </c>
+      <c r="L15" s="52">
+        <f>J15*K15</f>
+        <v>0.8</v>
+      </c>
+      <c r="M15" s="42">
+        <f>H15</f>
+        <v>0.2</v>
+      </c>
+      <c r="N15" s="42">
+        <f>I15</f>
+        <v>4.25</v>
+      </c>
+      <c r="O15" s="53">
+        <f>M15*N15</f>
+        <v>0.85000000000000009</v>
+      </c>
+      <c r="P15" s="54">
+        <f>L15+O15</f>
+        <v>1.6500000000000001</v>
+      </c>
+      <c r="R15" s="39" t="s">
+        <v>241</v>
+      </c>
+      <c r="S15" s="39" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
+      <c r="R16" s="39" t="s">
+        <v>270</v>
+      </c>
+      <c r="S16" s="39" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="18" spans="3:9">
+      <c r="G18" s="42">
+        <v>1.55</v>
+      </c>
+      <c r="H18">
+        <v>31</v>
+      </c>
+      <c r="I18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="3:9">
+      <c r="C19" s="39" t="s">
+        <v>272</v>
+      </c>
+      <c r="D19" s="39" t="s">
+        <v>277</v>
+      </c>
+      <c r="E19" s="39" t="s">
+        <v>278</v>
+      </c>
+      <c r="G19" s="42">
         <v>0.1</v>
       </c>
-      <c r="J11" s="42">
-        <v>8</v>
-      </c>
-      <c r="K11" s="55">
-        <f t="shared" si="0"/>
-        <v>0.1</v>
-      </c>
-      <c r="L11" s="55">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="M11" s="42">
-        <f t="shared" si="2"/>
-        <v>0.9</v>
-      </c>
-      <c r="N11" s="42">
-        <v>1</v>
-      </c>
-      <c r="O11" s="52">
-        <f t="shared" si="3"/>
-        <v>0.9</v>
-      </c>
-      <c r="P11" s="42">
-        <f t="shared" si="4"/>
-        <v>0.1</v>
-      </c>
-      <c r="Q11" s="42">
-        <f t="shared" si="5"/>
-        <v>8</v>
-      </c>
-      <c r="R11" s="53">
-        <f t="shared" si="6"/>
-        <v>0.8</v>
-      </c>
-      <c r="S11" s="54">
-        <f t="shared" si="7"/>
-        <v>1.7000000000000002</v>
-      </c>
-    </row>
-    <row r="12" spans="3:19">
-      <c r="C12" s="56" t="s">
-        <v>257</v>
-      </c>
-      <c r="G12" s="39">
-        <f t="shared" ref="G12:G19" si="8">G11</f>
-        <v>1</v>
-      </c>
-      <c r="H12" s="39">
-        <f t="shared" ref="H12:H19" si="9">H11</f>
-        <v>1</v>
-      </c>
-      <c r="I12" s="58">
-        <v>0.05</v>
-      </c>
-      <c r="J12" s="42">
-        <v>15.5</v>
-      </c>
-      <c r="K12" s="55">
-        <f t="shared" si="0"/>
-        <v>0.05</v>
-      </c>
-      <c r="L12" s="55">
-        <f t="shared" si="1"/>
-        <v>15.5</v>
-      </c>
-      <c r="M12" s="42">
-        <f t="shared" si="2"/>
-        <v>0.95</v>
-      </c>
-      <c r="N12" s="42">
-        <v>1</v>
-      </c>
-      <c r="O12" s="52">
-        <f t="shared" si="3"/>
-        <v>0.95</v>
-      </c>
-      <c r="P12" s="42">
-        <f t="shared" si="4"/>
-        <v>0.05</v>
-      </c>
-      <c r="Q12" s="42">
-        <f t="shared" si="5"/>
-        <v>15.5</v>
-      </c>
-      <c r="R12" s="53">
-        <f t="shared" si="6"/>
-        <v>0.77500000000000002</v>
-      </c>
-      <c r="S12" s="54">
-        <f t="shared" si="7"/>
-        <v>1.7250000000000001</v>
-      </c>
-    </row>
-    <row r="13" spans="3:19">
-      <c r="C13" s="56" t="s">
-        <v>258</v>
-      </c>
-      <c r="G13" s="39">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="H13" s="39">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="I13" s="58">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="J13" s="42">
-        <v>10.5</v>
-      </c>
-      <c r="K13" s="55">
-        <f t="shared" si="0"/>
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="L13" s="55">
-        <f t="shared" si="1"/>
-        <v>10.5</v>
-      </c>
-      <c r="M13" s="42">
-        <f t="shared" si="2"/>
-        <v>0.92500000000000004</v>
-      </c>
-      <c r="N13" s="42">
-        <v>1</v>
-      </c>
-      <c r="O13" s="52">
-        <f t="shared" si="3"/>
-        <v>0.92500000000000004</v>
-      </c>
-      <c r="P13" s="42">
-        <f t="shared" si="4"/>
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="Q13" s="42">
-        <f t="shared" si="5"/>
-        <v>10.5</v>
-      </c>
-      <c r="R13" s="53">
-        <f t="shared" si="6"/>
-        <v>0.78749999999999998</v>
-      </c>
-      <c r="S13" s="54">
-        <f t="shared" si="7"/>
-        <v>1.7124999999999999</v>
-      </c>
-    </row>
-    <row r="14" spans="3:19">
-      <c r="C14" s="56" t="s">
-        <v>259</v>
-      </c>
-      <c r="G14" s="39">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="H14" s="39">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="I14" s="58">
-        <v>0.15</v>
-      </c>
-      <c r="J14" s="42">
-        <v>5.5</v>
-      </c>
-      <c r="K14" s="55">
-        <f t="shared" si="0"/>
-        <v>0.15</v>
-      </c>
-      <c r="L14" s="55">
-        <f t="shared" si="1"/>
-        <v>5.5</v>
-      </c>
-      <c r="M14" s="42">
-        <f t="shared" si="2"/>
-        <v>0.85</v>
-      </c>
-      <c r="N14" s="42">
-        <v>1</v>
-      </c>
-      <c r="O14" s="52">
-        <f t="shared" si="3"/>
-        <v>0.85</v>
-      </c>
-      <c r="P14" s="42">
-        <f t="shared" si="4"/>
-        <v>0.15</v>
-      </c>
-      <c r="Q14" s="42">
-        <f t="shared" si="5"/>
-        <v>5.5</v>
-      </c>
-      <c r="R14" s="53">
-        <f t="shared" si="6"/>
-        <v>0.82499999999999996</v>
-      </c>
-      <c r="S14" s="54">
-        <f t="shared" si="7"/>
-        <v>1.6749999999999998</v>
-      </c>
-    </row>
-    <row r="15" spans="3:19">
-      <c r="C15" s="56" t="s">
-        <v>260</v>
-      </c>
-      <c r="G15" s="39">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="H15" s="39">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="I15" s="58">
-        <v>0.03</v>
-      </c>
-      <c r="J15" s="42">
-        <v>25.5</v>
-      </c>
-      <c r="K15" s="55">
-        <f t="shared" si="0"/>
-        <v>0.03</v>
-      </c>
-      <c r="L15" s="55">
-        <f t="shared" si="1"/>
-        <v>25.5</v>
-      </c>
-      <c r="M15" s="42">
-        <f t="shared" si="2"/>
-        <v>0.97</v>
-      </c>
-      <c r="N15" s="42">
-        <v>1</v>
-      </c>
-      <c r="O15" s="52">
-        <f t="shared" si="3"/>
-        <v>0.97</v>
-      </c>
-      <c r="P15" s="42">
-        <f t="shared" si="4"/>
-        <v>0.03</v>
-      </c>
-      <c r="Q15" s="42">
-        <f t="shared" si="5"/>
-        <v>25.5</v>
-      </c>
-      <c r="R15" s="53">
-        <f t="shared" si="6"/>
-        <v>0.76500000000000001</v>
-      </c>
-      <c r="S15" s="54">
-        <f t="shared" si="7"/>
-        <v>1.7349999999999999</v>
-      </c>
-    </row>
-    <row r="16" spans="3:19">
-      <c r="C16" s="56" t="s">
-        <v>261</v>
-      </c>
-      <c r="G16" s="39">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="H16" s="39">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="I16" s="58">
-        <v>0.05</v>
-      </c>
-      <c r="J16" s="42">
-        <v>15.5</v>
-      </c>
-      <c r="K16" s="55">
-        <f t="shared" si="0"/>
-        <v>0.05</v>
-      </c>
-      <c r="L16" s="55">
-        <f t="shared" si="1"/>
-        <v>15.5</v>
-      </c>
-      <c r="M16" s="42">
-        <f t="shared" si="2"/>
-        <v>0.95</v>
-      </c>
-      <c r="N16" s="42">
-        <v>1</v>
-      </c>
-      <c r="O16" s="52">
-        <f t="shared" si="3"/>
-        <v>0.95</v>
-      </c>
-      <c r="P16" s="42">
-        <f t="shared" si="4"/>
-        <v>0.05</v>
-      </c>
-      <c r="Q16" s="42">
-        <f t="shared" si="5"/>
-        <v>15.5</v>
-      </c>
-      <c r="R16" s="53">
-        <f t="shared" si="6"/>
-        <v>0.77500000000000002</v>
-      </c>
-      <c r="S16" s="54">
-        <f t="shared" si="7"/>
-        <v>1.7250000000000001</v>
-      </c>
-    </row>
-    <row r="17" spans="3:22">
-      <c r="C17" s="56" t="s">
-        <v>262</v>
-      </c>
-      <c r="G17" s="39">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="H17" s="39">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="I17" s="58">
-        <v>0.06</v>
-      </c>
-      <c r="J17" s="42">
-        <v>13</v>
-      </c>
-      <c r="K17" s="55">
-        <f t="shared" si="0"/>
-        <v>0.06</v>
-      </c>
-      <c r="L17" s="55">
-        <f t="shared" si="1"/>
-        <v>13</v>
-      </c>
-      <c r="M17" s="42">
-        <f t="shared" si="2"/>
-        <v>0.94</v>
-      </c>
-      <c r="N17" s="42">
-        <v>1</v>
-      </c>
-      <c r="O17" s="52">
-        <f t="shared" si="3"/>
-        <v>0.94</v>
-      </c>
-      <c r="P17" s="42">
-        <f t="shared" si="4"/>
-        <v>0.06</v>
-      </c>
-      <c r="Q17" s="42">
-        <f t="shared" si="5"/>
-        <v>13</v>
-      </c>
-      <c r="R17" s="53">
-        <f t="shared" si="6"/>
-        <v>0.78</v>
-      </c>
-      <c r="S17" s="54">
-        <f t="shared" si="7"/>
-        <v>1.72</v>
-      </c>
-      <c r="T17" s="39" t="s">
-        <v>266</v>
-      </c>
-      <c r="U17" s="39" t="s">
-        <v>269</v>
-      </c>
-      <c r="V17" s="39" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="18" spans="3:22">
-      <c r="C18" s="56" t="s">
-        <v>263</v>
-      </c>
-      <c r="G18" s="39">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="H18" s="39">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="I18" s="58">
-        <v>0.03</v>
-      </c>
-      <c r="J18" s="42">
-        <v>25.5</v>
-      </c>
-      <c r="K18" s="55">
-        <f t="shared" si="0"/>
-        <v>0.03</v>
-      </c>
-      <c r="L18" s="55">
-        <f t="shared" si="1"/>
-        <v>25.5</v>
-      </c>
-      <c r="M18" s="42">
-        <f t="shared" si="2"/>
-        <v>0.97</v>
-      </c>
-      <c r="N18" s="42">
-        <v>1</v>
-      </c>
-      <c r="O18" s="52">
-        <f t="shared" si="3"/>
-        <v>0.97</v>
-      </c>
-      <c r="P18" s="42">
-        <f t="shared" si="4"/>
-        <v>0.03</v>
-      </c>
-      <c r="Q18" s="42">
-        <f t="shared" si="5"/>
-        <v>25.5</v>
-      </c>
-      <c r="R18" s="53">
-        <f t="shared" si="6"/>
-        <v>0.76500000000000001</v>
-      </c>
-      <c r="S18" s="54">
-        <f t="shared" si="7"/>
-        <v>1.7349999999999999</v>
-      </c>
-    </row>
-    <row r="19" spans="3:22">
-      <c r="C19" s="57" t="s">
-        <v>264</v>
-      </c>
-      <c r="G19" s="39">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="H19" s="39">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="I19" s="58">
-        <v>0.2</v>
-      </c>
-      <c r="J19" s="42">
-        <v>4.25</v>
-      </c>
-      <c r="K19" s="55">
-        <f t="shared" si="0"/>
-        <v>0.2</v>
-      </c>
-      <c r="L19" s="55">
-        <f t="shared" si="1"/>
-        <v>4.25</v>
-      </c>
-      <c r="M19" s="42">
-        <f t="shared" si="2"/>
-        <v>0.8</v>
-      </c>
-      <c r="N19" s="42">
-        <v>1</v>
-      </c>
-      <c r="O19" s="52">
-        <f t="shared" si="3"/>
-        <v>0.8</v>
-      </c>
-      <c r="P19" s="42">
-        <f t="shared" si="4"/>
-        <v>0.2</v>
-      </c>
-      <c r="Q19" s="42">
-        <f t="shared" si="5"/>
-        <v>4.25</v>
-      </c>
-      <c r="R19" s="53">
-        <f t="shared" si="6"/>
-        <v>0.85000000000000009</v>
-      </c>
-      <c r="S19" s="54">
-        <f t="shared" si="7"/>
-        <v>1.6500000000000001</v>
-      </c>
-      <c r="U19" s="39" t="s">
-        <v>241</v>
-      </c>
-      <c r="V19" s="39" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="20" spans="3:22">
-      <c r="U20" s="39" t="s">
-        <v>270</v>
-      </c>
-      <c r="V20" s="39" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="22" spans="3:22">
-      <c r="J22" s="42">
-        <v>1.55</v>
-      </c>
-      <c r="K22">
-        <v>31</v>
-      </c>
-      <c r="L22">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="3:22">
-      <c r="F23" s="39" t="s">
-        <v>272</v>
-      </c>
-      <c r="G23" s="39" t="s">
-        <v>277</v>
-      </c>
-      <c r="H23" s="39" t="s">
-        <v>278</v>
-      </c>
-      <c r="J23" s="42">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="24" spans="3:22">
-      <c r="F24" s="39" t="s">
+    </row>
+    <row r="20" spans="3:9">
+      <c r="C20" s="39" t="s">
         <v>265</v>
       </c>
-      <c r="G24" s="42">
+      <c r="D20" s="42">
         <v>3</v>
       </c>
-      <c r="H24" s="42">
+      <c r="E20" s="42">
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="3:22">
-      <c r="G26" s="39" t="s">
+    <row r="22" spans="3:9">
+      <c r="D22" s="39" t="s">
         <v>273</v>
       </c>
-      <c r="H26" s="39" t="s">
+      <c r="E22" s="39" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="27" spans="3:22">
-      <c r="G27" s="39" t="s">
+    <row r="23" spans="3:9">
+      <c r="D23" s="39" t="s">
         <v>274</v>
       </c>
-      <c r="H27" s="39" t="s">
+      <c r="E23" s="39" t="s">
         <v>274</v>
-      </c>
-    </row>
-    <row r="31" spans="3:22">
-      <c r="D31" s="39" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="32" spans="3:22">
-      <c r="C32" s="39"/>
-      <c r="D32" s="39" t="s">
-        <v>288</v>
-      </c>
-      <c r="E32" s="39" t="s">
-        <v>292</v>
-      </c>
-      <c r="F32" s="39" t="s">
-        <v>290</v>
-      </c>
-      <c r="G32" s="39" t="s">
-        <v>293</v>
-      </c>
-      <c r="H32" s="39" t="s">
-        <v>294</v>
-      </c>
-      <c r="I32" s="39"/>
-      <c r="J32" s="39"/>
-      <c r="K32" s="39"/>
-      <c r="L32" s="39"/>
-      <c r="M32" s="39"/>
-      <c r="N32" s="39"/>
-      <c r="O32" s="39"/>
-      <c r="P32" s="39"/>
-      <c r="Q32" s="39"/>
-      <c r="R32" s="39"/>
-      <c r="S32" s="39"/>
-    </row>
-    <row r="33" spans="3:23">
-      <c r="C33" s="39"/>
-      <c r="D33" s="39"/>
-      <c r="E33" s="39"/>
-      <c r="F33" s="39"/>
-      <c r="G33" s="39"/>
-      <c r="H33" s="39"/>
-      <c r="I33" s="39"/>
-      <c r="J33" s="39"/>
-      <c r="K33" s="39"/>
-      <c r="L33" s="39"/>
-      <c r="M33" s="39" t="s">
-        <v>245</v>
-      </c>
-      <c r="N33" s="39" t="s">
-        <v>245</v>
-      </c>
-      <c r="O33" s="39" t="s">
-        <v>248</v>
-      </c>
-      <c r="P33" s="39" t="s">
-        <v>246</v>
-      </c>
-      <c r="Q33" s="39" t="s">
-        <v>246</v>
-      </c>
-      <c r="R33" s="39" t="s">
-        <v>246</v>
-      </c>
-      <c r="S33" s="51" t="s">
-        <v>284</v>
-      </c>
-      <c r="T33" s="39" t="s">
-        <v>287</v>
-      </c>
-      <c r="U33" s="39" t="s">
-        <v>285</v>
-      </c>
-      <c r="V33" s="39" t="s">
-        <v>283</v>
-      </c>
-      <c r="W33" s="39" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="34" spans="3:23">
-      <c r="C34" s="39"/>
-      <c r="D34" s="39"/>
-      <c r="E34" s="39" t="s">
-        <v>291</v>
-      </c>
-      <c r="F34" s="39" t="s">
-        <v>275</v>
-      </c>
-      <c r="G34" s="39" t="s">
-        <v>251</v>
-      </c>
-      <c r="H34" s="39" t="s">
-        <v>252</v>
-      </c>
-      <c r="I34" s="39" t="s">
-        <v>242</v>
-      </c>
-      <c r="J34" s="39" t="s">
-        <v>244</v>
-      </c>
-      <c r="K34" s="39" t="s">
-        <v>253</v>
-      </c>
-      <c r="L34" s="39" t="s">
-        <v>254</v>
-      </c>
-      <c r="M34" s="39" t="s">
-        <v>243</v>
-      </c>
-      <c r="N34" s="39" t="s">
-        <v>247</v>
-      </c>
-      <c r="O34" s="39"/>
-      <c r="P34" s="39" t="s">
-        <v>243</v>
-      </c>
-      <c r="Q34" s="39" t="s">
-        <v>247</v>
-      </c>
-      <c r="R34" s="39" t="s">
-        <v>249</v>
-      </c>
-      <c r="S34" s="39"/>
-    </row>
-    <row r="35" spans="3:23">
-      <c r="C35" s="56" t="s">
-        <v>255</v>
-      </c>
-      <c r="D35" s="42">
-        <v>4</v>
-      </c>
-      <c r="E35" s="51">
-        <f>100%+$D$35/2</f>
-        <v>3</v>
-      </c>
-      <c r="F35" s="51">
-        <f>100%+$D$35/2</f>
-        <v>3</v>
-      </c>
-      <c r="G35" s="51">
-        <f>100%+$D$35</f>
-        <v>5</v>
-      </c>
-      <c r="H35" s="51">
-        <f>100%+$D$35</f>
-        <v>5</v>
-      </c>
-      <c r="I35" s="58">
-        <v>0.12</v>
-      </c>
-      <c r="J35" s="42">
-        <v>6.75</v>
-      </c>
-      <c r="K35" s="55">
-        <f t="shared" ref="K35:K44" si="10">I35*G35</f>
-        <v>0.6</v>
-      </c>
-      <c r="L35" s="55">
-        <f t="shared" ref="L35:L44" si="11">J35*H35</f>
-        <v>33.75</v>
-      </c>
-      <c r="M35" s="42">
-        <f t="shared" ref="M35:M44" si="12">(1-K35)</f>
-        <v>0.4</v>
-      </c>
-      <c r="N35" s="42">
-        <v>1</v>
-      </c>
-      <c r="O35" s="52">
-        <f t="shared" ref="O35:O44" si="13">M35*N35</f>
-        <v>0.4</v>
-      </c>
-      <c r="P35" s="42">
-        <f t="shared" ref="P35:P44" si="14">K35</f>
-        <v>0.6</v>
-      </c>
-      <c r="Q35" s="42">
-        <f t="shared" ref="Q35:Q44" si="15">L35</f>
-        <v>33.75</v>
-      </c>
-      <c r="R35" s="53">
-        <f t="shared" ref="R35:R44" si="16">P35*Q35</f>
-        <v>20.25</v>
-      </c>
-      <c r="S35" s="54">
-        <f t="shared" ref="S35:S44" si="17">O35+R35</f>
-        <v>20.65</v>
-      </c>
-      <c r="T35" s="42">
-        <f>S35/V35</f>
-        <v>12.218934911242602</v>
-      </c>
-      <c r="U35" s="51">
-        <f>E35*F35*S35</f>
-        <v>185.85</v>
-      </c>
-      <c r="V35">
-        <v>1.69</v>
-      </c>
-      <c r="W35" s="42">
-        <f>U35/V35</f>
-        <v>109.97041420118343</v>
-      </c>
-    </row>
-    <row r="36" spans="3:23">
-      <c r="C36" s="56" t="s">
-        <v>256</v>
-      </c>
-      <c r="D36" s="39"/>
-      <c r="E36" s="51">
-        <f>E35</f>
-        <v>3</v>
-      </c>
-      <c r="F36" s="51">
-        <f t="shared" ref="F36:H36" si="18">F35</f>
-        <v>3</v>
-      </c>
-      <c r="G36" s="51">
-        <f t="shared" si="18"/>
-        <v>5</v>
-      </c>
-      <c r="H36" s="51">
-        <f t="shared" si="18"/>
-        <v>5</v>
-      </c>
-      <c r="I36" s="58">
-        <v>0.1</v>
-      </c>
-      <c r="J36" s="42">
-        <v>8</v>
-      </c>
-      <c r="K36" s="55">
-        <f t="shared" si="10"/>
-        <v>0.5</v>
-      </c>
-      <c r="L36" s="55">
-        <f t="shared" si="11"/>
-        <v>40</v>
-      </c>
-      <c r="M36" s="42">
-        <f t="shared" si="12"/>
-        <v>0.5</v>
-      </c>
-      <c r="N36" s="42">
-        <v>1</v>
-      </c>
-      <c r="O36" s="52">
-        <f t="shared" si="13"/>
-        <v>0.5</v>
-      </c>
-      <c r="P36" s="42">
-        <f t="shared" si="14"/>
-        <v>0.5</v>
-      </c>
-      <c r="Q36" s="42">
-        <f t="shared" si="15"/>
-        <v>40</v>
-      </c>
-      <c r="R36" s="53">
-        <f t="shared" si="16"/>
-        <v>20</v>
-      </c>
-      <c r="S36" s="54">
-        <f t="shared" si="17"/>
-        <v>20.5</v>
-      </c>
-      <c r="T36" s="42">
-        <f t="shared" ref="T36:T44" si="19">S36/V36</f>
-        <v>12.058823529411763</v>
-      </c>
-      <c r="U36" s="51">
-        <f t="shared" ref="U36:U44" si="20">E36*F36*S36</f>
-        <v>184.5</v>
-      </c>
-      <c r="V36">
-        <v>1.7000000000000002</v>
-      </c>
-      <c r="W36" s="42">
-        <f t="shared" ref="W36:W44" si="21">U36/V36</f>
-        <v>108.52941176470587</v>
-      </c>
-    </row>
-    <row r="37" spans="3:23">
-      <c r="C37" s="56" t="s">
-        <v>257</v>
-      </c>
-      <c r="D37" s="39"/>
-      <c r="E37" s="51">
-        <f t="shared" ref="E37:E44" si="22">E36</f>
-        <v>3</v>
-      </c>
-      <c r="F37" s="51">
-        <f t="shared" ref="F37:F44" si="23">F36</f>
-        <v>3</v>
-      </c>
-      <c r="G37" s="51">
-        <f t="shared" ref="G37:G44" si="24">G36</f>
-        <v>5</v>
-      </c>
-      <c r="H37" s="51">
-        <f t="shared" ref="H37:H44" si="25">H36</f>
-        <v>5</v>
-      </c>
-      <c r="I37" s="58">
-        <v>0.05</v>
-      </c>
-      <c r="J37" s="42">
-        <v>15.5</v>
-      </c>
-      <c r="K37" s="55">
-        <f t="shared" si="10"/>
-        <v>0.25</v>
-      </c>
-      <c r="L37" s="55">
-        <f t="shared" si="11"/>
-        <v>77.5</v>
-      </c>
-      <c r="M37" s="42">
-        <f t="shared" si="12"/>
-        <v>0.75</v>
-      </c>
-      <c r="N37" s="42">
-        <v>1</v>
-      </c>
-      <c r="O37" s="52">
-        <f t="shared" si="13"/>
-        <v>0.75</v>
-      </c>
-      <c r="P37" s="42">
-        <f t="shared" si="14"/>
-        <v>0.25</v>
-      </c>
-      <c r="Q37" s="42">
-        <f t="shared" si="15"/>
-        <v>77.5</v>
-      </c>
-      <c r="R37" s="53">
-        <f t="shared" si="16"/>
-        <v>19.375</v>
-      </c>
-      <c r="S37" s="54">
-        <f t="shared" si="17"/>
-        <v>20.125</v>
-      </c>
-      <c r="T37" s="42">
-        <f t="shared" si="19"/>
-        <v>11.666666666666666</v>
-      </c>
-      <c r="U37" s="51">
-        <f t="shared" si="20"/>
-        <v>181.125</v>
-      </c>
-      <c r="V37">
-        <v>1.7250000000000001</v>
-      </c>
-      <c r="W37" s="42">
-        <f t="shared" si="21"/>
-        <v>105</v>
-      </c>
-    </row>
-    <row r="38" spans="3:23">
-      <c r="C38" s="56" t="s">
-        <v>258</v>
-      </c>
-      <c r="D38" s="39"/>
-      <c r="E38" s="51">
-        <f t="shared" si="22"/>
-        <v>3</v>
-      </c>
-      <c r="F38" s="51">
-        <f t="shared" si="23"/>
-        <v>3</v>
-      </c>
-      <c r="G38" s="51">
-        <f t="shared" si="24"/>
-        <v>5</v>
-      </c>
-      <c r="H38" s="51">
-        <f t="shared" si="25"/>
-        <v>5</v>
-      </c>
-      <c r="I38" s="58">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="J38" s="42">
-        <v>10.5</v>
-      </c>
-      <c r="K38" s="55">
-        <f t="shared" si="10"/>
-        <v>0.375</v>
-      </c>
-      <c r="L38" s="55">
-        <f t="shared" si="11"/>
-        <v>52.5</v>
-      </c>
-      <c r="M38" s="42">
-        <f t="shared" si="12"/>
-        <v>0.625</v>
-      </c>
-      <c r="N38" s="42">
-        <v>1</v>
-      </c>
-      <c r="O38" s="52">
-        <f t="shared" si="13"/>
-        <v>0.625</v>
-      </c>
-      <c r="P38" s="42">
-        <f t="shared" si="14"/>
-        <v>0.375</v>
-      </c>
-      <c r="Q38" s="42">
-        <f t="shared" si="15"/>
-        <v>52.5</v>
-      </c>
-      <c r="R38" s="53">
-        <f t="shared" si="16"/>
-        <v>19.6875</v>
-      </c>
-      <c r="S38" s="54">
-        <f t="shared" si="17"/>
-        <v>20.3125</v>
-      </c>
-      <c r="T38" s="42">
-        <f t="shared" si="19"/>
-        <v>11.86131386861314</v>
-      </c>
-      <c r="U38" s="51">
-        <f t="shared" si="20"/>
-        <v>182.8125</v>
-      </c>
-      <c r="V38">
-        <v>1.7124999999999999</v>
-      </c>
-      <c r="W38" s="42">
-        <f t="shared" si="21"/>
-        <v>106.75182481751825</v>
-      </c>
-    </row>
-    <row r="39" spans="3:23">
-      <c r="C39" s="56" t="s">
-        <v>259</v>
-      </c>
-      <c r="D39" s="39"/>
-      <c r="E39" s="51">
-        <f t="shared" si="22"/>
-        <v>3</v>
-      </c>
-      <c r="F39" s="51">
-        <f t="shared" si="23"/>
-        <v>3</v>
-      </c>
-      <c r="G39" s="51">
-        <f t="shared" si="24"/>
-        <v>5</v>
-      </c>
-      <c r="H39" s="51">
-        <f t="shared" si="25"/>
-        <v>5</v>
-      </c>
-      <c r="I39" s="58">
-        <v>0.15</v>
-      </c>
-      <c r="J39" s="42">
-        <v>5.5</v>
-      </c>
-      <c r="K39" s="55">
-        <f t="shared" si="10"/>
-        <v>0.75</v>
-      </c>
-      <c r="L39" s="55">
-        <f t="shared" si="11"/>
-        <v>27.5</v>
-      </c>
-      <c r="M39" s="42">
-        <f t="shared" si="12"/>
-        <v>0.25</v>
-      </c>
-      <c r="N39" s="42">
-        <v>1</v>
-      </c>
-      <c r="O39" s="52">
-        <f t="shared" si="13"/>
-        <v>0.25</v>
-      </c>
-      <c r="P39" s="42">
-        <f t="shared" si="14"/>
-        <v>0.75</v>
-      </c>
-      <c r="Q39" s="42">
-        <f t="shared" si="15"/>
-        <v>27.5</v>
-      </c>
-      <c r="R39" s="53">
-        <f t="shared" si="16"/>
-        <v>20.625</v>
-      </c>
-      <c r="S39" s="54">
-        <f t="shared" si="17"/>
-        <v>20.875</v>
-      </c>
-      <c r="T39" s="42">
-        <f t="shared" si="19"/>
-        <v>12.46268656716418</v>
-      </c>
-      <c r="U39" s="51">
-        <f t="shared" si="20"/>
-        <v>187.875</v>
-      </c>
-      <c r="V39">
-        <v>1.6749999999999998</v>
-      </c>
-      <c r="W39" s="42">
-        <f t="shared" si="21"/>
-        <v>112.16417910447763</v>
-      </c>
-    </row>
-    <row r="40" spans="3:23">
-      <c r="C40" s="56" t="s">
-        <v>260</v>
-      </c>
-      <c r="D40" s="39"/>
-      <c r="E40" s="51">
-        <f t="shared" si="22"/>
-        <v>3</v>
-      </c>
-      <c r="F40" s="51">
-        <f t="shared" si="23"/>
-        <v>3</v>
-      </c>
-      <c r="G40" s="51">
-        <f t="shared" si="24"/>
-        <v>5</v>
-      </c>
-      <c r="H40" s="51">
-        <f t="shared" si="25"/>
-        <v>5</v>
-      </c>
-      <c r="I40" s="58">
-        <v>0.03</v>
-      </c>
-      <c r="J40" s="42">
-        <v>25.5</v>
-      </c>
-      <c r="K40" s="55">
-        <f t="shared" si="10"/>
-        <v>0.15</v>
-      </c>
-      <c r="L40" s="55">
-        <f t="shared" si="11"/>
-        <v>127.5</v>
-      </c>
-      <c r="M40" s="42">
-        <f t="shared" si="12"/>
-        <v>0.85</v>
-      </c>
-      <c r="N40" s="42">
-        <v>1</v>
-      </c>
-      <c r="O40" s="52">
-        <f t="shared" si="13"/>
-        <v>0.85</v>
-      </c>
-      <c r="P40" s="42">
-        <f t="shared" si="14"/>
-        <v>0.15</v>
-      </c>
-      <c r="Q40" s="42">
-        <f t="shared" si="15"/>
-        <v>127.5</v>
-      </c>
-      <c r="R40" s="53">
-        <f t="shared" si="16"/>
-        <v>19.125</v>
-      </c>
-      <c r="S40" s="54">
-        <f t="shared" si="17"/>
-        <v>19.975000000000001</v>
-      </c>
-      <c r="T40" s="42">
-        <f t="shared" si="19"/>
-        <v>11.512968299711817</v>
-      </c>
-      <c r="U40" s="51">
-        <f t="shared" si="20"/>
-        <v>179.77500000000001</v>
-      </c>
-      <c r="V40">
-        <v>1.7349999999999999</v>
-      </c>
-      <c r="W40" s="42">
-        <f t="shared" si="21"/>
-        <v>103.61671469740635</v>
-      </c>
-    </row>
-    <row r="41" spans="3:23">
-      <c r="C41" s="56" t="s">
-        <v>261</v>
-      </c>
-      <c r="D41" s="39"/>
-      <c r="E41" s="51">
-        <f t="shared" si="22"/>
-        <v>3</v>
-      </c>
-      <c r="F41" s="51">
-        <f t="shared" si="23"/>
-        <v>3</v>
-      </c>
-      <c r="G41" s="51">
-        <f t="shared" si="24"/>
-        <v>5</v>
-      </c>
-      <c r="H41" s="51">
-        <f t="shared" si="25"/>
-        <v>5</v>
-      </c>
-      <c r="I41" s="58">
-        <v>0.05</v>
-      </c>
-      <c r="J41" s="42">
-        <v>15.5</v>
-      </c>
-      <c r="K41" s="55">
-        <f t="shared" si="10"/>
-        <v>0.25</v>
-      </c>
-      <c r="L41" s="55">
-        <f t="shared" si="11"/>
-        <v>77.5</v>
-      </c>
-      <c r="M41" s="42">
-        <f t="shared" si="12"/>
-        <v>0.75</v>
-      </c>
-      <c r="N41" s="42">
-        <v>1</v>
-      </c>
-      <c r="O41" s="52">
-        <f t="shared" si="13"/>
-        <v>0.75</v>
-      </c>
-      <c r="P41" s="42">
-        <f t="shared" si="14"/>
-        <v>0.25</v>
-      </c>
-      <c r="Q41" s="42">
-        <f t="shared" si="15"/>
-        <v>77.5</v>
-      </c>
-      <c r="R41" s="53">
-        <f t="shared" si="16"/>
-        <v>19.375</v>
-      </c>
-      <c r="S41" s="54">
-        <f t="shared" si="17"/>
-        <v>20.125</v>
-      </c>
-      <c r="T41" s="42">
-        <f t="shared" si="19"/>
-        <v>11.666666666666666</v>
-      </c>
-      <c r="U41" s="51">
-        <f t="shared" si="20"/>
-        <v>181.125</v>
-      </c>
-      <c r="V41">
-        <v>1.7250000000000001</v>
-      </c>
-      <c r="W41" s="42">
-        <f t="shared" si="21"/>
-        <v>105</v>
-      </c>
-    </row>
-    <row r="42" spans="3:23">
-      <c r="C42" s="56" t="s">
-        <v>262</v>
-      </c>
-      <c r="D42" s="39"/>
-      <c r="E42" s="51">
-        <f t="shared" si="22"/>
-        <v>3</v>
-      </c>
-      <c r="F42" s="51">
-        <f t="shared" si="23"/>
-        <v>3</v>
-      </c>
-      <c r="G42" s="51">
-        <f t="shared" si="24"/>
-        <v>5</v>
-      </c>
-      <c r="H42" s="51">
-        <f t="shared" si="25"/>
-        <v>5</v>
-      </c>
-      <c r="I42" s="58">
-        <v>0.06</v>
-      </c>
-      <c r="J42" s="42">
-        <v>13</v>
-      </c>
-      <c r="K42" s="55">
-        <f t="shared" si="10"/>
-        <v>0.3</v>
-      </c>
-      <c r="L42" s="55">
-        <f t="shared" si="11"/>
-        <v>65</v>
-      </c>
-      <c r="M42" s="42">
-        <f t="shared" si="12"/>
-        <v>0.7</v>
-      </c>
-      <c r="N42" s="42">
-        <v>1</v>
-      </c>
-      <c r="O42" s="52">
-        <f t="shared" si="13"/>
-        <v>0.7</v>
-      </c>
-      <c r="P42" s="42">
-        <f t="shared" si="14"/>
-        <v>0.3</v>
-      </c>
-      <c r="Q42" s="42">
-        <f t="shared" si="15"/>
-        <v>65</v>
-      </c>
-      <c r="R42" s="53">
-        <f t="shared" si="16"/>
-        <v>19.5</v>
-      </c>
-      <c r="S42" s="54">
-        <f t="shared" si="17"/>
-        <v>20.2</v>
-      </c>
-      <c r="T42" s="42">
-        <f t="shared" si="19"/>
-        <v>11.744186046511627</v>
-      </c>
-      <c r="U42" s="51">
-        <f t="shared" si="20"/>
-        <v>181.79999999999998</v>
-      </c>
-      <c r="V42">
-        <v>1.72</v>
-      </c>
-      <c r="W42" s="42">
-        <f t="shared" si="21"/>
-        <v>105.69767441860465</v>
-      </c>
-    </row>
-    <row r="43" spans="3:23">
-      <c r="C43" s="56" t="s">
-        <v>263</v>
-      </c>
-      <c r="D43" s="39"/>
-      <c r="E43" s="51">
-        <f t="shared" si="22"/>
-        <v>3</v>
-      </c>
-      <c r="F43" s="51">
-        <f t="shared" si="23"/>
-        <v>3</v>
-      </c>
-      <c r="G43" s="51">
-        <f t="shared" si="24"/>
-        <v>5</v>
-      </c>
-      <c r="H43" s="51">
-        <f t="shared" si="25"/>
-        <v>5</v>
-      </c>
-      <c r="I43" s="58">
-        <v>0.03</v>
-      </c>
-      <c r="J43" s="42">
-        <v>25.5</v>
-      </c>
-      <c r="K43" s="55">
-        <f t="shared" si="10"/>
-        <v>0.15</v>
-      </c>
-      <c r="L43" s="55">
-        <f t="shared" si="11"/>
-        <v>127.5</v>
-      </c>
-      <c r="M43" s="42">
-        <f t="shared" si="12"/>
-        <v>0.85</v>
-      </c>
-      <c r="N43" s="42">
-        <v>1</v>
-      </c>
-      <c r="O43" s="52">
-        <f t="shared" si="13"/>
-        <v>0.85</v>
-      </c>
-      <c r="P43" s="42">
-        <f t="shared" si="14"/>
-        <v>0.15</v>
-      </c>
-      <c r="Q43" s="42">
-        <f t="shared" si="15"/>
-        <v>127.5</v>
-      </c>
-      <c r="R43" s="53">
-        <f t="shared" si="16"/>
-        <v>19.125</v>
-      </c>
-      <c r="S43" s="54">
-        <f t="shared" si="17"/>
-        <v>19.975000000000001</v>
-      </c>
-      <c r="T43" s="42">
-        <f t="shared" si="19"/>
-        <v>11.512968299711817</v>
-      </c>
-      <c r="U43" s="51">
-        <f t="shared" si="20"/>
-        <v>179.77500000000001</v>
-      </c>
-      <c r="V43">
-        <v>1.7349999999999999</v>
-      </c>
-      <c r="W43" s="42">
-        <f t="shared" si="21"/>
-        <v>103.61671469740635</v>
-      </c>
-    </row>
-    <row r="44" spans="3:23">
-      <c r="C44" s="57" t="s">
-        <v>264</v>
-      </c>
-      <c r="D44" s="39"/>
-      <c r="E44" s="51">
-        <f t="shared" si="22"/>
-        <v>3</v>
-      </c>
-      <c r="F44" s="51">
-        <f t="shared" si="23"/>
-        <v>3</v>
-      </c>
-      <c r="G44" s="51">
-        <f t="shared" si="24"/>
-        <v>5</v>
-      </c>
-      <c r="H44" s="51">
-        <f t="shared" si="25"/>
-        <v>5</v>
-      </c>
-      <c r="I44" s="58">
-        <v>0.2</v>
-      </c>
-      <c r="J44" s="42">
-        <v>4.25</v>
-      </c>
-      <c r="K44" s="55">
-        <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="L44" s="55">
-        <f t="shared" si="11"/>
-        <v>21.25</v>
-      </c>
-      <c r="M44" s="42">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="N44" s="42">
-        <v>1</v>
-      </c>
-      <c r="O44" s="52">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="P44" s="42">
-        <f t="shared" si="14"/>
-        <v>1</v>
-      </c>
-      <c r="Q44" s="42">
-        <f t="shared" si="15"/>
-        <v>21.25</v>
-      </c>
-      <c r="R44" s="53">
-        <f t="shared" si="16"/>
-        <v>21.25</v>
-      </c>
-      <c r="S44" s="54">
-        <f t="shared" si="17"/>
-        <v>21.25</v>
-      </c>
-      <c r="T44" s="42">
-        <f t="shared" si="19"/>
-        <v>12.878787878787877</v>
-      </c>
-      <c r="U44" s="51">
-        <f t="shared" si="20"/>
-        <v>191.25</v>
-      </c>
-      <c r="V44">
-        <v>1.6500000000000001</v>
-      </c>
-      <c r="W44" s="42">
-        <f t="shared" si="21"/>
-        <v>115.90909090909091</v>
       </c>
     </row>
   </sheetData>
